--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="586">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1792,6 +1792,15 @@
   </si>
   <si>
     <t>UT(0-4-52)</t>
+  </si>
+  <si>
+    <t>8/1,2/2023</t>
+  </si>
+  <si>
+    <t>UT(0-3-15)</t>
+  </si>
+  <si>
+    <t>UT(0-3-30)</t>
   </si>
 </sst>
 </file>
@@ -2498,8 +2507,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K721" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K721"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K722" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K722"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2828,12 +2837,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K721"/>
+  <dimension ref="A2:K722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A646" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A640" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E655" sqref="E655"/>
+      <selection pane="bottomLeft" activeCell="F656" sqref="F656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +3009,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-7.9999999999870397E-2</v>
+        <v>-0.67299999999988813</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3010,7 +3019,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15.629999999999995</v>
+        <v>14.879999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17514,11 +17523,15 @@
       <c r="A652" s="40">
         <v>44652</v>
       </c>
-      <c r="B652" s="20"/>
+      <c r="B652" s="20" t="s">
+        <v>585</v>
+      </c>
       <c r="C652" s="13">
         <v>1.25</v>
       </c>
-      <c r="D652" s="39"/>
+      <c r="D652" s="39">
+        <v>0.437</v>
+      </c>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
       <c r="G652" s="13">
@@ -17534,11 +17547,15 @@
       <c r="A653" s="40">
         <v>44682</v>
       </c>
-      <c r="B653" s="20"/>
+      <c r="B653" s="20" t="s">
+        <v>573</v>
+      </c>
       <c r="C653" s="13">
         <v>1.25</v>
       </c>
-      <c r="D653" s="39"/>
+      <c r="D653" s="39">
+        <v>1</v>
+      </c>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
       <c r="G653" s="13">
@@ -17548,110 +17565,110 @@
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="20"/>
+      <c r="K653" s="48">
+        <v>44691</v>
+      </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C654" s="13">
-        <v>1.25</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="C654" s="13"/>
       <c r="D654" s="39">
-        <v>3</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G654" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H654" s="39"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="K654" s="20"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40"/>
+      <c r="A655" s="40">
+        <v>44713</v>
+      </c>
       <c r="B655" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="C655" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C655" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D655" s="39">
-        <v>0.60799999999999998</v>
+        <v>3</v>
       </c>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G655" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="20"/>
+      <c r="K655" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C656" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D656" s="39"/>
+        <v>582</v>
+      </c>
+      <c r="C656" s="13"/>
+      <c r="D656" s="39">
+        <v>0.60799999999999998</v>
+      </c>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H656" s="39"/>
-      <c r="I656" s="9">
-        <v>3</v>
-      </c>
+      <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="K656" s="20"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="40"/>
+      <c r="A657" s="40">
+        <v>44743</v>
+      </c>
       <c r="B657" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="C657" s="13"/>
-      <c r="D657" s="39">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C657" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D657" s="39"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G657" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H657" s="39"/>
-      <c r="I657" s="9"/>
+      <c r="I657" s="9">
+        <v>3</v>
+      </c>
       <c r="J657" s="11"/>
       <c r="K657" s="20" t="s">
-        <v>580</v>
+        <v>107</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C658" s="13"/>
       <c r="D658" s="39">
-        <v>0.32500000000000001</v>
+        <v>3</v>
       </c>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
@@ -17662,64 +17679,64 @@
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="20"/>
+      <c r="K658" s="20" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C659" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D659" s="39"/>
+        <v>581</v>
+      </c>
+      <c r="C659" s="13"/>
+      <c r="D659" s="39">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G659" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H659" s="39"/>
-      <c r="I659" s="9">
-        <v>1</v>
-      </c>
+      <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="K659" s="20"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40"/>
+      <c r="A660" s="40">
+        <v>44774</v>
+      </c>
       <c r="B660" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C660" s="13"/>
-      <c r="D660" s="39">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C660" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D660" s="39"/>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G660" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H660" s="39"/>
-      <c r="I660" s="9"/>
+      <c r="I660" s="9">
+        <v>1</v>
+      </c>
       <c r="J660" s="11"/>
       <c r="K660" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
-        <v>578</v>
+        <v>111</v>
       </c>
       <c r="C661" s="13"/>
       <c r="D661" s="39">
-        <v>0.51900000000000002</v>
+        <v>2</v>
       </c>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
@@ -17730,60 +17747,60 @@
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="20"/>
+      <c r="K661" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C662" s="13">
-        <v>1.25</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="C662" s="13"/>
       <c r="D662" s="39">
-        <v>2</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G662" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40"/>
+      <c r="A663" s="40">
+        <v>44805</v>
+      </c>
       <c r="B663" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C663" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="C663" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D663" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G663" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="48">
-        <v>44832</v>
+      <c r="K663" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20" t="s">
-        <v>573</v>
+        <v>54</v>
       </c>
       <c r="C664" s="13"/>
       <c r="D664" s="39">
@@ -17799,17 +17816,17 @@
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
       <c r="K664" s="48">
-        <v>44818</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
       <c r="C665" s="13"/>
       <c r="D665" s="39">
-        <v>0.215</v>
+        <v>1</v>
       </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
@@ -17820,46 +17837,46 @@
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="48"/>
+      <c r="K665" s="48">
+        <v>44818</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C666" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D666" s="39"/>
+        <v>481</v>
+      </c>
+      <c r="C666" s="13"/>
+      <c r="D666" s="39">
+        <v>0.215</v>
+      </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H666" s="39">
-        <v>1</v>
-      </c>
+      <c r="G666" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="48">
-        <v>44845</v>
-      </c>
+      <c r="K666" s="48"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40"/>
+      <c r="A667" s="40">
+        <v>44835</v>
+      </c>
       <c r="B667" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C667" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C667" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G667" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H667" s="39">
         <v>1</v>
@@ -17867,84 +17884,84 @@
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
       <c r="K667" s="48">
-        <v>44855</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
-        <v>575</v>
+        <v>141</v>
       </c>
       <c r="C668" s="13"/>
-      <c r="D668" s="39">
-        <v>9.6000000000000002E-2</v>
-      </c>
+      <c r="D668" s="39"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
       <c r="G668" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H668" s="39"/>
+      <c r="H668" s="39">
+        <v>1</v>
+      </c>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="48"/>
+      <c r="K668" s="48">
+        <v>44855</v>
+      </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C669" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D669" s="39"/>
+        <v>575</v>
+      </c>
+      <c r="C669" s="13"/>
+      <c r="D669" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H669" s="39">
-        <v>1</v>
-      </c>
+      <c r="G669" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="48">
-        <v>44873</v>
-      </c>
+      <c r="K669" s="48"/>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="40"/>
+      <c r="A670" s="40">
+        <v>44866</v>
+      </c>
       <c r="B670" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C670" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C670" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D670" s="39"/>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H670" s="39"/>
+      <c r="G670" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H670" s="39">
+        <v>1</v>
+      </c>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
       <c r="K670" s="48">
-        <v>44893</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C671" s="13"/>
-      <c r="D671" s="39">
-        <v>0.14600000000000002</v>
-      </c>
+      <c r="D671" s="39"/>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
       <c r="G671" s="13" t="str">
@@ -17954,61 +17971,65 @@
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="48"/>
+      <c r="K671" s="48">
+        <v>44893</v>
+      </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C672" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D672" s="39"/>
+        <v>574</v>
+      </c>
+      <c r="C672" s="13"/>
+      <c r="D672" s="39">
+        <v>0.14600000000000002</v>
+      </c>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
-      <c r="G672" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H672" s="39">
-        <v>3</v>
-      </c>
+      <c r="G672" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H672" s="39"/>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
-      <c r="K672" s="20" t="s">
-        <v>118</v>
-      </c>
+      <c r="K672" s="48"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="40"/>
+      <c r="A673" s="40">
+        <v>44896</v>
+      </c>
       <c r="B673" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C673" s="13"/>
-      <c r="D673" s="39">
-        <v>0.308</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C673" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D673" s="39"/>
       <c r="E673" s="9"/>
       <c r="F673" s="20"/>
-      <c r="G673" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H673" s="39"/>
+      <c r="G673" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H673" s="39">
+        <v>3</v>
+      </c>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="20"/>
+      <c r="K673" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B674" s="20"/>
+      <c r="A674" s="40"/>
+      <c r="B674" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="C674" s="13"/>
-      <c r="D674" s="39"/>
+      <c r="D674" s="39">
+        <v>0.308</v>
+      </c>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
       <c r="G674" s="13" t="str">
@@ -18021,49 +18042,45 @@
       <c r="K674" s="20"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B675" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C675" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A675" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B675" s="20"/>
+      <c r="C675" s="13"/>
       <c r="D675" s="39"/>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G675" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H675" s="39"/>
       <c r="I675" s="9"/>
       <c r="J675" s="11"/>
-      <c r="K675" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="K675" s="20"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="40"/>
+      <c r="A676" s="40">
+        <v>44927</v>
+      </c>
       <c r="B676" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C676" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C676" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H676" s="39">
-        <v>2</v>
-      </c>
+      <c r="G676" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
       <c r="K676" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
@@ -18085,183 +18102,179 @@
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
       <c r="K677" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C678" s="13">
-        <v>1.25</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C678" s="13"/>
       <c r="D678" s="39"/>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
-      <c r="G678" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H678" s="39"/>
+      <c r="G678" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H678" s="39">
+        <v>2</v>
+      </c>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
       <c r="K678" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40"/>
+      <c r="A679" s="40">
+        <v>44958</v>
+      </c>
       <c r="B679" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C679" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C679" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D679" s="39"/>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
-      <c r="G679" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H679" s="39">
-        <v>3</v>
-      </c>
+      <c r="G679" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H679" s="39"/>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
       <c r="K679" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A680" s="40"/>
       <c r="B680" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C680" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C680" s="13"/>
       <c r="D680" s="39"/>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
-      <c r="G680" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G680" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H680" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
       <c r="K680" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" s="40"/>
+      <c r="A681" s="40">
+        <v>44986</v>
+      </c>
       <c r="B681" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C681" s="13"/>
-      <c r="D681" s="39">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C681" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D681" s="39"/>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
-      <c r="G681" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H681" s="39"/>
+      <c r="G681" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H681" s="39">
+        <v>2</v>
+      </c>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
-      <c r="K681" s="48">
-        <v>45015</v>
+      <c r="K681" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C682" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D682" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="C682" s="13"/>
+      <c r="D682" s="39">
+        <v>1</v>
+      </c>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H682" s="39">
-        <v>2</v>
-      </c>
+      <c r="G682" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H682" s="39"/>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="20" t="s">
-        <v>122</v>
+      <c r="K682" s="48">
+        <v>45015</v>
       </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="40"/>
+      <c r="A683" s="40">
+        <v>45017</v>
+      </c>
       <c r="B683" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C683" s="13"/>
-      <c r="D683" s="39">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C683" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D683" s="39"/>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H683" s="39"/>
+      <c r="G683" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H683" s="39">
+        <v>2</v>
+      </c>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
       <c r="K683" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A684" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C684" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D684" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="C684" s="13"/>
+      <c r="D684" s="39">
+        <v>3</v>
+      </c>
       <c r="E684" s="9"/>
       <c r="F684" s="20"/>
-      <c r="G684" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H684" s="39">
-        <v>5</v>
-      </c>
+      <c r="G684" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H684" s="39"/>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
       <c r="K684" s="20" t="s">
-        <v>565</v>
+        <v>123</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B685" s="20" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="C685" s="13">
         <v>1.25</v>
@@ -18274,26 +18287,30 @@
         <v>1.25</v>
       </c>
       <c r="H685" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
       <c r="K685" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="40"/>
+      <c r="A686" s="40">
+        <v>45078</v>
+      </c>
       <c r="B686" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C686" s="13"/>
+      <c r="C686" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D686" s="39"/>
       <c r="E686" s="9"/>
       <c r="F686" s="20"/>
-      <c r="G686" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G686" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H686" s="39">
         <v>2</v>
@@ -18301,85 +18318,87 @@
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
       <c r="K686" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="C687" s="13"/>
-      <c r="D687" s="39">
-        <v>2</v>
-      </c>
+      <c r="D687" s="39"/>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
       <c r="G687" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H687" s="39"/>
+      <c r="H687" s="39">
+        <v>2</v>
+      </c>
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
       <c r="K687" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A688" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C688" s="13"/>
-      <c r="D688" s="39"/>
+      <c r="D688" s="39">
+        <v>2</v>
+      </c>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
       <c r="G688" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H688" s="39">
-        <v>2</v>
-      </c>
+      <c r="H688" s="39"/>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
       <c r="K688" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A689" s="40"/>
+      <c r="A689" s="40">
+        <v>45108</v>
+      </c>
       <c r="B689" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C689" s="13"/>
-      <c r="D689" s="39">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C689" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D689" s="39"/>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H689" s="39"/>
+      <c r="G689" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H689" s="39">
+        <v>2</v>
+      </c>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
       <c r="K689" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20" t="s">
-        <v>571</v>
+        <v>245</v>
       </c>
       <c r="C690" s="13"/>
       <c r="D690" s="39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
@@ -18391,36 +18410,36 @@
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
-        <v>141</v>
+        <v>571</v>
       </c>
       <c r="C691" s="13"/>
-      <c r="D691" s="39"/>
+      <c r="D691" s="39">
+        <v>8</v>
+      </c>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
       <c r="G691" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H691" s="39">
-        <v>1</v>
-      </c>
+      <c r="H691" s="39"/>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
-      <c r="K691" s="48">
-        <v>45124</v>
+      <c r="K691" s="20" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A692" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B692" s="20"/>
+      <c r="A692" s="40"/>
+      <c r="B692" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="C692" s="13"/>
       <c r="D692" s="39"/>
       <c r="E692" s="9"/>
@@ -18429,16 +18448,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H692" s="39"/>
+      <c r="H692" s="39">
+        <v>1</v>
+      </c>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
-      <c r="K692" s="20"/>
+      <c r="K692" s="48">
+        <v>45124</v>
+      </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B693" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B693" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
       <c r="E693" s="9"/>
@@ -18447,14 +18472,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H693" s="39"/>
+      <c r="H693" s="39">
+        <v>2</v>
+      </c>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
-      <c r="K693" s="20"/>
+      <c r="K693" s="20" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18472,7 +18501,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18490,7 +18519,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18508,7 +18537,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18526,7 +18555,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18544,7 +18573,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18562,7 +18591,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18580,7 +18609,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18598,7 +18627,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18616,7 +18645,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18634,7 +18663,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18652,7 +18681,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18670,7 +18699,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18688,7 +18717,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18706,7 +18735,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18724,7 +18753,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18742,7 +18771,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18760,7 +18789,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18778,7 +18807,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18796,7 +18825,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18814,7 +18843,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18832,7 +18861,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18849,7 +18878,9 @@
       <c r="K715" s="20"/>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40"/>
+      <c r="A716" s="40">
+        <v>45839</v>
+      </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
       <c r="D716" s="39"/>
@@ -18929,20 +18960,36 @@
       <c r="K720" s="20"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A721" s="41"/>
-      <c r="B721" s="15"/>
-      <c r="C721" s="42"/>
-      <c r="D721" s="43"/>
+      <c r="A721" s="40"/>
+      <c r="B721" s="20"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="39"/>
       <c r="E721" s="9"/>
-      <c r="F721" s="15"/>
+      <c r="F721" s="20"/>
       <c r="G721" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H721" s="43"/>
+      <c r="H721" s="39"/>
       <c r="I721" s="9"/>
-      <c r="J721" s="12"/>
-      <c r="K721" s="15"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="20"/>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" s="41"/>
+      <c r="B722" s="15"/>
+      <c r="C722" s="42"/>
+      <c r="D722" s="43"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="15"/>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="43"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="12"/>
+      <c r="K722" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19054,14 +19101,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.60799999999999998</v>
+        <v>0.437</v>
       </c>
       <c r="J3" s="47">
         <v>16</v>

--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="587">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1801,6 +1801,9 @@
   </si>
   <si>
     <t>UT(0-3-30)</t>
+  </si>
+  <si>
+    <t>9/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -2507,8 +2510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K722" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K722"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K725" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K725"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2837,12 +2840,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K722"/>
+  <dimension ref="A2:K725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A640" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A679" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F656" sqref="F656"/>
+      <selection pane="bottomLeft" activeCell="K697" sqref="K697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,7 +3012,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-0.67299999999988813</v>
+        <v>1.6670000000000869</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3019,7 +3022,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14.879999999999995</v>
+        <v>13.379999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17520,23 +17523,19 @@
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="C652" s="13">
-        <v>1.25</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="C652" s="13"/>
       <c r="D652" s="39">
-        <v>0.437</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G652" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H652" s="39"/>
       <c r="I652" s="9"/>
@@ -17545,16 +17544,16 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B653" s="20" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C653" s="13">
         <v>1.25</v>
       </c>
       <c r="D653" s="39">
-        <v>1</v>
+        <v>0.437</v>
       </c>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
@@ -17565,132 +17564,134 @@
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="48">
-        <v>44691</v>
-      </c>
+      <c r="K653" s="20"/>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40"/>
+      <c r="A654" s="40">
+        <v>44682</v>
+      </c>
       <c r="B654" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="C654" s="13"/>
+        <v>573</v>
+      </c>
+      <c r="C654" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D654" s="39">
-        <v>0.40600000000000003</v>
+        <v>1</v>
       </c>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G654" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H654" s="39"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="20"/>
+      <c r="K654" s="48">
+        <v>44691</v>
+      </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C655" s="13">
-        <v>1.25</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="C655" s="13"/>
       <c r="D655" s="39">
-        <v>3</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G655" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="K655" s="20"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40"/>
+      <c r="A656" s="40">
+        <v>44713</v>
+      </c>
       <c r="B656" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="C656" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C656" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D656" s="39">
-        <v>0.60799999999999998</v>
+        <v>3</v>
       </c>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G656" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20"/>
+      <c r="K656" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C657" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D657" s="39"/>
+        <v>582</v>
+      </c>
+      <c r="C657" s="13"/>
+      <c r="D657" s="39">
+        <v>0.60799999999999998</v>
+      </c>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H657" s="39"/>
-      <c r="I657" s="9">
-        <v>3</v>
-      </c>
+      <c r="I657" s="9"/>
       <c r="J657" s="11"/>
-      <c r="K657" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="K657" s="20"/>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="40"/>
+      <c r="A658" s="40">
+        <v>44743</v>
+      </c>
       <c r="B658" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="C658" s="13"/>
-      <c r="D658" s="39">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C658" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D658" s="39"/>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G658" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H658" s="39"/>
-      <c r="I658" s="9"/>
+      <c r="I658" s="9">
+        <v>3</v>
+      </c>
       <c r="J658" s="11"/>
       <c r="K658" s="20" t="s">
-        <v>580</v>
+        <v>107</v>
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C659" s="13"/>
       <c r="D659" s="39">
-        <v>0.32500000000000001</v>
+        <v>3</v>
       </c>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
@@ -17701,64 +17702,64 @@
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="20"/>
+      <c r="K659" s="20" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C660" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D660" s="39"/>
+        <v>581</v>
+      </c>
+      <c r="C660" s="13"/>
+      <c r="D660" s="39">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H660" s="39"/>
-      <c r="I660" s="9">
-        <v>1</v>
-      </c>
+      <c r="I660" s="9"/>
       <c r="J660" s="11"/>
-      <c r="K660" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="K660" s="20"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="40"/>
+      <c r="A661" s="40">
+        <v>44774</v>
+      </c>
       <c r="B661" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C661" s="13"/>
-      <c r="D661" s="39">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C661" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D661" s="39"/>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G661" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H661" s="39"/>
-      <c r="I661" s="9"/>
+      <c r="I661" s="9">
+        <v>1</v>
+      </c>
       <c r="J661" s="11"/>
       <c r="K661" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
-        <v>578</v>
+        <v>111</v>
       </c>
       <c r="C662" s="13"/>
       <c r="D662" s="39">
-        <v>0.51900000000000002</v>
+        <v>2</v>
       </c>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
@@ -17769,60 +17770,60 @@
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20"/>
+      <c r="K662" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C663" s="13">
-        <v>1.25</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="C663" s="13"/>
       <c r="D663" s="39">
-        <v>2</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="K663" s="20"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40"/>
+      <c r="A664" s="40">
+        <v>44805</v>
+      </c>
       <c r="B664" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C664" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D664" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
-      <c r="K664" s="48">
-        <v>44832</v>
+      <c r="K664" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
-        <v>573</v>
+        <v>54</v>
       </c>
       <c r="C665" s="13"/>
       <c r="D665" s="39">
@@ -17838,17 +17839,17 @@
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
       <c r="K665" s="48">
-        <v>44818</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="39">
-        <v>0.215</v>
+        <v>1</v>
       </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
@@ -17859,46 +17860,46 @@
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="48"/>
+      <c r="K666" s="48">
+        <v>44818</v>
+      </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C667" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D667" s="39"/>
+        <v>481</v>
+      </c>
+      <c r="C667" s="13"/>
+      <c r="D667" s="39">
+        <v>0.215</v>
+      </c>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H667" s="39">
-        <v>1</v>
-      </c>
+      <c r="G667" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H667" s="39"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="48">
-        <v>44845</v>
-      </c>
+      <c r="K667" s="48"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40"/>
+      <c r="A668" s="40">
+        <v>44835</v>
+      </c>
       <c r="B668" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C668" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D668" s="39"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="39">
         <v>1</v>
@@ -17906,84 +17907,84 @@
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
       <c r="K668" s="48">
-        <v>44855</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
-        <v>575</v>
+        <v>141</v>
       </c>
       <c r="C669" s="13"/>
-      <c r="D669" s="39">
-        <v>9.6000000000000002E-2</v>
-      </c>
+      <c r="D669" s="39"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
       <c r="G669" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H669" s="39"/>
+      <c r="H669" s="39">
+        <v>1</v>
+      </c>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="48"/>
+      <c r="K669" s="48">
+        <v>44855</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C670" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D670" s="39"/>
+        <v>575</v>
+      </c>
+      <c r="C670" s="13"/>
+      <c r="D670" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H670" s="39">
-        <v>1</v>
-      </c>
+      <c r="G670" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
-      <c r="K670" s="48">
-        <v>44873</v>
-      </c>
+      <c r="K670" s="48"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="40"/>
+      <c r="A671" s="40">
+        <v>44866</v>
+      </c>
       <c r="B671" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C671" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C671" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D671" s="39"/>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H671" s="39"/>
+      <c r="G671" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H671" s="39">
+        <v>1</v>
+      </c>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
       <c r="K671" s="48">
-        <v>44893</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C672" s="13"/>
-      <c r="D672" s="39">
-        <v>0.14600000000000002</v>
-      </c>
+      <c r="D672" s="39"/>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
       <c r="G672" s="13" t="str">
@@ -17993,61 +17994,65 @@
       <c r="H672" s="39"/>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
-      <c r="K672" s="48"/>
+      <c r="K672" s="48">
+        <v>44893</v>
+      </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C673" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D673" s="39"/>
+        <v>574</v>
+      </c>
+      <c r="C673" s="13"/>
+      <c r="D673" s="39">
+        <v>0.14600000000000002</v>
+      </c>
       <c r="E673" s="9"/>
       <c r="F673" s="20"/>
-      <c r="G673" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H673" s="39">
-        <v>3</v>
-      </c>
+      <c r="G673" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H673" s="39"/>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="20" t="s">
-        <v>118</v>
-      </c>
+      <c r="K673" s="48"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="40"/>
+      <c r="A674" s="40">
+        <v>44896</v>
+      </c>
       <c r="B674" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C674" s="13"/>
-      <c r="D674" s="39">
-        <v>0.308</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C674" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D674" s="39"/>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
-      <c r="G674" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H674" s="39"/>
+      <c r="G674" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H674" s="39">
+        <v>3</v>
+      </c>
       <c r="I674" s="9"/>
       <c r="J674" s="11"/>
-      <c r="K674" s="20"/>
+      <c r="K674" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B675" s="20"/>
+      <c r="A675" s="40"/>
+      <c r="B675" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="C675" s="13"/>
-      <c r="D675" s="39"/>
+      <c r="D675" s="39">
+        <v>0.308</v>
+      </c>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
       <c r="G675" s="13" t="str">
@@ -18060,49 +18065,45 @@
       <c r="K675" s="20"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B676" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C676" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A676" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B676" s="20"/>
+      <c r="C676" s="13"/>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G676" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
-      <c r="K676" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="K676" s="20"/>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="40"/>
+      <c r="A677" s="40">
+        <v>44927</v>
+      </c>
       <c r="B677" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C677" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C677" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D677" s="39"/>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
-      <c r="G677" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H677" s="39">
-        <v>2</v>
-      </c>
+      <c r="G677" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H677" s="39"/>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
       <c r="K677" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
@@ -18124,183 +18125,179 @@
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
       <c r="K678" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C679" s="13">
-        <v>1.25</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C679" s="13"/>
       <c r="D679" s="39"/>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
-      <c r="G679" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H679" s="39"/>
+      <c r="G679" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H679" s="39">
+        <v>2</v>
+      </c>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
       <c r="K679" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40"/>
+      <c r="A680" s="40">
+        <v>44958</v>
+      </c>
       <c r="B680" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C680" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C680" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D680" s="39"/>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
-      <c r="G680" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H680" s="39">
-        <v>3</v>
-      </c>
+      <c r="G680" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H680" s="39"/>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
       <c r="K680" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C681" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C681" s="13"/>
       <c r="D681" s="39"/>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
-      <c r="G681" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G681" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H681" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
       <c r="K681" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" s="40"/>
+      <c r="A682" s="40">
+        <v>44986</v>
+      </c>
       <c r="B682" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C682" s="13"/>
-      <c r="D682" s="39">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C682" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D682" s="39"/>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H682" s="39"/>
+      <c r="G682" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H682" s="39">
+        <v>2</v>
+      </c>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="48">
-        <v>45015</v>
+      <c r="K682" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C683" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D683" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="C683" s="13"/>
+      <c r="D683" s="39">
+        <v>1</v>
+      </c>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H683" s="39">
-        <v>2</v>
-      </c>
+      <c r="G683" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H683" s="39"/>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
-      <c r="K683" s="20" t="s">
-        <v>122</v>
+      <c r="K683" s="48">
+        <v>45015</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A684" s="40"/>
+      <c r="A684" s="40">
+        <v>45017</v>
+      </c>
       <c r="B684" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C684" s="13"/>
-      <c r="D684" s="39">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C684" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D684" s="39"/>
       <c r="E684" s="9"/>
       <c r="F684" s="20"/>
-      <c r="G684" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H684" s="39"/>
+      <c r="G684" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H684" s="39">
+        <v>2</v>
+      </c>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
       <c r="K684" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A685" s="40"/>
       <c r="B685" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C685" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D685" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="C685" s="13"/>
+      <c r="D685" s="39">
+        <v>3</v>
+      </c>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H685" s="39">
-        <v>5</v>
-      </c>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
       <c r="K685" s="20" t="s">
-        <v>565</v>
+        <v>123</v>
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B686" s="20" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="C686" s="13">
         <v>1.25</v>
@@ -18313,26 +18310,30 @@
         <v>1.25</v>
       </c>
       <c r="H686" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
       <c r="K686" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A687" s="40"/>
+      <c r="A687" s="40">
+        <v>45078</v>
+      </c>
       <c r="B687" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C687" s="13"/>
+      <c r="C687" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D687" s="39"/>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
-      <c r="G687" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G687" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H687" s="39">
         <v>2</v>
@@ -18340,87 +18341,87 @@
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
       <c r="K687" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="C688" s="13"/>
-      <c r="D688" s="39">
-        <v>2</v>
-      </c>
+      <c r="D688" s="39"/>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
       <c r="G688" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H688" s="39"/>
+      <c r="H688" s="39">
+        <v>2</v>
+      </c>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
       <c r="K688" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A689" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C689" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D689" s="39"/>
+        <v>175</v>
+      </c>
+      <c r="C689" s="13"/>
+      <c r="D689" s="39">
+        <v>2</v>
+      </c>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H689" s="39">
-        <v>2</v>
-      </c>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H689" s="39"/>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
       <c r="K689" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="40"/>
+      <c r="A690" s="40">
+        <v>45108</v>
+      </c>
       <c r="B690" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C690" s="13"/>
-      <c r="D690" s="39">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C690" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D690" s="39"/>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H690" s="39"/>
+      <c r="G690" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H690" s="39">
+        <v>2</v>
+      </c>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
-        <v>571</v>
+        <v>245</v>
       </c>
       <c r="C691" s="13"/>
       <c r="D691" s="39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
@@ -18432,37 +18433,35 @@
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
       <c r="K691" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
-        <v>141</v>
+        <v>571</v>
       </c>
       <c r="C692" s="13"/>
-      <c r="D692" s="39"/>
+      <c r="D692" s="39">
+        <v>8</v>
+      </c>
       <c r="E692" s="9"/>
       <c r="F692" s="20"/>
       <c r="G692" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H692" s="39">
-        <v>1</v>
-      </c>
+      <c r="H692" s="39"/>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
-      <c r="K692" s="48">
-        <v>45124</v>
+      <c r="K692" s="20" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
@@ -18473,55 +18472,71 @@
         <v/>
       </c>
       <c r="H693" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
-      <c r="K693" s="20" t="s">
-        <v>583</v>
+      <c r="K693" s="48">
+        <v>45124</v>
       </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B694" s="20"/>
-      <c r="C694" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B694" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C694" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H694" s="39"/>
+      <c r="G694" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H694" s="39">
+        <v>2</v>
+      </c>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
-      <c r="K694" s="20"/>
+      <c r="K694" s="20" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B695" s="20"/>
-      <c r="C695" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B695" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C695" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D695" s="39"/>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
-      <c r="G695" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H695" s="39"/>
+      <c r="G695" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H695" s="39">
+        <v>1</v>
+      </c>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
-      <c r="K695" s="20"/>
+      <c r="K695" s="48">
+        <v>45170</v>
+      </c>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A696" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B696" s="20"/>
+      <c r="A696" s="40"/>
+      <c r="B696" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="C696" s="13"/>
       <c r="D696" s="39"/>
       <c r="E696" s="9"/>
@@ -18530,16 +18545,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H696" s="39"/>
+      <c r="H696" s="39">
+        <v>1</v>
+      </c>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
-      <c r="K696" s="20"/>
+      <c r="K696" s="48">
+        <v>45169</v>
+      </c>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B697" s="20"/>
+      <c r="A697" s="40"/>
+      <c r="B697" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C697" s="13"/>
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
@@ -18548,14 +18567,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H697" s="39"/>
+      <c r="H697" s="39">
+        <v>2</v>
+      </c>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
-      <c r="K697" s="20"/>
+      <c r="K697" s="48" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18573,7 +18596,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18591,7 +18614,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18609,7 +18632,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18627,7 +18650,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18645,7 +18668,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18663,7 +18686,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18681,7 +18704,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18699,7 +18722,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18717,7 +18740,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18735,7 +18758,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18753,7 +18776,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18771,7 +18794,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18789,7 +18812,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18807,7 +18830,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18825,7 +18848,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18843,7 +18866,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18861,7 +18884,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18879,7 +18902,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18896,7 +18919,9 @@
       <c r="K716" s="20"/>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" s="40"/>
+      <c r="A717" s="40">
+        <v>45778</v>
+      </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
       <c r="D717" s="39"/>
@@ -18912,7 +18937,9 @@
       <c r="K717" s="20"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40"/>
+      <c r="A718" s="40">
+        <v>45809</v>
+      </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
       <c r="D718" s="39"/>
@@ -18928,7 +18955,9 @@
       <c r="K718" s="20"/>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40"/>
+      <c r="A719" s="40">
+        <v>45839</v>
+      </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
@@ -18976,20 +19005,68 @@
       <c r="K721" s="20"/>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A722" s="41"/>
-      <c r="B722" s="15"/>
-      <c r="C722" s="42"/>
-      <c r="D722" s="43"/>
+      <c r="A722" s="40"/>
+      <c r="B722" s="20"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39"/>
       <c r="E722" s="9"/>
-      <c r="F722" s="15"/>
+      <c r="F722" s="20"/>
       <c r="G722" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H722" s="43"/>
+      <c r="H722" s="39"/>
       <c r="I722" s="9"/>
-      <c r="J722" s="12"/>
-      <c r="K722" s="15"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="20"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" s="40"/>
+      <c r="B723" s="20"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="20"/>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="39"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="20"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="40"/>
+      <c r="B724" s="20"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39"/>
+      <c r="E724" s="9"/>
+      <c r="F724" s="20"/>
+      <c r="G724" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="39"/>
+      <c r="I724" s="9"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="20"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="41"/>
+      <c r="B725" s="15"/>
+      <c r="C725" s="42"/>
+      <c r="D725" s="43"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="15"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="43"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="12"/>
+      <c r="K725" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19101,14 +19178,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.437</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="J3" s="47">
         <v>16</v>

--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2C3C2-DF7B-4218-803C-69B1E97E7CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="592">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1803,11 +1802,29 @@
   <si>
     <t>VL(2-0-00)</t>
   </si>
+  <si>
+    <t>UT(0-4-49)</t>
+  </si>
+  <si>
+    <t>UT(0-0-49)</t>
+  </si>
+  <si>
+    <t>UT(0-0-41)</t>
+  </si>
+  <si>
+    <t>UT(0-0-37)</t>
+  </si>
+  <si>
+    <t>UT(0-0-43)</t>
+  </si>
+  <si>
+    <t>UT(0-0-36)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2491,7 +2508,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2508,26 +2525,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K725" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K725" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K732" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K732"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2834,34 +2851,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K725"/>
+  <dimension ref="A2:K732"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A692" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A677" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B702" sqref="B702"/>
+      <selection pane="bottomLeft" activeCell="F697" sqref="F697"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +2901,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2906,7 +2923,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2928,7 +2945,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2936,7 +2953,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2949,7 +2966,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2966,7 +2983,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3010,7 +3027,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.1670000000000869</v>
+        <v>3.1800000000001774</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3020,12 +3037,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10.879999999999995</v>
+        <v>12.129999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>531</v>
       </c>
@@ -3040,7 +3057,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36601</v>
       </c>
@@ -3064,7 +3081,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>545</v>
@@ -3082,7 +3099,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36617</v>
       </c>
@@ -3106,7 +3123,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>382</v>
@@ -3124,7 +3141,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3148,7 +3165,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3172,7 +3189,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3196,7 +3213,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3220,7 +3237,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>137</v>
@@ -3242,7 +3259,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>137</v>
@@ -3264,7 +3281,7 @@
         <v>36759</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36770</v>
       </c>
@@ -3288,7 +3305,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36800</v>
       </c>
@@ -3314,7 +3331,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>137</v>
@@ -3336,7 +3353,7 @@
         <v>36805</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>297</v>
@@ -3358,7 +3375,7 @@
         <v>36808</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>416</v>
@@ -3380,7 +3397,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>137</v>
@@ -3402,7 +3419,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36831</v>
       </c>
@@ -3426,7 +3443,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>539</v>
@@ -3446,7 +3463,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36861</v>
       </c>
@@ -3472,7 +3489,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>112</v>
@@ -3494,7 +3511,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>542</v>
@@ -3514,7 +3531,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>120</v>
       </c>
@@ -3532,7 +3549,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36892</v>
       </c>
@@ -3558,7 +3575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>142</v>
@@ -3578,7 +3595,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>138</v>
@@ -3598,7 +3615,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36923</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>226</v>
@@ -3644,7 +3661,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36951</v>
       </c>
@@ -3670,7 +3687,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>254</v>
@@ -3690,7 +3707,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36982</v>
       </c>
@@ -3714,7 +3731,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>142</v>
@@ -3734,7 +3751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>142</v>
@@ -3754,7 +3771,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37012</v>
       </c>
@@ -3778,7 +3795,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>143</v>
@@ -3800,7 +3817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>137</v>
@@ -3822,7 +3839,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37043</v>
       </c>
@@ -3846,7 +3863,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>148</v>
@@ -3868,7 +3885,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37073</v>
       </c>
@@ -3894,7 +3911,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>137</v>
@@ -3916,7 +3933,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>150</v>
@@ -3938,7 +3955,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>37112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>137</v>
@@ -3986,7 +4003,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>152</v>
@@ -4006,7 +4023,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37135</v>
       </c>
@@ -4032,7 +4049,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>154</v>
@@ -4052,7 +4069,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37165</v>
       </c>
@@ -4078,7 +4095,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>157</v>
@@ -4102,7 +4119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>160</v>
@@ -4124,7 +4141,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>159</v>
@@ -4144,7 +4161,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37196</v>
       </c>
@@ -4170,7 +4187,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>160</v>
@@ -4192,7 +4209,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>231</v>
@@ -4212,7 +4229,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>162</v>
@@ -4232,7 +4249,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37226</v>
       </c>
@@ -4258,7 +4275,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>165</v>
@@ -4278,7 +4295,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>136</v>
       </c>
@@ -4298,7 +4315,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37257</v>
       </c>
@@ -4324,7 +4341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>166</v>
@@ -4344,7 +4361,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4370,7 +4387,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>137</v>
@@ -4392,7 +4409,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>171</v>
@@ -4414,7 +4431,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37316</v>
       </c>
@@ -4438,7 +4455,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>169</v>
@@ -4460,7 +4477,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>170</v>
@@ -4480,7 +4497,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37347</v>
       </c>
@@ -4506,7 +4523,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>171</v>
@@ -4528,7 +4545,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>213</v>
@@ -4548,7 +4565,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37377</v>
       </c>
@@ -4574,7 +4591,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>160</v>
@@ -4598,7 +4615,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>157</v>
@@ -4620,7 +4637,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>160</v>
@@ -4642,7 +4659,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>172</v>
@@ -4662,7 +4679,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -4688,7 +4705,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>160</v>
@@ -4710,7 +4727,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>173</v>
@@ -4728,7 +4745,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37438</v>
       </c>
@@ -4754,7 +4771,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>186</v>
@@ -4778,7 +4795,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>241</v>
@@ -4800,7 +4817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>304</v>
@@ -4820,7 +4837,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37469</v>
       </c>
@@ -4846,7 +4863,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37500</v>
       </c>
@@ -4872,7 +4889,7 @@
         <v>37508</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>186</v>
@@ -4896,7 +4913,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37530</v>
       </c>
@@ -4922,7 +4939,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>169</v>
@@ -4946,7 +4963,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37561</v>
       </c>
@@ -4972,7 +4989,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>160</v>
@@ -4996,7 +5013,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>160</v>
@@ -5018,7 +5035,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>186</v>
@@ -5038,7 +5055,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>190</v>
@@ -5058,7 +5075,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -5084,7 +5101,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
         <v>135</v>
       </c>
@@ -5102,7 +5119,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37622</v>
       </c>
@@ -5124,7 +5141,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>137</v>
@@ -5146,7 +5163,7 @@
         <v>37631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>160</v>
@@ -5170,7 +5187,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>142</v>
@@ -5190,7 +5207,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>193</v>
@@ -5212,7 +5229,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37653</v>
       </c>
@@ -5238,7 +5255,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37681</v>
       </c>
@@ -5266,7 +5283,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>197</v>
@@ -5286,7 +5303,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37712</v>
       </c>
@@ -5314,7 +5331,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>231</v>
@@ -5336,7 +5353,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5354,7 +5371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37742</v>
       </c>
@@ -5378,7 +5395,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37773</v>
       </c>
@@ -5404,7 +5421,7 @@
         <v>37747</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>186</v>
@@ -5428,7 +5445,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37803</v>
       </c>
@@ -5454,7 +5471,7 @@
         <v>37871</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>241</v>
@@ -5476,7 +5493,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>202</v>
@@ -5496,7 +5513,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37834</v>
       </c>
@@ -5524,7 +5541,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>160</v>
@@ -5544,7 +5561,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>160</v>
@@ -5566,7 +5583,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37865</v>
       </c>
@@ -5592,7 +5609,7 @@
         <v>37964</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>137</v>
@@ -5614,7 +5631,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>206</v>
@@ -5636,7 +5653,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37895</v>
       </c>
@@ -5662,7 +5679,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>186</v>
@@ -5686,7 +5703,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>160</v>
@@ -5708,7 +5725,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>210</v>
@@ -5730,7 +5747,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37926</v>
       </c>
@@ -5754,7 +5771,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37956</v>
       </c>
@@ -5778,7 +5795,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>215</v>
@@ -5798,7 +5815,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
         <v>134</v>
       </c>
@@ -5816,7 +5833,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37987</v>
       </c>
@@ -5842,7 +5859,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>216</v>
@@ -5862,7 +5879,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38018</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>37291</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>142</v>
@@ -5908,7 +5925,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>218</v>
@@ -5928,7 +5945,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38047</v>
       </c>
@@ -5954,7 +5971,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>160</v>
@@ -5976,7 +5993,7 @@
         <v>38062</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>160</v>
@@ -5998,7 +6015,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>220</v>
@@ -6018,7 +6035,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38078</v>
       </c>
@@ -6044,7 +6061,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>160</v>
@@ -6068,7 +6085,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>160</v>
@@ -6090,7 +6107,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>219</v>
@@ -6110,7 +6127,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38108</v>
       </c>
@@ -6136,7 +6153,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>137</v>
@@ -6160,7 +6177,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>160</v>
@@ -6184,7 +6201,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>225</v>
@@ -6204,7 +6221,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -6224,7 +6241,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -6250,7 +6267,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>160</v>
@@ -6274,7 +6291,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>226</v>
@@ -6294,7 +6311,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -6320,7 +6337,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>186</v>
@@ -6344,7 +6361,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>160</v>
@@ -6366,7 +6383,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>141</v>
@@ -6386,7 +6403,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38231</v>
       </c>
@@ -6412,7 +6429,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>231</v>
@@ -6434,7 +6451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>233</v>
@@ -6454,7 +6471,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38261</v>
       </c>
@@ -6480,7 +6497,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>160</v>
@@ -6504,7 +6521,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>235</v>
@@ -6524,7 +6541,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38292</v>
       </c>
@@ -6550,7 +6567,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>160</v>
@@ -6574,7 +6591,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>160</v>
@@ -6596,7 +6613,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>237</v>
@@ -6616,7 +6633,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38322</v>
       </c>
@@ -6642,7 +6659,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>239</v>
@@ -6662,7 +6679,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="49" t="s">
         <v>133</v>
       </c>
@@ -6680,7 +6697,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38353</v>
       </c>
@@ -6702,7 +6719,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>137</v>
@@ -6724,7 +6741,7 @@
         <v>38365</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>231</v>
@@ -6748,7 +6765,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>142</v>
@@ -6768,7 +6785,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>142</v>
@@ -6788,7 +6805,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38384</v>
       </c>
@@ -6808,7 +6825,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38412</v>
       </c>
@@ -6834,7 +6851,7 @@
         <v>38428</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>137</v>
@@ -6856,7 +6873,7 @@
         <v>38438</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38443</v>
       </c>
@@ -6882,7 +6899,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38473</v>
       </c>
@@ -6908,7 +6925,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>137</v>
@@ -6930,7 +6947,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>231</v>
@@ -6952,7 +6969,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38504</v>
       </c>
@@ -6978,7 +6995,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>160</v>
@@ -7002,7 +7019,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38534</v>
       </c>
@@ -7030,7 +7047,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38565</v>
       </c>
@@ -7050,7 +7067,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38596</v>
       </c>
@@ -7076,7 +7093,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>137</v>
@@ -7098,7 +7115,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38626</v>
       </c>
@@ -7124,7 +7141,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38657</v>
       </c>
@@ -7144,7 +7161,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -7170,7 +7187,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>137</v>
@@ -7192,7 +7209,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>249</v>
@@ -7212,7 +7229,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="49" t="s">
         <v>132</v>
       </c>
@@ -7234,7 +7251,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -7258,7 +7275,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>112</v>
@@ -7280,7 +7297,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>186</v>
@@ -7302,7 +7319,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>160</v>
@@ -7324,7 +7341,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38749</v>
       </c>
@@ -7348,7 +7365,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>137</v>
@@ -7370,7 +7387,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>254</v>
@@ -7390,7 +7407,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38777</v>
       </c>
@@ -7416,7 +7433,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>142</v>
@@ -7436,7 +7453,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>137</v>
@@ -7458,7 +7475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>231</v>
@@ -7480,7 +7497,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>142</v>
@@ -7500,7 +7517,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38808</v>
       </c>
@@ -7528,7 +7545,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>137</v>
@@ -7550,7 +7567,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>137</v>
@@ -7572,7 +7589,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>264</v>
@@ -7592,7 +7609,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38838</v>
       </c>
@@ -7618,7 +7635,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>265</v>
@@ -7640,7 +7657,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>142</v>
@@ -7660,7 +7677,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38869</v>
       </c>
@@ -7684,7 +7701,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38899</v>
       </c>
@@ -7710,7 +7727,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>268</v>
@@ -7730,7 +7747,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38930</v>
       </c>
@@ -7756,7 +7773,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>271</v>
@@ -7776,7 +7793,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38961</v>
       </c>
@@ -7802,7 +7819,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>555</v>
@@ -7822,7 +7839,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38991</v>
       </c>
@@ -7846,7 +7863,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39022</v>
       </c>
@@ -7872,7 +7889,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>137</v>
@@ -7894,7 +7911,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>273</v>
@@ -7914,7 +7931,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39052</v>
       </c>
@@ -7940,7 +7957,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>277</v>
@@ -7960,7 +7977,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="48"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>131</v>
       </c>
@@ -7982,7 +7999,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39083</v>
       </c>
@@ -8006,7 +8023,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>137</v>
@@ -8028,7 +8045,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>543</v>
@@ -8050,7 +8067,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>112</v>
@@ -8072,7 +8089,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39114</v>
       </c>
@@ -8096,7 +8113,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>137</v>
@@ -8118,7 +8135,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>137</v>
@@ -8138,7 +8155,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>283</v>
@@ -8158,7 +8175,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39142</v>
       </c>
@@ -8184,7 +8201,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>142</v>
@@ -8202,7 +8219,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>142</v>
@@ -8222,7 +8239,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>544</v>
@@ -8242,7 +8259,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39173</v>
       </c>
@@ -8270,7 +8287,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>287</v>
@@ -8290,7 +8307,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>137</v>
@@ -8308,7 +8325,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39203</v>
       </c>
@@ -8334,7 +8351,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>288</v>
@@ -8354,7 +8371,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>231</v>
@@ -8376,7 +8393,7 @@
         <v>39237</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39234</v>
       </c>
@@ -8402,7 +8419,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>137</v>
@@ -8424,7 +8441,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>290</v>
@@ -8444,7 +8461,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39264</v>
       </c>
@@ -8470,7 +8487,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>211</v>
@@ -8494,7 +8511,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39295</v>
       </c>
@@ -8520,7 +8537,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>504</v>
@@ -8540,7 +8557,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="48"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39326</v>
       </c>
@@ -8566,7 +8583,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>157</v>
@@ -8586,7 +8603,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>294</v>
@@ -8606,7 +8623,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>295</v>
@@ -8626,7 +8643,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39356</v>
       </c>
@@ -8652,7 +8669,7 @@
         <v>39092</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>296</v>
@@ -8674,7 +8691,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>137</v>
@@ -8696,7 +8713,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>297</v>
@@ -8716,7 +8733,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>298</v>
@@ -8736,7 +8753,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>268</v>
@@ -8756,7 +8773,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>295</v>
@@ -8776,7 +8793,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39387</v>
       </c>
@@ -8802,7 +8819,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>160</v>
@@ -8824,7 +8841,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>186</v>
@@ -8846,7 +8863,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>303</v>
@@ -8866,7 +8883,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39417</v>
       </c>
@@ -8892,7 +8909,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>557</v>
@@ -8912,7 +8929,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>137</v>
@@ -8932,7 +8949,7 @@
         <v>39808</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>231</v>
@@ -8952,7 +8969,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="49" t="s">
         <v>130</v>
       </c>
@@ -8974,7 +8991,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39448</v>
       </c>
@@ -8998,7 +9015,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>304</v>
@@ -9020,7 +9037,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>137</v>
@@ -9040,7 +9057,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>307</v>
@@ -9060,7 +9077,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="48"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>308</v>
@@ -9080,7 +9097,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39479</v>
       </c>
@@ -9104,7 +9121,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>160</v>
@@ -9126,7 +9143,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>309</v>
@@ -9146,7 +9163,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="48"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>310</v>
@@ -9166,7 +9183,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39508</v>
       </c>
@@ -9192,7 +9209,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>312</v>
@@ -9212,7 +9229,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>313</v>
@@ -9232,7 +9249,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39539</v>
       </c>
@@ -9256,7 +9273,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>315</v>
@@ -9280,7 +9297,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>317</v>
@@ -9300,7 +9317,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>318</v>
@@ -9320,7 +9337,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39569</v>
       </c>
@@ -9344,7 +9361,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>319</v>
@@ -9364,7 +9381,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>320</v>
@@ -9384,7 +9401,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -9410,7 +9427,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>160</v>
@@ -9434,7 +9451,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>321</v>
@@ -9454,7 +9471,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="48"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>320</v>
@@ -9474,7 +9491,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="48"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>39630</v>
       </c>
@@ -9500,7 +9517,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>186</v>
@@ -9524,7 +9541,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>172</v>
@@ -9544,7 +9561,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="48"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39661</v>
       </c>
@@ -9572,7 +9589,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>320</v>
@@ -9592,7 +9609,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>324</v>
@@ -9614,7 +9631,7 @@
         <v>39516</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39692</v>
       </c>
@@ -9636,7 +9653,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>325</v>
@@ -9660,7 +9677,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>160</v>
@@ -9682,7 +9699,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>327</v>
@@ -9702,7 +9719,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="48"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>318</v>
@@ -9722,7 +9739,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="48"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39722</v>
       </c>
@@ -9750,7 +9767,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>160</v>
@@ -9772,7 +9789,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>165</v>
@@ -9792,7 +9809,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>320</v>
@@ -9812,7 +9829,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39753</v>
       </c>
@@ -9838,7 +9855,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>160</v>
@@ -9862,7 +9879,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>318</v>
@@ -9882,7 +9899,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="48"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>329</v>
@@ -9902,7 +9919,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -9926,7 +9943,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>331</v>
@@ -9946,7 +9963,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
         <v>129</v>
       </c>
@@ -9968,7 +9985,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -9994,7 +10011,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>142</v>
@@ -10014,7 +10031,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>160</v>
@@ -10036,7 +10053,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>142</v>
@@ -10056,7 +10073,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>336</v>
@@ -10076,7 +10093,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39845</v>
       </c>
@@ -10100,7 +10117,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>338</v>
@@ -10120,7 +10137,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>39873</v>
       </c>
@@ -10146,7 +10163,7 @@
         <v>39847</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>137</v>
@@ -10168,7 +10185,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>340</v>
@@ -10188,7 +10205,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="48"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>39904</v>
       </c>
@@ -10214,7 +10231,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>160</v>
@@ -10238,7 +10255,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>343</v>
@@ -10258,7 +10275,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>39934</v>
       </c>
@@ -10284,7 +10301,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>344</v>
@@ -10304,7 +10321,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="48"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>137</v>
@@ -10326,7 +10343,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39965</v>
       </c>
@@ -10354,7 +10371,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>211</v>
@@ -10378,7 +10395,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>347</v>
@@ -10398,7 +10415,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="48"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39995</v>
       </c>
@@ -10422,7 +10439,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40026</v>
       </c>
@@ -10446,7 +10463,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>40057</v>
       </c>
@@ -10472,7 +10489,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>137</v>
@@ -10494,7 +10511,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>352</v>
@@ -10514,7 +10531,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40087</v>
       </c>
@@ -10540,7 +10557,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>353</v>
@@ -10560,7 +10577,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40118</v>
       </c>
@@ -10584,7 +10601,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40148</v>
       </c>
@@ -10608,7 +10625,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="49" t="s">
         <v>128</v>
       </c>
@@ -10630,7 +10647,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40179</v>
       </c>
@@ -10654,7 +10671,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>142</v>
@@ -10674,7 +10691,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>190</v>
@@ -10694,7 +10711,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40210</v>
       </c>
@@ -10718,7 +10735,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>137</v>
@@ -10740,7 +10757,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>331</v>
@@ -10760,7 +10777,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40238</v>
       </c>
@@ -10784,7 +10801,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40269</v>
       </c>
@@ -10810,7 +10827,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>364</v>
@@ -10830,7 +10847,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40299</v>
       </c>
@@ -10856,7 +10873,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>365</v>
@@ -10876,7 +10893,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="48"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40330</v>
       </c>
@@ -10902,7 +10919,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>366</v>
@@ -10922,7 +10939,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40360</v>
       </c>
@@ -10948,7 +10965,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>368</v>
@@ -10970,7 +10987,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>370</v>
@@ -10990,7 +11007,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40391</v>
       </c>
@@ -11014,7 +11031,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40422</v>
       </c>
@@ -11038,7 +11055,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>40452</v>
       </c>
@@ -11064,7 +11081,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>112</v>
@@ -11086,7 +11103,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>377</v>
@@ -11106,7 +11123,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40483</v>
       </c>
@@ -11132,7 +11149,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>376</v>
@@ -11152,7 +11169,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40513</v>
       </c>
@@ -11176,7 +11193,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="49" t="s">
         <v>127</v>
       </c>
@@ -11198,7 +11215,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40544</v>
       </c>
@@ -11222,7 +11239,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>112</v>
@@ -11244,7 +11261,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>380</v>
@@ -11266,7 +11283,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40575</v>
       </c>
@@ -11290,7 +11307,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>195</v>
@@ -11314,7 +11331,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>160</v>
@@ -11336,7 +11353,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>386</v>
@@ -11356,7 +11373,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40603</v>
       </c>
@@ -11382,7 +11399,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>387</v>
@@ -11406,7 +11423,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>40634</v>
       </c>
@@ -11426,7 +11443,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>40664</v>
       </c>
@@ -11452,7 +11469,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40695</v>
       </c>
@@ -11478,7 +11495,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>40725</v>
       </c>
@@ -11498,7 +11515,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40756</v>
       </c>
@@ -11524,7 +11541,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40787</v>
       </c>
@@ -11548,7 +11565,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>394</v>
@@ -11568,7 +11585,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>395</v>
@@ -11588,7 +11605,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40817</v>
       </c>
@@ -11612,7 +11629,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40848</v>
       </c>
@@ -11638,7 +11655,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>137</v>
@@ -11660,7 +11677,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>137</v>
@@ -11682,7 +11699,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40878</v>
       </c>
@@ -11706,7 +11723,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>391</v>
@@ -11726,7 +11743,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>391</v>
@@ -11746,7 +11763,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>137</v>
@@ -11768,7 +11785,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>399</v>
@@ -11788,7 +11805,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="48"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="49" t="s">
         <v>126</v>
       </c>
@@ -11810,7 +11827,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40909</v>
       </c>
@@ -11834,7 +11851,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>400</v>
@@ -11854,7 +11871,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>142</v>
@@ -11874,7 +11891,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>137</v>
@@ -11896,7 +11913,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>401</v>
@@ -11916,7 +11933,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -11940,7 +11957,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>137</v>
@@ -11962,7 +11979,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>391</v>
@@ -11982,7 +11999,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>406</v>
@@ -12002,7 +12019,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40969</v>
       </c>
@@ -12028,7 +12045,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>391</v>
@@ -12048,7 +12065,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>137</v>
@@ -12070,7 +12087,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>409</v>
@@ -12090,7 +12107,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="48"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41000</v>
       </c>
@@ -12114,7 +12131,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41030</v>
       </c>
@@ -12140,7 +12157,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>412</v>
@@ -12160,7 +12177,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>391</v>
@@ -12180,7 +12197,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>415</v>
@@ -12200,7 +12217,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41061</v>
       </c>
@@ -12226,7 +12243,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>417</v>
@@ -12246,7 +12263,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41091</v>
       </c>
@@ -12272,7 +12289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>420</v>
@@ -12292,7 +12309,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="48"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41122</v>
       </c>
@@ -12318,7 +12335,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>112</v>
@@ -12340,7 +12357,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>420</v>
@@ -12360,7 +12377,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="48"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41153</v>
       </c>
@@ -12386,7 +12403,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>137</v>
@@ -12406,7 +12423,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>423</v>
@@ -12426,7 +12443,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41183</v>
       </c>
@@ -12452,7 +12469,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>422</v>
@@ -12472,7 +12489,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41214</v>
       </c>
@@ -12498,7 +12515,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>426</v>
@@ -12518,7 +12535,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41244</v>
       </c>
@@ -12544,7 +12561,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>429</v>
@@ -12564,7 +12581,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="49" t="s">
         <v>125</v>
       </c>
@@ -12586,7 +12603,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41275</v>
       </c>
@@ -12610,7 +12627,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>142</v>
@@ -12630,7 +12647,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>430</v>
@@ -12650,7 +12667,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41306</v>
       </c>
@@ -12674,7 +12691,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41334</v>
       </c>
@@ -12698,7 +12715,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41365</v>
       </c>
@@ -12724,7 +12741,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>433</v>
@@ -12746,7 +12763,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41395</v>
       </c>
@@ -12768,7 +12785,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41426</v>
       </c>
@@ -12792,7 +12809,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>437</v>
@@ -12812,7 +12829,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41456</v>
       </c>
@@ -12836,7 +12853,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>171</v>
@@ -12858,7 +12875,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>171</v>
@@ -12880,7 +12897,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>112</v>
@@ -12902,7 +12919,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>112</v>
@@ -12924,7 +12941,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41487</v>
       </c>
@@ -12950,7 +12967,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>442</v>
@@ -12970,7 +12987,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>41518</v>
       </c>
@@ -12994,7 +13011,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>444</v>
@@ -13014,7 +13031,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41548</v>
       </c>
@@ -13038,7 +13055,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>41579</v>
       </c>
@@ -13058,7 +13075,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41609</v>
       </c>
@@ -13084,7 +13101,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="49" t="s">
         <v>124</v>
       </c>
@@ -13106,7 +13123,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41640</v>
       </c>
@@ -13130,7 +13147,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41671</v>
       </c>
@@ -13154,7 +13171,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>142</v>
@@ -13174,7 +13191,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>446</v>
@@ -13194,7 +13211,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41699</v>
       </c>
@@ -13220,7 +13237,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>171</v>
@@ -13242,7 +13259,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>448</v>
@@ -13264,7 +13281,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41730</v>
       </c>
@@ -13288,7 +13305,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>112</v>
@@ -13310,7 +13327,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>451</v>
@@ -13330,7 +13347,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>416</v>
@@ -13352,7 +13369,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>41760</v>
       </c>
@@ -13378,7 +13395,7 @@
         <v>41795</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>112</v>
@@ -13400,7 +13417,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>190</v>
@@ -13420,7 +13437,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -13446,7 +13463,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>137</v>
@@ -13468,7 +13485,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>137</v>
@@ -13490,7 +13507,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>457</v>
@@ -13510,7 +13527,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>41821</v>
       </c>
@@ -13536,7 +13553,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>459</v>
@@ -13558,7 +13575,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>461</v>
@@ -13578,7 +13595,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41852</v>
       </c>
@@ -13604,7 +13621,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>463</v>
@@ -13624,7 +13641,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>41883</v>
       </c>
@@ -13650,7 +13667,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>465</v>
@@ -13670,7 +13687,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>41913</v>
       </c>
@@ -13694,7 +13711,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>41944</v>
       </c>
@@ -13720,7 +13737,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>137</v>
@@ -13742,7 +13759,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>41974</v>
       </c>
@@ -13768,7 +13785,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>466</v>
@@ -13788,7 +13805,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="48"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="49" t="s">
         <v>123</v>
       </c>
@@ -13810,7 +13827,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>42005</v>
       </c>
@@ -13834,7 +13851,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>142</v>
@@ -13854,7 +13871,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>137</v>
@@ -13874,7 +13891,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>467</v>
@@ -13894,7 +13911,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42036</v>
       </c>
@@ -13920,7 +13937,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>137</v>
@@ -13942,7 +13959,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>469</v>
@@ -13962,7 +13979,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="48"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -13988,7 +14005,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>231</v>
@@ -14010,7 +14027,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>137</v>
@@ -14032,7 +14049,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>472</v>
@@ -14052,7 +14069,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42095</v>
       </c>
@@ -14078,7 +14095,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>142</v>
@@ -14098,7 +14115,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>160</v>
@@ -14120,7 +14137,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>160</v>
@@ -14142,7 +14159,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>477</v>
@@ -14162,7 +14179,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42125</v>
       </c>
@@ -14188,7 +14205,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>479</v>
@@ -14208,7 +14225,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42156</v>
       </c>
@@ -14234,7 +14251,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>481</v>
@@ -14254,7 +14271,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>42186</v>
       </c>
@@ -14278,7 +14295,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>137</v>
@@ -14300,7 +14317,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>42217</v>
       </c>
@@ -14326,7 +14343,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>483</v>
@@ -14346,7 +14363,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>137</v>
@@ -14368,7 +14385,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>365</v>
@@ -14388,7 +14405,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42248</v>
       </c>
@@ -14414,7 +14431,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>486</v>
@@ -14434,7 +14451,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42278</v>
       </c>
@@ -14460,7 +14477,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>489</v>
@@ -14480,7 +14497,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42309</v>
       </c>
@@ -14506,7 +14523,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>491</v>
@@ -14526,7 +14543,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42339</v>
       </c>
@@ -14552,7 +14569,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>493</v>
@@ -14572,7 +14589,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="49" t="s">
         <v>122</v>
       </c>
@@ -14594,7 +14611,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>42370</v>
       </c>
@@ -14618,7 +14635,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>137</v>
@@ -14640,7 +14657,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>495</v>
@@ -14660,7 +14677,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="48"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>42401</v>
       </c>
@@ -14684,7 +14701,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>137</v>
@@ -14706,7 +14723,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>497</v>
@@ -14726,7 +14743,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>42430</v>
       </c>
@@ -14752,7 +14769,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>142</v>
@@ -14772,7 +14789,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>499</v>
@@ -14792,7 +14809,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="48"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42461</v>
       </c>
@@ -14818,7 +14835,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>501</v>
@@ -14838,7 +14855,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42491</v>
       </c>
@@ -14864,7 +14881,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>141</v>
@@ -14884,7 +14901,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42522</v>
       </c>
@@ -14910,7 +14927,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>303</v>
@@ -14930,7 +14947,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42552</v>
       </c>
@@ -14954,7 +14971,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>42583</v>
       </c>
@@ -14980,7 +14997,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>506</v>
@@ -15000,7 +15017,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>42614</v>
       </c>
@@ -15026,7 +15043,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>137</v>
@@ -15048,7 +15065,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>508</v>
@@ -15068,7 +15085,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="50"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>42644</v>
       </c>
@@ -15094,7 +15111,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>510</v>
@@ -15114,7 +15131,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42675</v>
       </c>
@@ -15140,7 +15157,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>511</v>
@@ -15160,7 +15177,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>42705</v>
       </c>
@@ -15184,7 +15201,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="49" t="s">
         <v>121</v>
       </c>
@@ -15206,7 +15223,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>42736</v>
       </c>
@@ -15230,7 +15247,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>512</v>
@@ -15250,7 +15267,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -15276,7 +15293,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>514</v>
@@ -15296,7 +15313,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="48"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -15320,7 +15337,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>137</v>
@@ -15342,7 +15359,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>42826</v>
       </c>
@@ -15366,7 +15383,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>516</v>
@@ -15386,7 +15403,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="48"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>42856</v>
       </c>
@@ -15412,7 +15429,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>137</v>
@@ -15434,7 +15451,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>518</v>
@@ -15454,7 +15471,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="48"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42887</v>
       </c>
@@ -15480,7 +15497,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>112</v>
@@ -15502,7 +15519,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>430</v>
@@ -15522,7 +15539,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>42917</v>
       </c>
@@ -15548,7 +15565,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>137</v>
@@ -15570,7 +15587,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>477</v>
@@ -15590,7 +15607,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -15616,7 +15633,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>137</v>
@@ -15638,7 +15655,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>525</v>
@@ -15658,7 +15675,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>42979</v>
       </c>
@@ -15684,7 +15701,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>527</v>
@@ -15704,7 +15721,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -15730,7 +15747,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>112</v>
@@ -15752,7 +15769,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>186</v>
@@ -15776,7 +15793,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>530</v>
@@ -15796,7 +15813,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -15816,7 +15833,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43070</v>
       </c>
@@ -15840,7 +15857,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23" t="s">
         <v>45</v>
       </c>
@@ -15858,7 +15875,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43101</v>
       </c>
@@ -15882,7 +15899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43132</v>
       </c>
@@ -15904,7 +15921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -15926,7 +15943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>46</v>
@@ -15948,7 +15965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
         <v>43160</v>
       </c>
@@ -15968,7 +15985,7 @@
       <c r="J583" s="12"/>
       <c r="K583" s="15"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>43191</v>
       </c>
@@ -15992,7 +16009,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>52</v>
@@ -16016,7 +16033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43221</v>
       </c>
@@ -16040,7 +16057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -16064,7 +16081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>43252</v>
       </c>
@@ -16090,7 +16107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>55</v>
@@ -16114,7 +16131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>59</v>
@@ -16136,7 +16153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>43282</v>
       </c>
@@ -16156,7 +16173,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>43313</v>
       </c>
@@ -16180,7 +16197,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43344</v>
       </c>
@@ -16206,7 +16223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43374</v>
       </c>
@@ -16232,7 +16249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>43405</v>
       </c>
@@ -16258,7 +16275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43435</v>
       </c>
@@ -16284,7 +16301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="49" t="s">
         <v>67</v>
       </c>
@@ -16302,7 +16319,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>43466</v>
       </c>
@@ -16326,7 +16343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>68</v>
@@ -16348,7 +16365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43497</v>
       </c>
@@ -16372,7 +16389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43525</v>
       </c>
@@ -16394,7 +16411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>52</v>
@@ -16418,7 +16435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>43556</v>
       </c>
@@ -16442,7 +16459,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>75</v>
@@ -16468,7 +16485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43586</v>
       </c>
@@ -16488,7 +16505,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43617</v>
       </c>
@@ -16512,7 +16529,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>52</v>
@@ -16534,7 +16551,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>78</v>
@@ -16558,7 +16575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43647</v>
       </c>
@@ -16582,7 +16599,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -16606,7 +16623,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43678</v>
       </c>
@@ -16630,7 +16647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>80</v>
@@ -16654,7 +16671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>43709</v>
       </c>
@@ -16680,7 +16697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43739</v>
       </c>
@@ -16708,7 +16725,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>43770</v>
       </c>
@@ -16734,7 +16751,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43800</v>
       </c>
@@ -16758,7 +16775,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="49" t="s">
         <v>86</v>
       </c>
@@ -16776,7 +16793,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43831</v>
       </c>
@@ -16800,7 +16817,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>87</v>
@@ -16822,7 +16839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>88</v>
@@ -16844,7 +16861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43862</v>
       </c>
@@ -16864,7 +16881,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43891</v>
       </c>
@@ -16884,7 +16901,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>43922</v>
       </c>
@@ -16904,7 +16921,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>43952</v>
       </c>
@@ -16924,7 +16941,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43983</v>
       </c>
@@ -16944,7 +16961,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44013</v>
       </c>
@@ -16968,7 +16985,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>91</v>
@@ -16992,7 +17009,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44044</v>
       </c>
@@ -17012,7 +17029,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44075</v>
       </c>
@@ -17032,7 +17049,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44105</v>
       </c>
@@ -17052,7 +17069,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44136</v>
       </c>
@@ -17072,7 +17089,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>44166</v>
       </c>
@@ -17096,7 +17113,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="49" t="s">
         <v>93</v>
       </c>
@@ -17114,7 +17131,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44197</v>
       </c>
@@ -17134,7 +17151,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44228</v>
       </c>
@@ -17160,7 +17177,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>44256</v>
       </c>
@@ -17180,7 +17197,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>44287</v>
       </c>
@@ -17200,7 +17217,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44317</v>
       </c>
@@ -17220,7 +17237,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>44348</v>
       </c>
@@ -17240,7 +17257,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>44378</v>
       </c>
@@ -17264,7 +17281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>55</v>
@@ -17286,7 +17303,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>48</v>
@@ -17310,7 +17327,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>44409</v>
       </c>
@@ -17336,7 +17353,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44440</v>
       </c>
@@ -17356,7 +17373,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44470</v>
       </c>
@@ -17382,7 +17399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44501</v>
       </c>
@@ -17408,7 +17425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44531</v>
       </c>
@@ -17434,7 +17451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="49" t="s">
         <v>573</v>
       </c>
@@ -17452,7 +17469,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>44562</v>
       </c>
@@ -17476,7 +17493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44593</v>
       </c>
@@ -17496,7 +17513,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44621</v>
       </c>
@@ -17520,7 +17537,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
         <v>539</v>
@@ -17540,7 +17557,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44652</v>
       </c>
@@ -17564,7 +17581,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44682</v>
       </c>
@@ -17590,7 +17607,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>579</v>
@@ -17610,7 +17627,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44713</v>
       </c>
@@ -17636,7 +17653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>577</v>
@@ -17656,7 +17673,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44743</v>
       </c>
@@ -17676,7 +17693,7 @@
       <c r="J658" s="39"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>241</v>
@@ -17698,7 +17715,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>576</v>
@@ -17718,7 +17735,7 @@
       <c r="J660" s="39"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>44774</v>
       </c>
@@ -17744,7 +17761,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>574</v>
@@ -17764,7 +17781,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>44805</v>
       </c>
@@ -17790,7 +17807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20" t="s">
         <v>54</v>
@@ -17812,7 +17829,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
         <v>569</v>
@@ -17834,7 +17851,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>477</v>
@@ -17854,7 +17871,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="48"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>44835</v>
       </c>
@@ -17880,7 +17897,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>137</v>
@@ -17902,7 +17919,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>571</v>
@@ -17922,7 +17939,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="48"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>44866</v>
       </c>
@@ -17948,7 +17965,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
         <v>570</v>
@@ -17968,7 +17985,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="48"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44896</v>
       </c>
@@ -17994,7 +18011,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>568</v>
@@ -18014,7 +18031,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="49" t="s">
         <v>109</v>
       </c>
@@ -18032,7 +18049,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44927</v>
       </c>
@@ -18056,7 +18073,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>112</v>
@@ -18078,7 +18095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>112</v>
@@ -18100,7 +18117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>44958</v>
       </c>
@@ -18124,7 +18141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>55</v>
@@ -18146,7 +18163,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>44986</v>
       </c>
@@ -18172,7 +18189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
         <v>54</v>
@@ -18194,7 +18211,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>45017</v>
       </c>
@@ -18220,7 +18237,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>55</v>
@@ -18242,7 +18259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>45047</v>
       </c>
@@ -18268,7 +18285,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>45078</v>
       </c>
@@ -18294,7 +18311,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20" t="s">
         <v>112</v>
@@ -18316,7 +18333,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20" t="s">
         <v>171</v>
@@ -18338,62 +18355,60 @@
         <v>564</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A688" s="40">
-        <v>45108</v>
-      </c>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C688" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D688" s="39"/>
+        <v>591</v>
+      </c>
+      <c r="C688" s="13"/>
+      <c r="D688" s="39">
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
-      <c r="G688" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H688" s="39">
-        <v>2</v>
-      </c>
+      <c r="G688" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H688" s="39"/>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
-      <c r="K688" s="20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A689" s="40"/>
+      <c r="K688" s="20"/>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="40">
+        <v>45108</v>
+      </c>
       <c r="B689" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C689" s="13"/>
-      <c r="D689" s="39">
-        <v>3</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C689" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D689" s="39"/>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H689" s="39"/>
+      <c r="G689" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H689" s="39">
+        <v>2</v>
+      </c>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
       <c r="K689" s="20" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20" t="s">
-        <v>567</v>
+        <v>241</v>
       </c>
       <c r="C690" s="13"/>
       <c r="D690" s="39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
@@ -18405,130 +18420,122 @@
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="20" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
-        <v>137</v>
+        <v>567</v>
       </c>
       <c r="C691" s="13"/>
-      <c r="D691" s="39"/>
+      <c r="D691" s="39">
+        <v>8</v>
+      </c>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
       <c r="G691" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H691" s="39">
-        <v>1</v>
-      </c>
+      <c r="H691" s="39"/>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
-      <c r="K691" s="48">
-        <v>45124</v>
-      </c>
-    </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A692" s="40">
-        <v>45139</v>
-      </c>
+      <c r="K691" s="20" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C692" s="13">
-        <v>1.25</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C692" s="13"/>
       <c r="D692" s="39"/>
       <c r="E692" s="9"/>
       <c r="F692" s="20"/>
-      <c r="G692" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G692" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H692" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
-      <c r="K692" s="20" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A693" s="40">
-        <v>45170</v>
-      </c>
+      <c r="K692" s="48">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C693" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D693" s="39"/>
+        <v>590</v>
+      </c>
+      <c r="C693" s="13"/>
+      <c r="D693" s="39">
+        <v>0.09</v>
+      </c>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H693" s="39">
-        <v>1</v>
-      </c>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="39"/>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
-      <c r="K693" s="48">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A694" s="40"/>
+      <c r="K693" s="48"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="40">
+        <v>45139</v>
+      </c>
       <c r="B694" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C694" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C694" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G694" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H694" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
-      <c r="K694" s="48">
-        <v>45169</v>
-      </c>
-    </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K694" s="20" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
-        <v>112</v>
+        <v>589</v>
       </c>
       <c r="C695" s="13"/>
-      <c r="D695" s="39"/>
+      <c r="D695" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
       <c r="G695" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H695" s="39">
-        <v>2</v>
-      </c>
+      <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
-      <c r="K695" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K695" s="20"/>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B696" s="20" t="s">
         <v>137</v>
@@ -18549,15 +18556,13 @@
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
       <c r="K696" s="48">
-        <v>45208</v>
-      </c>
-    </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A697" s="40">
-        <v>45231</v>
-      </c>
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="40"/>
       <c r="B697" s="20" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="C697" s="13"/>
       <c r="D697" s="39"/>
@@ -18568,41 +18573,45 @@
         <v/>
       </c>
       <c r="H697" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
-      <c r="K697" s="20" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A698" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B698" s="20"/>
-      <c r="C698" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K697" s="48">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="40"/>
+      <c r="B698" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C698" s="13"/>
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H698" s="39"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="39">
+        <v>2</v>
+      </c>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20"/>
-    </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A699" s="49" t="s">
-        <v>583</v>
-      </c>
-      <c r="B699" s="20"/>
+      <c r="K698" s="48" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A699" s="40"/>
+      <c r="B699" s="20" t="s">
+        <v>588</v>
+      </c>
       <c r="C699" s="13"/>
-      <c r="D699" s="39"/>
+      <c r="D699" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
       <c r="G699" s="13" t="str">
@@ -18612,22 +18621,24 @@
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
-      <c r="K699" s="20"/>
-    </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K699" s="48"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>45322</v>
+        <v>45200</v>
       </c>
       <c r="B700" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C700" s="13"/>
+      <c r="C700" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G700" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H700" s="39">
         <v>1</v>
@@ -18635,16 +18646,18 @@
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
       <c r="K700" s="48">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
-        <v>142</v>
+        <v>587</v>
       </c>
       <c r="C701" s="13"/>
-      <c r="D701" s="39"/>
+      <c r="D701" s="39">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
       <c r="G701" s="13" t="str">
@@ -18654,35 +18667,43 @@
       <c r="H701" s="39"/>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
-      <c r="K701" s="48">
-        <v>45296</v>
-      </c>
-    </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K701" s="48"/>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B702" s="20"/>
-      <c r="C702" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B702" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C702" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D702" s="39"/>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H702" s="39"/>
+      <c r="G702" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H702" s="39">
+        <v>3</v>
+      </c>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
-      <c r="K702" s="20"/>
-    </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A703" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B703" s="20"/>
+      <c r="K702" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A703" s="40"/>
+      <c r="B703" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="C703" s="13"/>
-      <c r="D703" s="39"/>
+      <c r="D703" s="39">
+        <v>1</v>
+      </c>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
       <c r="G703" s="13" t="str">
@@ -18692,15 +18713,19 @@
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
-      <c r="K703" s="20"/>
-    </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A704" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B704" s="20"/>
+      <c r="K703" s="48">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="40"/>
+      <c r="B704" s="20" t="s">
+        <v>287</v>
+      </c>
       <c r="C704" s="13"/>
-      <c r="D704" s="39"/>
+      <c r="D704" s="39">
+        <v>0.20600000000000002</v>
+      </c>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
       <c r="G704" s="13" t="str">
@@ -18710,29 +18735,35 @@
       <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
-      <c r="K704" s="20"/>
-    </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K704" s="48"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B705" s="20"/>
-      <c r="C705" s="13"/>
-      <c r="D705" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B705" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C705" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D705" s="39">
+        <v>0.60199999999999998</v>
+      </c>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G705" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H705" s="39"/>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A706" s="40">
-        <v>45444</v>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="49" t="s">
+        <v>583</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18748,11 +18779,13 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B707" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B707" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="C707" s="13"/>
       <c r="D707" s="39"/>
       <c r="E707" s="9"/>
@@ -18761,16 +18794,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H707" s="39"/>
+      <c r="H707" s="39">
+        <v>1</v>
+      </c>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
-      <c r="K707" s="20"/>
-    </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A708" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B708" s="20"/>
+      <c r="K707" s="48">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A708" s="40"/>
+      <c r="B708" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="C708" s="13"/>
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
@@ -18782,11 +18819,13 @@
       <c r="H708" s="39"/>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
-      <c r="K708" s="20"/>
-    </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K708" s="48">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18802,9 +18841,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18820,9 +18859,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18838,9 +18877,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18856,9 +18895,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18874,9 +18913,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18892,9 +18931,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18910,9 +18949,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18928,9 +18967,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18946,9 +18985,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18964,9 +19003,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18982,8 +19021,10 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A720" s="40"/>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A720" s="40">
+        <v>45658</v>
+      </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
       <c r="D720" s="39"/>
@@ -18998,8 +19039,10 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A721" s="40"/>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="40">
+        <v>45689</v>
+      </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
       <c r="D721" s="39"/>
@@ -19014,8 +19057,10 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A722" s="40"/>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" s="40">
+        <v>45717</v>
+      </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
       <c r="D722" s="39"/>
@@ -19030,8 +19075,10 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A723" s="40"/>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" s="40">
+        <v>45748</v>
+      </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
       <c r="D723" s="39"/>
@@ -19046,8 +19093,10 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A724" s="40"/>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="40">
+        <v>45778</v>
+      </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
       <c r="D724" s="39"/>
@@ -19062,21 +19111,137 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A725" s="41"/>
-      <c r="B725" s="15"/>
-      <c r="C725" s="42"/>
-      <c r="D725" s="43"/>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
       <c r="E725" s="9"/>
-      <c r="F725" s="15"/>
+      <c r="F725" s="20"/>
       <c r="G725" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H725" s="43"/>
+      <c r="H725" s="39"/>
       <c r="I725" s="9"/>
-      <c r="J725" s="12"/>
-      <c r="K725" s="15"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B726" s="20"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="39"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="20"/>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" s="40"/>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" s="40"/>
+      <c r="B728" s="20"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="20"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="20"/>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A729" s="40"/>
+      <c r="B729" s="20"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
+      <c r="I729" s="9"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A730" s="40"/>
+      <c r="B730" s="20"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39"/>
+      <c r="E730" s="9"/>
+      <c r="F730" s="20"/>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="39"/>
+      <c r="I730" s="9"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="20"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="40"/>
+      <c r="B731" s="20"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="39"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="39"/>
+      <c r="I731" s="9"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" s="41"/>
+      <c r="B732" s="15"/>
+      <c r="C732" s="42"/>
+      <c r="D732" s="43"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="15"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H732" s="43"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="12"/>
+      <c r="K732" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19094,10 +19259,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19120,28 +19285,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -19154,7 +19319,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19183,19 +19348,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.16000000000000003</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="J3" s="47">
         <v>16</v>
@@ -19209,17 +19372,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19240,7 +19403,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19267,7 +19430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19293,7 +19456,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19319,7 +19482,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19345,7 +19508,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19371,7 +19534,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19397,7 +19560,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19423,7 +19586,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19449,7 +19612,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19469,7 +19632,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19489,7 +19652,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19509,7 +19672,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19530,7 +19693,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19551,7 +19714,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19572,7 +19735,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19593,7 +19756,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19614,7 +19777,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19635,7 +19798,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19656,7 +19819,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19677,7 +19840,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19698,7 +19861,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19719,7 +19882,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19740,7 +19903,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19761,7 +19924,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19782,7 +19945,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19803,7 +19966,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19824,7 +19987,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19845,7 +20008,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19866,7 +20029,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19887,7 +20050,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19908,7 +20071,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19929,7 +20092,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19938,7 +20101,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19947,7 +20110,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19956,7 +20119,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19965,7 +20128,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19974,7 +20137,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19983,7 +20146,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19992,7 +20155,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20001,7 +20164,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20010,7 +20173,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20019,7 +20182,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20028,7 +20191,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20037,7 +20200,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20046,7 +20209,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20055,7 +20218,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20064,7 +20227,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20073,7 +20236,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20082,7 +20245,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20091,7 +20254,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20100,7 +20263,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20109,7 +20272,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20118,7 +20281,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20127,7 +20290,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20136,7 +20299,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20145,7 +20308,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20154,7 +20317,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20163,7 +20326,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20172,7 +20335,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20181,7 +20344,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20190,7 +20353,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="595">
   <si>
     <t>PERIOD</t>
   </si>
@@ -402,9 +402,6 @@
     <t>3/2,3/2023</t>
   </si>
   <si>
-    <t>4/3,4,20/2023</t>
-  </si>
-  <si>
     <t>2001</t>
   </si>
   <si>
@@ -1819,6 +1816,18 @@
   </si>
   <si>
     <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>UT(0-1-14)</t>
+  </si>
+  <si>
+    <t>4/3,4,20/2023 (3,4,28)</t>
+  </si>
+  <si>
+    <t>3/30/2023 (31)</t>
+  </si>
+  <si>
+    <t>UT(1-2-48)</t>
   </si>
 </sst>
 </file>
@@ -2525,8 +2534,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K732" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K732"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K740" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K740"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2855,12 +2864,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K732"/>
+  <dimension ref="A2:K740"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A677" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A671" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F697" sqref="F697"/>
+      <selection pane="bottomLeft" activeCell="F684" sqref="F684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
@@ -3027,7 +3036,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.1800000000001774</v>
+        <v>-1.7419999999998481</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3044,7 +3053,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3062,7 +3071,7 @@
         <v>36601</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C11" s="13">
         <v>0.625</v>
@@ -3084,7 +3093,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -3104,7 +3113,7 @@
         <v>36617</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -3126,7 +3135,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -3146,7 +3155,7 @@
         <v>36647</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -3170,7 +3179,7 @@
         <v>36678</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -3194,7 +3203,7 @@
         <v>36708</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
@@ -3218,7 +3227,7 @@
         <v>36739</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -3240,7 +3249,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -3262,7 +3271,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -3286,7 +3295,7 @@
         <v>36770</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -3310,7 +3319,7 @@
         <v>36800</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -3334,7 +3343,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3356,7 +3365,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3378,7 +3387,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -3394,13 +3403,13 @@
       <c r="I25" s="34"/>
       <c r="J25" s="11"/>
       <c r="K25" s="48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3416,7 +3425,7 @@
       <c r="I26" s="34"/>
       <c r="J26" s="11"/>
       <c r="K26" s="48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,7 +3433,7 @@
         <v>36831</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -3440,13 +3449,13 @@
       <c r="I27" s="34"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39">
@@ -3468,7 +3477,7 @@
         <v>36861</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -3508,13 +3517,13 @@
       <c r="I30" s="34"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -3533,7 +3542,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3554,7 +3563,7 @@
         <v>36892</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -3572,13 +3581,13 @@
       <c r="I33" s="34"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3592,13 +3601,13 @@
       <c r="I34" s="34"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="34">
@@ -3620,7 +3629,7 @@
         <v>36923</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -3638,13 +3647,13 @@
       <c r="I36" s="34"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="34">
@@ -3666,7 +3675,7 @@
         <v>36951</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -3690,7 +3699,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="34">
@@ -3712,7 +3721,7 @@
         <v>36982</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -3734,7 +3743,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="34"/>
@@ -3748,13 +3757,13 @@
       <c r="I41" s="34"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="34"/>
@@ -3768,7 +3777,7 @@
       <c r="I42" s="34"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3776,7 +3785,7 @@
         <v>37012</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -3798,7 +3807,7 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="34">
@@ -3814,13 +3823,13 @@
       <c r="I44" s="34"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="34"/>
@@ -3836,7 +3845,7 @@
       <c r="I45" s="34"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3844,7 +3853,7 @@
         <v>37043</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -3866,7 +3875,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="34">
@@ -3882,7 +3891,7 @@
       <c r="I47" s="34"/>
       <c r="J47" s="11"/>
       <c r="K47" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3890,7 +3899,7 @@
         <v>37073</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -3914,7 +3923,7 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="34"/>
@@ -3930,13 +3939,13 @@
       <c r="I49" s="34"/>
       <c r="J49" s="11"/>
       <c r="K49" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="34">
@@ -3984,7 +3993,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="34"/>
@@ -4000,13 +4009,13 @@
       <c r="I52" s="34"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="34">
@@ -4028,7 +4037,7 @@
         <v>37135</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -4046,13 +4055,13 @@
       <c r="I54" s="34"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="34">
@@ -4092,13 +4101,13 @@
       <c r="I56" s="34"/>
       <c r="J56" s="11"/>
       <c r="K56" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="34">
@@ -4116,13 +4125,13 @@
       <c r="I57" s="34"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="34">
@@ -4138,13 +4147,13 @@
       <c r="I58" s="34"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="34">
@@ -4166,7 +4175,7 @@
         <v>37196</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -4184,13 +4193,13 @@
       <c r="I60" s="34"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="34">
@@ -4206,13 +4215,13 @@
       <c r="I61" s="34"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="34">
@@ -4232,7 +4241,7 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="34">
@@ -4272,13 +4281,13 @@
       <c r="I64" s="34"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="34">
@@ -4297,7 +4306,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4320,7 +4329,7 @@
         <v>37257</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -4338,13 +4347,13 @@
       <c r="I67" s="34"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="34">
@@ -4366,7 +4375,7 @@
         <v>37288</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -4390,7 +4399,7 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4406,13 +4415,13 @@
       <c r="I70" s="34"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4428,7 +4437,7 @@
       <c r="I71" s="34"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4436,7 +4445,7 @@
         <v>37316</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -4458,7 +4467,7 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39">
@@ -4474,13 +4483,13 @@
       <c r="I73" s="34"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -4502,7 +4511,7 @@
         <v>37347</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -4520,13 +4529,13 @@
       <c r="I75" s="34"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -4542,13 +4551,13 @@
       <c r="I76" s="34"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="39">
@@ -4570,7 +4579,7 @@
         <v>37377</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -4594,7 +4603,7 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39">
@@ -4612,13 +4621,13 @@
       <c r="I79" s="34"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39">
@@ -4634,13 +4643,13 @@
       <c r="I80" s="34"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39">
@@ -4656,13 +4665,13 @@
       <c r="I81" s="34"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
@@ -4684,7 +4693,7 @@
         <v>37408</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -4702,13 +4711,13 @@
       <c r="I83" s="34"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39">
@@ -4724,13 +4733,13 @@
       <c r="I84" s="34"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4750,7 +4759,7 @@
         <v>37438</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -4774,7 +4783,7 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39">
@@ -4792,13 +4801,13 @@
       <c r="I87" s="34"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39">
@@ -4814,13 +4823,13 @@
       <c r="I88" s="34"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4834,7 +4843,7 @@
       <c r="I89" s="34"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4842,7 +4851,7 @@
         <v>37469</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -4860,7 +4869,7 @@
       <c r="I90" s="34"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4868,7 +4877,7 @@
         <v>37500</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -4892,7 +4901,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39">
@@ -4910,7 +4919,7 @@
       <c r="I92" s="34"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4918,7 +4927,7 @@
         <v>37530</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
@@ -4942,7 +4951,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39">
@@ -4960,7 +4969,7 @@
       <c r="I94" s="34"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4968,7 +4977,7 @@
         <v>37561</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -4992,7 +5001,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39">
@@ -5016,7 +5025,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39">
@@ -5032,13 +5041,13 @@
       <c r="I97" s="34"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39">
@@ -5058,7 +5067,7 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39">
@@ -5080,7 +5089,7 @@
         <v>37591</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
@@ -5103,7 +5112,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5124,7 +5133,7 @@
         <v>37622</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5138,13 +5147,13 @@
       <c r="I102" s="34"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5166,7 +5175,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39">
@@ -5184,13 +5193,13 @@
       <c r="I104" s="34"/>
       <c r="J104" s="11"/>
       <c r="K104" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5204,13 +5213,13 @@
       <c r="I105" s="34"/>
       <c r="J105" s="11"/>
       <c r="K105" s="48" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -5234,7 +5243,7 @@
         <v>37653</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -5260,7 +5269,7 @@
         <v>37681</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C108" s="13">
         <v>1.25</v>
@@ -5280,13 +5289,13 @@
       <c r="I108" s="34"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="39">
@@ -5308,7 +5317,7 @@
         <v>37712</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -5328,13 +5337,13 @@
       <c r="I110" s="34"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39">
@@ -5368,7 +5377,7 @@
       <c r="I112" s="34"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5376,7 +5385,7 @@
         <v>37742</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -5400,7 +5409,7 @@
         <v>37773</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -5424,7 +5433,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39">
@@ -5442,7 +5451,7 @@
       <c r="I115" s="34"/>
       <c r="J115" s="11"/>
       <c r="K115" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5450,7 +5459,7 @@
         <v>37803</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -5474,7 +5483,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39">
@@ -5490,13 +5499,13 @@
       <c r="I117" s="34"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="39">
@@ -5518,7 +5527,7 @@
         <v>37834</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -5538,13 +5547,13 @@
       <c r="I119" s="34"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39">
@@ -5564,7 +5573,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39">
@@ -5580,7 +5589,7 @@
       <c r="I121" s="34"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5588,7 +5597,7 @@
         <v>37865</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C122" s="13">
         <v>1.25</v>
@@ -5612,7 +5621,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5634,7 +5643,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39">
@@ -5658,7 +5667,7 @@
         <v>37895</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -5682,7 +5691,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39">
@@ -5700,13 +5709,13 @@
       <c r="I126" s="34"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="39">
@@ -5722,13 +5731,13 @@
       <c r="I127" s="34"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="39">
@@ -5752,7 +5761,7 @@
         <v>37926</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -5776,7 +5785,7 @@
         <v>37956</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -5792,13 +5801,13 @@
       <c r="I130" s="34"/>
       <c r="J130" s="11"/>
       <c r="K130" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39">
@@ -5817,7 +5826,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5838,7 +5847,7 @@
         <v>37987</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -5856,13 +5865,13 @@
       <c r="I133" s="34"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="39">
@@ -5884,7 +5893,7 @@
         <v>38018</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -5908,7 +5917,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5922,13 +5931,13 @@
       <c r="I136" s="34"/>
       <c r="J136" s="11"/>
       <c r="K136" s="48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="39">
@@ -5950,7 +5959,7 @@
         <v>38047</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -5974,7 +5983,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39">
@@ -5996,7 +6005,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="39">
@@ -6012,13 +6021,13 @@
       <c r="I140" s="34"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="39">
@@ -6040,7 +6049,7 @@
         <v>38078</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -6064,7 +6073,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="39">
@@ -6082,13 +6091,13 @@
       <c r="I143" s="34"/>
       <c r="J143" s="11"/>
       <c r="K143" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="39">
@@ -6104,13 +6113,13 @@
       <c r="I144" s="34"/>
       <c r="J144" s="11"/>
       <c r="K144" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="39">
@@ -6132,7 +6141,7 @@
         <v>38108</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -6156,7 +6165,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="39">
@@ -6174,13 +6183,13 @@
       <c r="I147" s="34"/>
       <c r="J147" s="11"/>
       <c r="K147" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="39">
@@ -6198,13 +6207,13 @@
       <c r="I148" s="34"/>
       <c r="J148" s="11"/>
       <c r="K148" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="39">
@@ -6246,7 +6255,7 @@
         <v>38169</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -6270,7 +6279,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39">
@@ -6288,13 +6297,13 @@
       <c r="I152" s="34"/>
       <c r="J152" s="11"/>
       <c r="K152" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="39">
@@ -6316,7 +6325,7 @@
         <v>38200</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -6340,7 +6349,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39">
@@ -6358,13 +6367,13 @@
       <c r="I155" s="34"/>
       <c r="J155" s="11"/>
       <c r="K155" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="39">
@@ -6380,13 +6389,13 @@
       <c r="I156" s="34"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="39">
@@ -6408,7 +6417,7 @@
         <v>38231</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -6426,13 +6435,13 @@
       <c r="I158" s="34"/>
       <c r="J158" s="11"/>
       <c r="K158" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -6448,13 +6457,13 @@
       <c r="I159" s="34"/>
       <c r="J159" s="11"/>
       <c r="K159" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="39">
@@ -6476,7 +6485,7 @@
         <v>38261</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -6500,7 +6509,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="39">
@@ -6518,13 +6527,13 @@
       <c r="I162" s="34"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39">
@@ -6546,7 +6555,7 @@
         <v>38292</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C164" s="13">
         <v>1.25</v>
@@ -6570,7 +6579,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="39">
@@ -6594,7 +6603,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="39">
@@ -6610,13 +6619,13 @@
       <c r="I166" s="34"/>
       <c r="J166" s="11"/>
       <c r="K166" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="39">
@@ -6638,7 +6647,7 @@
         <v>38322</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -6656,13 +6665,13 @@
       <c r="I168" s="34"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="39">
@@ -6681,7 +6690,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6702,7 +6711,7 @@
         <v>38353</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="39"/>
@@ -6716,13 +6725,13 @@
       <c r="I171" s="34"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="39"/>
@@ -6744,7 +6753,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C173" s="13">
         <v>1.25</v>
@@ -6762,13 +6771,13 @@
       <c r="I173" s="34"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39"/>
@@ -6782,13 +6791,13 @@
       <c r="I174" s="34"/>
       <c r="J174" s="11"/>
       <c r="K174" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="39"/>
@@ -6802,7 +6811,7 @@
       <c r="I175" s="34"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -6830,7 +6839,7 @@
         <v>38412</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -6854,7 +6863,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="39"/>
@@ -6878,7 +6887,7 @@
         <v>38443</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C179" s="13">
         <v>1.25</v>
@@ -6904,7 +6913,7 @@
         <v>38473</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
@@ -6928,7 +6937,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39"/>
@@ -6944,13 +6953,13 @@
       <c r="I181" s="34"/>
       <c r="J181" s="11"/>
       <c r="K181" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="39">
@@ -6992,13 +7001,13 @@
       <c r="I183" s="34"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="39">
@@ -7016,7 +7025,7 @@
       <c r="I184" s="34"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7024,7 +7033,7 @@
         <v>38534</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -7044,7 +7053,7 @@
       <c r="I185" s="34"/>
       <c r="J185" s="11"/>
       <c r="K185" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7072,7 +7081,7 @@
         <v>38596</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C187" s="13">
         <v>1.25</v>
@@ -7096,7 +7105,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="39"/>
@@ -7112,7 +7121,7 @@
       <c r="I188" s="34"/>
       <c r="J188" s="11"/>
       <c r="K188" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7120,7 +7129,7 @@
         <v>38626</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C189" s="13">
         <v>1.25</v>
@@ -7138,7 +7147,7 @@
       <c r="I189" s="34"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7166,7 +7175,7 @@
         <v>38687</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
@@ -7190,7 +7199,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="39"/>
@@ -7206,13 +7215,13 @@
       <c r="I192" s="34"/>
       <c r="J192" s="11"/>
       <c r="K192" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="39">
@@ -7231,7 +7240,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7256,7 +7265,7 @@
         <v>38718</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -7272,7 +7281,7 @@
       <c r="I195" s="34"/>
       <c r="J195" s="11"/>
       <c r="K195" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7294,13 +7303,13 @@
       <c r="I196" s="34"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39">
@@ -7322,7 +7331,7 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="39">
@@ -7338,7 +7347,7 @@
       <c r="I198" s="34"/>
       <c r="J198" s="11"/>
       <c r="K198" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -7346,7 +7355,7 @@
         <v>38749</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -7368,7 +7377,7 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
@@ -7390,7 +7399,7 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39">
@@ -7412,7 +7421,7 @@
         <v>38777</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -7430,13 +7439,13 @@
       <c r="I202" s="34"/>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39"/>
@@ -7450,13 +7459,13 @@
       <c r="I203" s="34"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39"/>
@@ -7472,13 +7481,13 @@
       <c r="I204" s="34"/>
       <c r="J204" s="11"/>
       <c r="K204" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="39">
@@ -7494,13 +7503,13 @@
       <c r="I205" s="34"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="39"/>
@@ -7514,7 +7523,7 @@
       <c r="I206" s="34"/>
       <c r="J206" s="11"/>
       <c r="K206" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -7522,7 +7531,7 @@
         <v>38808</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -7548,7 +7557,7 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="39"/>
@@ -7564,13 +7573,13 @@
       <c r="I208" s="34"/>
       <c r="J208" s="11"/>
       <c r="K208" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39"/>
@@ -7586,13 +7595,13 @@
       <c r="I209" s="34"/>
       <c r="J209" s="11"/>
       <c r="K209" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="39">
@@ -7614,7 +7623,7 @@
         <v>38838</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C211" s="13">
         <v>1.25</v>
@@ -7638,7 +7647,7 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="39">
@@ -7660,7 +7669,7 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="39"/>
@@ -7674,7 +7683,7 @@
       <c r="I213" s="34"/>
       <c r="J213" s="11"/>
       <c r="K213" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -7682,7 +7691,7 @@
         <v>38869</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C214" s="13">
         <v>1.25</v>
@@ -7724,13 +7733,13 @@
       <c r="I215" s="34"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39">
@@ -7752,7 +7761,7 @@
         <v>38930</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -7770,13 +7779,13 @@
       <c r="I217" s="34"/>
       <c r="J217" s="11"/>
       <c r="K217" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="39">
@@ -7798,7 +7807,7 @@
         <v>38961</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -7816,13 +7825,13 @@
       <c r="I219" s="34"/>
       <c r="J219" s="11"/>
       <c r="K219" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="39">
@@ -7844,7 +7853,7 @@
         <v>38991</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C221" s="13">
         <v>1.25</v>
@@ -7868,7 +7877,7 @@
         <v>39022</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C222" s="13">
         <v>1.25</v>
@@ -7886,13 +7895,13 @@
       <c r="I222" s="34"/>
       <c r="J222" s="11"/>
       <c r="K222" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="39"/>
@@ -7908,13 +7917,13 @@
       <c r="I223" s="34"/>
       <c r="J223" s="11"/>
       <c r="K223" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C224" s="13"/>
       <c r="D224" s="39">
@@ -7936,7 +7945,7 @@
         <v>39052</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C225" s="13">
         <v>1.25</v>
@@ -7960,7 +7969,7 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39">
@@ -7979,7 +7988,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -8004,7 +8013,7 @@
         <v>39083</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -8026,7 +8035,7 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39"/>
@@ -8048,7 +8057,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39">
@@ -8064,7 +8073,7 @@
       <c r="I230" s="34"/>
       <c r="J230" s="11"/>
       <c r="K230" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -8086,7 +8095,7 @@
       <c r="I231" s="34"/>
       <c r="J231" s="11"/>
       <c r="K231" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -8094,7 +8103,7 @@
         <v>39114</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C232" s="13">
         <v>1.25</v>
@@ -8110,13 +8119,13 @@
       <c r="I232" s="34"/>
       <c r="J232" s="11"/>
       <c r="K232" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39"/>
@@ -8132,13 +8141,13 @@
       <c r="I233" s="34"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39"/>
@@ -8158,7 +8167,7 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="39">
@@ -8180,7 +8189,7 @@
         <v>39142</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -8198,13 +8207,13 @@
       <c r="I236" s="34"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39"/>
@@ -8222,7 +8231,7 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39"/>
@@ -8236,13 +8245,13 @@
       <c r="I238" s="34"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39">
@@ -8264,7 +8273,7 @@
         <v>39173</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -8284,13 +8293,13 @@
       <c r="I240" s="34"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="39">
@@ -8310,7 +8319,7 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39"/>
@@ -8330,7 +8339,7 @@
         <v>39203</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -8348,13 +8357,13 @@
       <c r="I243" s="34"/>
       <c r="J243" s="11"/>
       <c r="K243" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39">
@@ -8374,7 +8383,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39">
@@ -8416,13 +8425,13 @@
       <c r="I246" s="34"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39"/>
@@ -8444,7 +8453,7 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39">
@@ -8466,7 +8475,7 @@
         <v>39264</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -8490,7 +8499,7 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39">
@@ -8508,7 +8517,7 @@
       <c r="I250" s="34"/>
       <c r="J250" s="11"/>
       <c r="K250" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -8516,7 +8525,7 @@
         <v>39295</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -8540,7 +8549,7 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39">
@@ -8562,7 +8571,7 @@
         <v>39326</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C253" s="13">
         <v>1.25</v>
@@ -8586,7 +8595,7 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="39">
@@ -8606,7 +8615,7 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="39">
@@ -8626,7 +8635,7 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C256" s="13"/>
       <c r="D256" s="39">
@@ -8648,7 +8657,7 @@
         <v>39356</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C257" s="13">
         <v>1.25</v>
@@ -8672,7 +8681,7 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="39">
@@ -8688,13 +8697,13 @@
       <c r="I258" s="34"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="39"/>
@@ -8710,13 +8719,13 @@
       <c r="I259" s="34"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="39"/>
@@ -8736,7 +8745,7 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="39">
@@ -8756,7 +8765,7 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39">
@@ -8776,7 +8785,7 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39">
@@ -8798,7 +8807,7 @@
         <v>39387</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -8816,13 +8825,13 @@
       <c r="I264" s="34"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39">
@@ -8838,13 +8847,13 @@
       <c r="I265" s="34"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="39">
@@ -8860,13 +8869,13 @@
       <c r="I266" s="34"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="39">
@@ -8888,7 +8897,7 @@
         <v>39417</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -8912,7 +8921,7 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39">
@@ -8932,7 +8941,7 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="39"/>
@@ -8952,7 +8961,7 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="39"/>
@@ -8971,7 +8980,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -8996,7 +9005,7 @@
         <v>39448</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -9018,7 +9027,7 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="39">
@@ -9034,13 +9043,13 @@
       <c r="I274" s="34"/>
       <c r="J274" s="11"/>
       <c r="K274" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39"/>
@@ -9054,13 +9063,13 @@
       <c r="I275" s="34"/>
       <c r="J275" s="11"/>
       <c r="K275" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="39">
@@ -9080,7 +9089,7 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C277" s="13"/>
       <c r="D277" s="39">
@@ -9102,7 +9111,7 @@
         <v>39479</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C278" s="13">
         <v>1.25</v>
@@ -9124,7 +9133,7 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39">
@@ -9146,7 +9155,7 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="39">
@@ -9166,7 +9175,7 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39">
@@ -9206,13 +9215,13 @@
       <c r="I282" s="34"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39">
@@ -9232,7 +9241,7 @@
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="39">
@@ -9254,7 +9263,7 @@
         <v>39539</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C285" s="13">
         <v>1.25</v>
@@ -9270,13 +9279,13 @@
       <c r="I285" s="34"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="39">
@@ -9294,13 +9303,13 @@
       <c r="I286" s="34"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C287" s="13"/>
       <c r="D287" s="39">
@@ -9320,7 +9329,7 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="39">
@@ -9342,7 +9351,7 @@
         <v>39569</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -9364,7 +9373,7 @@
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39">
@@ -9384,7 +9393,7 @@
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C291" s="13"/>
       <c r="D291" s="39">
@@ -9406,7 +9415,7 @@
         <v>39600</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C292" s="13">
         <v>1.25</v>
@@ -9430,7 +9439,7 @@
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C293" s="13"/>
       <c r="D293" s="39">
@@ -9454,7 +9463,7 @@
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39">
@@ -9474,7 +9483,7 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39">
@@ -9496,7 +9505,7 @@
         <v>39630</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -9520,7 +9529,7 @@
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39">
@@ -9538,13 +9547,13 @@
       <c r="I297" s="34"/>
       <c r="J297" s="11"/>
       <c r="K297" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39">
@@ -9566,7 +9575,7 @@
         <v>39661</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -9586,13 +9595,13 @@
       <c r="I299" s="34"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39">
@@ -9612,7 +9621,7 @@
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39">
@@ -9636,7 +9645,7 @@
         <v>39692</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -9656,7 +9665,7 @@
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C303" s="13"/>
       <c r="D303" s="39">
@@ -9680,7 +9689,7 @@
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="39">
@@ -9696,13 +9705,13 @@
       <c r="I304" s="34"/>
       <c r="J304" s="11"/>
       <c r="K304" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39">
@@ -9722,7 +9731,7 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39">
@@ -9744,7 +9753,7 @@
         <v>39722</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C307" s="13">
         <v>1.25</v>
@@ -9764,13 +9773,13 @@
       <c r="I307" s="34"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="39">
@@ -9792,7 +9801,7 @@
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39">
@@ -9812,7 +9821,7 @@
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39">
@@ -9834,7 +9843,7 @@
         <v>39753</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C311" s="13">
         <v>1.25</v>
@@ -9858,7 +9867,7 @@
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C312" s="13"/>
       <c r="D312" s="39">
@@ -9876,13 +9885,13 @@
       <c r="I312" s="34"/>
       <c r="J312" s="11"/>
       <c r="K312" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C313" s="13"/>
       <c r="D313" s="39">
@@ -9902,7 +9911,7 @@
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C314" s="13"/>
       <c r="D314" s="39">
@@ -9924,7 +9933,7 @@
         <v>39783</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
@@ -9946,7 +9955,7 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C316" s="13"/>
       <c r="D316" s="39">
@@ -9965,7 +9974,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -9990,7 +9999,7 @@
         <v>39814</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C318" s="13">
         <v>1.25</v>
@@ -10008,13 +10017,13 @@
       <c r="I318" s="34"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
@@ -10028,13 +10037,13 @@
       <c r="I319" s="34"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39">
@@ -10050,13 +10059,13 @@
       <c r="I320" s="34"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
@@ -10070,13 +10079,13 @@
       <c r="I321" s="34"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39">
@@ -10098,7 +10107,7 @@
         <v>39845</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C323" s="13">
         <v>1.25</v>
@@ -10114,13 +10123,13 @@
       <c r="I323" s="34"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="39">
@@ -10142,7 +10151,7 @@
         <v>39873</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -10166,7 +10175,7 @@
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -10182,13 +10191,13 @@
       <c r="I326" s="34"/>
       <c r="J326" s="11"/>
       <c r="K326" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39">
@@ -10210,7 +10219,7 @@
         <v>39904</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C328" s="13">
         <v>1.25</v>
@@ -10228,13 +10237,13 @@
       <c r="I328" s="34"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C329" s="13"/>
       <c r="D329" s="39">
@@ -10252,13 +10261,13 @@
       <c r="I329" s="34"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39">
@@ -10280,7 +10289,7 @@
         <v>39934</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -10304,7 +10313,7 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C332" s="13"/>
       <c r="D332" s="39">
@@ -10324,7 +10333,7 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
@@ -10340,7 +10349,7 @@
       <c r="I333" s="34"/>
       <c r="J333" s="11"/>
       <c r="K333" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -10348,7 +10357,7 @@
         <v>39965</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C334" s="13">
         <v>1.25</v>
@@ -10374,7 +10383,7 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C335" s="13"/>
       <c r="D335" s="39">
@@ -10392,13 +10401,13 @@
       <c r="I335" s="34"/>
       <c r="J335" s="11"/>
       <c r="K335" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C336" s="13"/>
       <c r="D336" s="39">
@@ -10420,7 +10429,7 @@
         <v>39995</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -10444,7 +10453,7 @@
         <v>40026</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -10468,7 +10477,7 @@
         <v>40057</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -10486,13 +10495,13 @@
       <c r="I339" s="34"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -10508,13 +10517,13 @@
       <c r="I340" s="34"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C341" s="13"/>
       <c r="D341" s="39">
@@ -10536,7 +10545,7 @@
         <v>40087</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C342" s="13">
         <v>1.25</v>
@@ -10554,13 +10563,13 @@
       <c r="I342" s="34"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39">
@@ -10582,7 +10591,7 @@
         <v>40118</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -10606,7 +10615,7 @@
         <v>40148</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -10627,7 +10636,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -10652,7 +10661,7 @@
         <v>40179</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -10668,13 +10677,13 @@
       <c r="I347" s="34"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -10688,13 +10697,13 @@
       <c r="I348" s="34"/>
       <c r="J348" s="11"/>
       <c r="K348" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C349" s="13"/>
       <c r="D349" s="39">
@@ -10716,7 +10725,7 @@
         <v>40210</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C350" s="13">
         <v>1.25</v>
@@ -10732,13 +10741,13 @@
       <c r="I350" s="34"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C351" s="13"/>
       <c r="D351" s="39"/>
@@ -10754,13 +10763,13 @@
       <c r="I351" s="34"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39">
@@ -10782,7 +10791,7 @@
         <v>40238</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C353" s="13">
         <v>1.25</v>
@@ -10806,7 +10815,7 @@
         <v>40269</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -10824,13 +10833,13 @@
       <c r="I354" s="34"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39">
@@ -10852,7 +10861,7 @@
         <v>40299</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
@@ -10876,7 +10885,7 @@
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39">
@@ -10898,7 +10907,7 @@
         <v>40330</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C358" s="13">
         <v>1.25</v>
@@ -10922,7 +10931,7 @@
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C359" s="13"/>
       <c r="D359" s="39">
@@ -10944,7 +10953,7 @@
         <v>40360</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -10962,13 +10971,13 @@
       <c r="I360" s="34"/>
       <c r="J360" s="11"/>
       <c r="K360" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -10984,13 +10993,13 @@
       <c r="I361" s="34"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39">
@@ -11012,7 +11021,7 @@
         <v>40391</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -11036,7 +11045,7 @@
         <v>40422</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C364" s="13">
         <v>1.25</v>
@@ -11078,7 +11087,7 @@
       <c r="I365" s="34"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -11100,13 +11109,13 @@
       <c r="I366" s="34"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C367" s="13"/>
       <c r="D367" s="39">
@@ -11146,13 +11155,13 @@
       <c r="I368" s="34"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39">
@@ -11174,7 +11183,7 @@
         <v>40513</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -11195,7 +11204,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11220,7 +11229,7 @@
         <v>40544</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C372" s="13">
         <v>1.25</v>
@@ -11258,13 +11267,13 @@
       <c r="I373" s="34"/>
       <c r="J373" s="11"/>
       <c r="K373" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C374" s="13"/>
       <c r="D374" s="39">
@@ -11280,7 +11289,7 @@
       <c r="I374" s="34"/>
       <c r="J374" s="11"/>
       <c r="K374" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -11288,7 +11297,7 @@
         <v>40575</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C375" s="13">
         <v>1.25</v>
@@ -11304,13 +11313,13 @@
       <c r="I375" s="34"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39">
@@ -11328,13 +11337,13 @@
       <c r="I376" s="34"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39">
@@ -11350,13 +11359,13 @@
       <c r="I377" s="34"/>
       <c r="J377" s="11"/>
       <c r="K377" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39">
@@ -11378,7 +11387,7 @@
         <v>40603</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -11402,7 +11411,7 @@
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39">
@@ -11420,7 +11429,7 @@
       <c r="I380" s="34"/>
       <c r="J380" s="11"/>
       <c r="K380" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -11448,7 +11457,7 @@
         <v>40664</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C382" s="13">
         <v>1.25</v>
@@ -11466,7 +11475,7 @@
       <c r="I382" s="34"/>
       <c r="J382" s="11"/>
       <c r="K382" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
@@ -11474,7 +11483,7 @@
         <v>40695</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -11492,7 +11501,7 @@
       <c r="I383" s="34"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -11520,7 +11529,7 @@
         <v>40756</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
@@ -11538,7 +11547,7 @@
       <c r="I385" s="34"/>
       <c r="J385" s="11"/>
       <c r="K385" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -11546,7 +11555,7 @@
         <v>40787</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C386" s="13">
         <v>1.25</v>
@@ -11562,13 +11571,13 @@
       <c r="I386" s="34"/>
       <c r="J386" s="11"/>
       <c r="K386" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C387" s="13"/>
       <c r="D387" s="39"/>
@@ -11582,13 +11591,13 @@
       <c r="I387" s="34"/>
       <c r="J387" s="11"/>
       <c r="K387" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C388" s="13"/>
       <c r="D388" s="39">
@@ -11610,7 +11619,7 @@
         <v>40817</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C389" s="13">
         <v>1.25</v>
@@ -11634,7 +11643,7 @@
         <v>40848</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -11658,7 +11667,7 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39"/>
@@ -11674,13 +11683,13 @@
       <c r="I391" s="34"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C392" s="13"/>
       <c r="D392" s="39"/>
@@ -11704,7 +11713,7 @@
         <v>40878</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -11726,7 +11735,7 @@
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39"/>
@@ -11740,13 +11749,13 @@
       <c r="I394" s="34"/>
       <c r="J394" s="11"/>
       <c r="K394" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
@@ -11766,7 +11775,7 @@
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C396" s="13"/>
       <c r="D396" s="39"/>
@@ -11782,13 +11791,13 @@
       <c r="I396" s="34"/>
       <c r="J396" s="11"/>
       <c r="K396" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C397" s="13"/>
       <c r="D397" s="39">
@@ -11807,7 +11816,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11832,7 +11841,7 @@
         <v>40909</v>
       </c>
       <c r="B399" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C399" s="13">
         <v>1.25</v>
@@ -11854,7 +11863,7 @@
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
@@ -11874,7 +11883,7 @@
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
@@ -11888,13 +11897,13 @@
       <c r="I401" s="34"/>
       <c r="J401" s="11"/>
       <c r="K401" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
@@ -11910,13 +11919,13 @@
       <c r="I402" s="34"/>
       <c r="J402" s="11"/>
       <c r="K402" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C403" s="13"/>
       <c r="D403" s="39">
@@ -11938,7 +11947,7 @@
         <v>40940</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C404" s="13">
         <v>1.25</v>
@@ -11954,13 +11963,13 @@
       <c r="I404" s="34"/>
       <c r="J404" s="11"/>
       <c r="K404" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
@@ -11976,13 +11985,13 @@
       <c r="I405" s="34"/>
       <c r="J405" s="11"/>
       <c r="K405" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
@@ -12002,7 +12011,7 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39">
@@ -12024,7 +12033,7 @@
         <v>40969</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C408" s="13">
         <v>1.25</v>
@@ -12048,7 +12057,7 @@
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39"/>
@@ -12062,13 +12071,13 @@
       <c r="I409" s="34"/>
       <c r="J409" s="11"/>
       <c r="K409" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
@@ -12084,13 +12093,13 @@
       <c r="I410" s="34"/>
       <c r="J410" s="11"/>
       <c r="K410" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C411" s="13"/>
       <c r="D411" s="39">
@@ -12112,7 +12121,7 @@
         <v>41000</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C412" s="13">
         <v>1.25</v>
@@ -12136,7 +12145,7 @@
         <v>41030</v>
       </c>
       <c r="B413" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C413" s="13">
         <v>1.25</v>
@@ -12154,13 +12163,13 @@
       <c r="I413" s="34"/>
       <c r="J413" s="11"/>
       <c r="K413" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C414" s="13"/>
       <c r="D414" s="39"/>
@@ -12174,13 +12183,13 @@
       <c r="I414" s="34"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -12194,13 +12203,13 @@
       <c r="I415" s="34"/>
       <c r="J415" s="11"/>
       <c r="K415" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39">
@@ -12222,7 +12231,7 @@
         <v>41061</v>
       </c>
       <c r="B417" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C417" s="13">
         <v>1.25</v>
@@ -12240,13 +12249,13 @@
       <c r="I417" s="34"/>
       <c r="J417" s="11"/>
       <c r="K417" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C418" s="13"/>
       <c r="D418" s="39">
@@ -12268,7 +12277,7 @@
         <v>41091</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C419" s="13">
         <v>1.25</v>
@@ -12286,13 +12295,13 @@
       <c r="I419" s="34"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39">
@@ -12314,7 +12323,7 @@
         <v>41122</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -12354,13 +12363,13 @@
       <c r="I422" s="34"/>
       <c r="J422" s="11"/>
       <c r="K422" s="48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C423" s="13"/>
       <c r="D423" s="39">
@@ -12382,7 +12391,7 @@
         <v>41153</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C424" s="13">
         <v>1.25</v>
@@ -12406,7 +12415,7 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -12426,7 +12435,7 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39">
@@ -12448,7 +12457,7 @@
         <v>41183</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -12466,13 +12475,13 @@
       <c r="I427" s="34"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39">
@@ -12512,13 +12521,13 @@
       <c r="I429" s="34"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C430" s="13"/>
       <c r="D430" s="39">
@@ -12540,7 +12549,7 @@
         <v>41244</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C431" s="13">
         <v>1.25</v>
@@ -12558,13 +12567,13 @@
       <c r="I431" s="34"/>
       <c r="J431" s="11"/>
       <c r="K431" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C432" s="13"/>
       <c r="D432" s="39">
@@ -12583,7 +12592,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12608,7 +12617,7 @@
         <v>41275</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
@@ -12630,7 +12639,7 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C435" s="13"/>
       <c r="D435" s="39"/>
@@ -12650,7 +12659,7 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C436" s="13"/>
       <c r="D436" s="39">
@@ -12672,7 +12681,7 @@
         <v>41306</v>
       </c>
       <c r="B437" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C437" s="13">
         <v>1.25</v>
@@ -12688,7 +12697,7 @@
       <c r="I437" s="34"/>
       <c r="J437" s="11"/>
       <c r="K437" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -12696,7 +12705,7 @@
         <v>41334</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C438" s="13">
         <v>1.25</v>
@@ -12720,7 +12729,7 @@
         <v>41365</v>
       </c>
       <c r="B439" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C439" s="13">
         <v>1.25</v>
@@ -12738,13 +12747,13 @@
       <c r="I439" s="34"/>
       <c r="J439" s="11"/>
       <c r="K439" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C440" s="13"/>
       <c r="D440" s="39">
@@ -12760,7 +12769,7 @@
       <c r="I440" s="34"/>
       <c r="J440" s="11"/>
       <c r="K440" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
@@ -12768,7 +12777,7 @@
         <v>41395</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C441" s="13">
         <v>1.25</v>
@@ -12790,7 +12799,7 @@
         <v>41426</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C442" s="13">
         <v>1.25</v>
@@ -12806,13 +12815,13 @@
       <c r="I442" s="34"/>
       <c r="J442" s="11"/>
       <c r="K442" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C443" s="13"/>
       <c r="D443" s="39">
@@ -12834,7 +12843,7 @@
         <v>41456</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C444" s="13">
         <v>1.25</v>
@@ -12856,7 +12865,7 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C445" s="13"/>
       <c r="D445" s="39">
@@ -12878,7 +12887,7 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C446" s="13"/>
       <c r="D446" s="39">
@@ -12894,7 +12903,7 @@
       <c r="I446" s="34"/>
       <c r="J446" s="11"/>
       <c r="K446" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
@@ -12916,7 +12925,7 @@
       <c r="I447" s="34"/>
       <c r="J447" s="11"/>
       <c r="K447" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -12938,7 +12947,7 @@
       <c r="I448" s="34"/>
       <c r="J448" s="11"/>
       <c r="K448" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -12946,7 +12955,7 @@
         <v>41487</v>
       </c>
       <c r="B449" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C449" s="13">
         <v>1.25</v>
@@ -12964,13 +12973,13 @@
       <c r="I449" s="34"/>
       <c r="J449" s="11"/>
       <c r="K449" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C450" s="13"/>
       <c r="D450" s="39">
@@ -12992,7 +13001,7 @@
         <v>41518</v>
       </c>
       <c r="B451" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C451" s="13">
         <v>1.25</v>
@@ -13014,7 +13023,7 @@
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C452" s="13"/>
       <c r="D452" s="39">
@@ -13036,7 +13045,7 @@
         <v>41548</v>
       </c>
       <c r="B453" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C453" s="13">
         <v>1.25</v>
@@ -13080,7 +13089,7 @@
         <v>41609</v>
       </c>
       <c r="B455" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C455" s="13">
         <v>1.25</v>
@@ -13103,7 +13112,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13128,7 +13137,7 @@
         <v>41640</v>
       </c>
       <c r="B457" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C457" s="13">
         <v>1.25</v>
@@ -13152,7 +13161,7 @@
         <v>41671</v>
       </c>
       <c r="B458" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C458" s="13">
         <v>1.25</v>
@@ -13168,13 +13177,13 @@
       <c r="I458" s="34"/>
       <c r="J458" s="11"/>
       <c r="K458" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C459" s="13"/>
       <c r="D459" s="39"/>
@@ -13194,7 +13203,7 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C460" s="13"/>
       <c r="D460" s="39">
@@ -13216,7 +13225,7 @@
         <v>41699</v>
       </c>
       <c r="B461" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C461" s="13">
         <v>1.25</v>
@@ -13240,7 +13249,7 @@
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C462" s="13"/>
       <c r="D462" s="39">
@@ -13256,13 +13265,13 @@
       <c r="I462" s="34"/>
       <c r="J462" s="11"/>
       <c r="K462" s="48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C463" s="13"/>
       <c r="D463" s="39">
@@ -13278,7 +13287,7 @@
       <c r="I463" s="34"/>
       <c r="J463" s="11"/>
       <c r="K463" s="48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
@@ -13324,13 +13333,13 @@
       <c r="I465" s="34"/>
       <c r="J465" s="11"/>
       <c r="K465" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C466" s="13"/>
       <c r="D466" s="39">
@@ -13350,7 +13359,7 @@
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="39"/>
@@ -13366,7 +13375,7 @@
       <c r="I467" s="34"/>
       <c r="J467" s="11"/>
       <c r="K467" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
@@ -13374,7 +13383,7 @@
         <v>41760</v>
       </c>
       <c r="B468" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C468" s="13">
         <v>1.25</v>
@@ -13414,13 +13423,13 @@
       <c r="I469" s="34"/>
       <c r="J469" s="11"/>
       <c r="K469" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C470" s="13"/>
       <c r="D470" s="39">
@@ -13442,7 +13451,7 @@
         <v>41791</v>
       </c>
       <c r="B471" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C471" s="13">
         <v>1.25</v>
@@ -13460,13 +13469,13 @@
       <c r="I471" s="34"/>
       <c r="J471" s="11"/>
       <c r="K471" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C472" s="13"/>
       <c r="D472" s="39"/>
@@ -13482,13 +13491,13 @@
       <c r="I472" s="34"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="39"/>
@@ -13504,13 +13513,13 @@
       <c r="I473" s="34"/>
       <c r="J473" s="11"/>
       <c r="K473" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C474" s="13"/>
       <c r="D474" s="39">
@@ -13550,13 +13559,13 @@
       <c r="I475" s="34"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C476" s="13"/>
       <c r="D476" s="39">
@@ -13572,13 +13581,13 @@
       <c r="I476" s="34"/>
       <c r="J476" s="11"/>
       <c r="K476" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C477" s="13"/>
       <c r="D477" s="39">
@@ -13618,13 +13627,13 @@
       <c r="I478" s="34"/>
       <c r="J478" s="11"/>
       <c r="K478" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C479" s="13"/>
       <c r="D479" s="39">
@@ -13646,7 +13655,7 @@
         <v>41883</v>
       </c>
       <c r="B480" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C480" s="13">
         <v>1.25</v>
@@ -13664,13 +13673,13 @@
       <c r="I480" s="34"/>
       <c r="J480" s="11"/>
       <c r="K480" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C481" s="13"/>
       <c r="D481" s="39">
@@ -13692,7 +13701,7 @@
         <v>41913</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C482" s="13">
         <v>1.25</v>
@@ -13716,7 +13725,7 @@
         <v>41944</v>
       </c>
       <c r="B483" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C483" s="13">
         <v>1.25</v>
@@ -13740,7 +13749,7 @@
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C484" s="13"/>
       <c r="D484" s="39"/>
@@ -13764,7 +13773,7 @@
         <v>41974</v>
       </c>
       <c r="B485" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C485" s="13">
         <v>1.25</v>
@@ -13788,7 +13797,7 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39">
@@ -13807,7 +13816,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -13832,7 +13841,7 @@
         <v>42005</v>
       </c>
       <c r="B488" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C488" s="13">
         <v>1.25</v>
@@ -13854,7 +13863,7 @@
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C489" s="13"/>
       <c r="D489" s="39"/>
@@ -13874,7 +13883,7 @@
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
@@ -13894,7 +13903,7 @@
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C491" s="13"/>
       <c r="D491" s="39">
@@ -13916,7 +13925,7 @@
         <v>42036</v>
       </c>
       <c r="B492" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C492" s="13">
         <v>1.25</v>
@@ -13934,13 +13943,13 @@
       <c r="I492" s="34"/>
       <c r="J492" s="11"/>
       <c r="K492" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39"/>
@@ -13962,7 +13971,7 @@
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39">
@@ -13984,7 +13993,7 @@
         <v>42064</v>
       </c>
       <c r="B495" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C495" s="13">
         <v>1.25</v>
@@ -14008,7 +14017,7 @@
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C496" s="13"/>
       <c r="D496" s="39">
@@ -14024,13 +14033,13 @@
       <c r="I496" s="34"/>
       <c r="J496" s="11"/>
       <c r="K496" s="48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="39"/>
@@ -14046,13 +14055,13 @@
       <c r="I497" s="34"/>
       <c r="J497" s="11"/>
       <c r="K497" s="48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C498" s="13"/>
       <c r="D498" s="39">
@@ -14074,7 +14083,7 @@
         <v>42095</v>
       </c>
       <c r="B499" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C499" s="13">
         <v>1.25</v>
@@ -14092,13 +14101,13 @@
       <c r="I499" s="34"/>
       <c r="J499" s="11"/>
       <c r="K499" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C500" s="13"/>
       <c r="D500" s="39"/>
@@ -14112,13 +14121,13 @@
       <c r="I500" s="34"/>
       <c r="J500" s="11"/>
       <c r="K500" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C501" s="13"/>
       <c r="D501" s="39">
@@ -14134,13 +14143,13 @@
       <c r="I501" s="34"/>
       <c r="J501" s="11"/>
       <c r="K501" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C502" s="13"/>
       <c r="D502" s="39">
@@ -14156,13 +14165,13 @@
       <c r="I502" s="34"/>
       <c r="J502" s="11"/>
       <c r="K502" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39">
@@ -14184,7 +14193,7 @@
         <v>42125</v>
       </c>
       <c r="B504" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C504" s="13">
         <v>1.25</v>
@@ -14202,13 +14211,13 @@
       <c r="I504" s="34"/>
       <c r="J504" s="11"/>
       <c r="K504" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C505" s="13"/>
       <c r="D505" s="39">
@@ -14248,13 +14257,13 @@
       <c r="I506" s="34"/>
       <c r="J506" s="11"/>
       <c r="K506" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C507" s="13"/>
       <c r="D507" s="39">
@@ -14276,7 +14285,7 @@
         <v>42186</v>
       </c>
       <c r="B508" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C508" s="13">
         <v>1.25</v>
@@ -14298,7 +14307,7 @@
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
@@ -14314,7 +14323,7 @@
       <c r="I509" s="34"/>
       <c r="J509" s="11"/>
       <c r="K509" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
@@ -14322,7 +14331,7 @@
         <v>42217</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C510" s="13">
         <v>1.25</v>
@@ -14340,13 +14349,13 @@
       <c r="I510" s="34"/>
       <c r="J510" s="11"/>
       <c r="K510" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C511" s="13"/>
       <c r="D511" s="39">
@@ -14366,7 +14375,7 @@
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
@@ -14382,13 +14391,13 @@
       <c r="I512" s="34"/>
       <c r="J512" s="11"/>
       <c r="K512" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C513" s="13"/>
       <c r="D513" s="39">
@@ -14410,7 +14419,7 @@
         <v>42248</v>
       </c>
       <c r="B514" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C514" s="13">
         <v>1.25</v>
@@ -14428,13 +14437,13 @@
       <c r="I514" s="34"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C515" s="13"/>
       <c r="D515" s="39">
@@ -14474,13 +14483,13 @@
       <c r="I516" s="34"/>
       <c r="J516" s="11"/>
       <c r="K516" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C517" s="13"/>
       <c r="D517" s="39">
@@ -14502,7 +14511,7 @@
         <v>42309</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C518" s="13">
         <v>1.25</v>
@@ -14520,13 +14529,13 @@
       <c r="I518" s="34"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39">
@@ -14566,13 +14575,13 @@
       <c r="I520" s="34"/>
       <c r="J520" s="11"/>
       <c r="K520" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C521" s="13"/>
       <c r="D521" s="39">
@@ -14591,7 +14600,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -14616,7 +14625,7 @@
         <v>42370</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C523" s="13">
         <v>1.25</v>
@@ -14638,7 +14647,7 @@
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
@@ -14654,13 +14663,13 @@
       <c r="I524" s="34"/>
       <c r="J524" s="11"/>
       <c r="K524" s="48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39">
@@ -14682,7 +14691,7 @@
         <v>42401</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C526" s="13">
         <v>1.25</v>
@@ -14704,7 +14713,7 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
@@ -14720,13 +14729,13 @@
       <c r="I527" s="34"/>
       <c r="J527" s="11"/>
       <c r="K527" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C528" s="13"/>
       <c r="D528" s="39">
@@ -14748,7 +14757,7 @@
         <v>42430</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C529" s="13">
         <v>1.25</v>
@@ -14766,13 +14775,13 @@
       <c r="I529" s="34"/>
       <c r="J529" s="11"/>
       <c r="K529" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C530" s="13"/>
       <c r="D530" s="39"/>
@@ -14792,7 +14801,7 @@
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C531" s="13"/>
       <c r="D531" s="39">
@@ -14832,13 +14841,13 @@
       <c r="I532" s="34"/>
       <c r="J532" s="11"/>
       <c r="K532" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C533" s="13"/>
       <c r="D533" s="39">
@@ -14860,7 +14869,7 @@
         <v>42491</v>
       </c>
       <c r="B534" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C534" s="13">
         <v>1.25</v>
@@ -14878,13 +14887,13 @@
       <c r="I534" s="34"/>
       <c r="J534" s="11"/>
       <c r="K534" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C535" s="13"/>
       <c r="D535" s="39">
@@ -14906,7 +14915,7 @@
         <v>42522</v>
       </c>
       <c r="B536" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C536" s="13">
         <v>1.25</v>
@@ -14924,13 +14933,13 @@
       <c r="I536" s="34"/>
       <c r="J536" s="11"/>
       <c r="K536" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C537" s="13"/>
       <c r="D537" s="39">
@@ -14952,7 +14961,7 @@
         <v>42552</v>
       </c>
       <c r="B538" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C538" s="13">
         <v>1.25</v>
@@ -14976,7 +14985,7 @@
         <v>42583</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C539" s="13">
         <v>1.25</v>
@@ -14994,13 +15003,13 @@
       <c r="I539" s="34"/>
       <c r="J539" s="11"/>
       <c r="K539" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C540" s="13"/>
       <c r="D540" s="39">
@@ -15022,7 +15031,7 @@
         <v>42614</v>
       </c>
       <c r="B541" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C541" s="13">
         <v>1.25</v>
@@ -15046,7 +15055,7 @@
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C542" s="13"/>
       <c r="D542" s="39"/>
@@ -15062,13 +15071,13 @@
       <c r="I542" s="34"/>
       <c r="J542" s="11"/>
       <c r="K542" s="50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39">
@@ -15090,7 +15099,7 @@
         <v>42644</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C544" s="13">
         <v>1.25</v>
@@ -15108,13 +15117,13 @@
       <c r="I544" s="34"/>
       <c r="J544" s="11"/>
       <c r="K544" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C545" s="13"/>
       <c r="D545" s="39">
@@ -15136,7 +15145,7 @@
         <v>42675</v>
       </c>
       <c r="B546" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C546" s="13">
         <v>1.25</v>
@@ -15154,13 +15163,13 @@
       <c r="I546" s="34"/>
       <c r="J546" s="11"/>
       <c r="K546" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39">
@@ -15182,7 +15191,7 @@
         <v>42705</v>
       </c>
       <c r="B548" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C548" s="13">
         <v>1.25</v>
@@ -15203,7 +15212,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15228,7 +15237,7 @@
         <v>42736</v>
       </c>
       <c r="B550" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C550" s="13">
         <v>1.25</v>
@@ -15250,7 +15259,7 @@
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C551" s="13"/>
       <c r="D551" s="39">
@@ -15272,7 +15281,7 @@
         <v>42767</v>
       </c>
       <c r="B552" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C552" s="13">
         <v>1.25</v>
@@ -15296,7 +15305,7 @@
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39">
@@ -15318,7 +15327,7 @@
         <v>42795</v>
       </c>
       <c r="B554" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C554" s="13">
         <v>1.25</v>
@@ -15340,7 +15349,7 @@
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
@@ -15356,7 +15365,7 @@
       <c r="I555" s="34"/>
       <c r="J555" s="11"/>
       <c r="K555" s="48" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
@@ -15364,7 +15373,7 @@
         <v>42826</v>
       </c>
       <c r="B556" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C556" s="13">
         <v>1.25</v>
@@ -15386,7 +15395,7 @@
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C557" s="13"/>
       <c r="D557" s="39">
@@ -15426,13 +15435,13 @@
       <c r="I558" s="34"/>
       <c r="J558" s="11"/>
       <c r="K558" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
@@ -15454,7 +15463,7 @@
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39">
@@ -15476,7 +15485,7 @@
         <v>42887</v>
       </c>
       <c r="B561" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C561" s="13">
         <v>1.25</v>
@@ -15494,7 +15503,7 @@
       <c r="I561" s="34"/>
       <c r="J561" s="11"/>
       <c r="K561" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
@@ -15516,13 +15525,13 @@
       <c r="I562" s="34"/>
       <c r="J562" s="11"/>
       <c r="K562" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C563" s="13"/>
       <c r="D563" s="39">
@@ -15562,13 +15571,13 @@
       <c r="I564" s="34"/>
       <c r="J564" s="11"/>
       <c r="K564" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
@@ -15584,13 +15593,13 @@
       <c r="I565" s="34"/>
       <c r="J565" s="11"/>
       <c r="K565" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39">
@@ -15630,13 +15639,13 @@
       <c r="I567" s="34"/>
       <c r="J567" s="11"/>
       <c r="K567" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
@@ -15652,13 +15661,13 @@
       <c r="I568" s="34"/>
       <c r="J568" s="11"/>
       <c r="K568" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C569" s="13"/>
       <c r="D569" s="39">
@@ -15680,7 +15689,7 @@
         <v>42979</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C570" s="13">
         <v>1.25</v>
@@ -15698,13 +15707,13 @@
       <c r="I570" s="34"/>
       <c r="J570" s="11"/>
       <c r="K570" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C571" s="13"/>
       <c r="D571" s="39">
@@ -15726,7 +15735,7 @@
         <v>43009</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
@@ -15744,7 +15753,7 @@
       <c r="I572" s="34"/>
       <c r="J572" s="11"/>
       <c r="K572" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
@@ -15766,13 +15775,13 @@
       <c r="I573" s="34"/>
       <c r="J573" s="11"/>
       <c r="K573" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C574" s="13"/>
       <c r="D574" s="39">
@@ -15790,13 +15799,13 @@
       <c r="I574" s="34"/>
       <c r="J574" s="11"/>
       <c r="K574" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39">
@@ -15838,7 +15847,7 @@
         <v>43070</v>
       </c>
       <c r="B577" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C577" s="13">
         <v>1.25</v>
@@ -16510,7 +16519,7 @@
         <v>43617</v>
       </c>
       <c r="B606" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="39">
@@ -17262,7 +17271,7 @@
         <v>44378</v>
       </c>
       <c r="B640" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39">
@@ -17332,7 +17341,7 @@
         <v>44409</v>
       </c>
       <c r="B643" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C643" s="13">
         <v>1.25</v>
@@ -17378,7 +17387,7 @@
         <v>44470</v>
       </c>
       <c r="B645" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C645" s="13">
         <v>1.25</v>
@@ -17404,7 +17413,7 @@
         <v>44501</v>
       </c>
       <c r="B646" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C646" s="13">
         <v>1.25</v>
@@ -17430,7 +17439,7 @@
         <v>44531</v>
       </c>
       <c r="B647" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C647" s="13">
         <v>1.25</v>
@@ -17453,7 +17462,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17540,7 +17549,7 @@
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C652" s="13"/>
       <c r="D652" s="39">
@@ -17562,7 +17571,7 @@
         <v>44652</v>
       </c>
       <c r="B653" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C653" s="13">
         <v>1.25</v>
@@ -17586,7 +17595,7 @@
         <v>44682</v>
       </c>
       <c r="B654" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C654" s="13">
         <v>1.25</v>
@@ -17610,7 +17619,7 @@
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C655" s="13"/>
       <c r="D655" s="39">
@@ -17656,7 +17665,7 @@
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C657" s="13"/>
       <c r="D657" s="39">
@@ -17696,7 +17705,7 @@
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C659" s="13"/>
       <c r="D659" s="39">
@@ -17712,13 +17721,13 @@
       <c r="I659" s="9"/>
       <c r="J659" s="39"/>
       <c r="K659" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="39">
@@ -17764,7 +17773,7 @@
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C662" s="13"/>
       <c r="D662" s="39">
@@ -17832,7 +17841,7 @@
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C665" s="13"/>
       <c r="D665" s="39">
@@ -17854,7 +17863,7 @@
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="39">
@@ -17900,7 +17909,7 @@
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C668" s="13"/>
       <c r="D668" s="39"/>
@@ -17922,7 +17931,7 @@
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C669" s="13"/>
       <c r="D669" s="39">
@@ -17968,7 +17977,7 @@
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C671" s="13"/>
       <c r="D671" s="39">
@@ -18014,7 +18023,7 @@
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C673" s="13"/>
       <c r="D673" s="39">
@@ -18098,101 +18107,95 @@
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
-        <v>112</v>
+        <v>533</v>
       </c>
       <c r="C677" s="13"/>
-      <c r="D677" s="39"/>
+      <c r="D677" s="39">
+        <v>0.18100000000000002</v>
+      </c>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
       <c r="G677" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H677" s="39">
-        <v>2</v>
-      </c>
+      <c r="H677" s="39"/>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
-      <c r="K677" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="K677" s="20"/>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C678" s="13">
-        <v>1.25</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C678" s="13"/>
       <c r="D678" s="39"/>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
-      <c r="G678" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H678" s="39"/>
+      <c r="G678" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H678" s="39">
+        <v>2</v>
+      </c>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
       <c r="K678" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40"/>
+      <c r="A679" s="40">
+        <v>44958</v>
+      </c>
       <c r="B679" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C679" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C679" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D679" s="39"/>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
-      <c r="G679" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H679" s="39">
-        <v>3</v>
-      </c>
+      <c r="G679" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H679" s="39"/>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
       <c r="K679" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A680" s="40"/>
       <c r="B680" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C680" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C680" s="13"/>
       <c r="D680" s="39"/>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
-      <c r="G680" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G680" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H680" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
       <c r="K680" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
-        <v>54</v>
+        <v>568</v>
       </c>
       <c r="C681" s="13"/>
       <c r="D681" s="39">
@@ -18208,121 +18211,113 @@
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
       <c r="K681" s="48">
-        <v>45015</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C682" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D682" s="39"/>
+        <v>588</v>
+      </c>
+      <c r="C682" s="13"/>
+      <c r="D682" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H682" s="39">
-        <v>2</v>
-      </c>
+      <c r="G682" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H682" s="39"/>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="20" t="s">
-        <v>118</v>
-      </c>
+      <c r="K682" s="48"/>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="40"/>
+      <c r="A683" s="40">
+        <v>44986</v>
+      </c>
       <c r="B683" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C683" s="13"/>
-      <c r="D683" s="39">
-        <v>3</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C683" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D683" s="39"/>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H683" s="39"/>
+      <c r="G683" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H683" s="39">
+        <v>2</v>
+      </c>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
       <c r="K683" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A684" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C684" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D684" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="C684" s="13"/>
+      <c r="D684" s="39">
+        <v>1</v>
+      </c>
       <c r="E684" s="9"/>
       <c r="F684" s="20"/>
-      <c r="G684" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H684" s="39">
-        <v>5</v>
-      </c>
+      <c r="G684" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H684" s="39"/>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
-      <c r="K684" s="20" t="s">
-        <v>561</v>
+      <c r="K684" s="48" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A685" s="40"/>
       <c r="B685" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C685" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D685" s="39"/>
+        <v>594</v>
+      </c>
+      <c r="C685" s="13"/>
+      <c r="D685" s="39">
+        <v>1.35</v>
+      </c>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H685" s="39">
-        <v>2</v>
-      </c>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
-      <c r="K685" s="20" t="s">
-        <v>562</v>
-      </c>
+      <c r="K685" s="48"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="40"/>
+      <c r="A686" s="40">
+        <v>45017</v>
+      </c>
       <c r="B686" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C686" s="13"/>
+      <c r="C686" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D686" s="39"/>
       <c r="E686" s="9"/>
       <c r="F686" s="20"/>
-      <c r="G686" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G686" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H686" s="39">
         <v>2</v>
@@ -18330,17 +18325,17 @@
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
       <c r="K686" s="20" t="s">
-        <v>563</v>
+        <v>118</v>
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="C687" s="13"/>
       <c r="D687" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
@@ -18352,17 +18347,17 @@
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
       <c r="K687" s="20" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="C688" s="13"/>
       <c r="D688" s="39">
-        <v>7.5000000000000011E-2</v>
+        <v>1</v>
       </c>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
@@ -18373,64 +18368,64 @@
       <c r="H688" s="39"/>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
-      <c r="K688" s="20"/>
+      <c r="K688" s="48">
+        <v>45027</v>
+      </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A689" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C689" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D689" s="39"/>
+        <v>538</v>
+      </c>
+      <c r="C689" s="13"/>
+      <c r="D689" s="39">
+        <v>0.16000000000000003</v>
+      </c>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H689" s="39">
-        <v>2</v>
-      </c>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H689" s="39"/>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
-      <c r="K689" s="20" t="s">
-        <v>565</v>
-      </c>
+      <c r="K689" s="48"/>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="40"/>
+      <c r="A690" s="40">
+        <v>45047</v>
+      </c>
       <c r="B690" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C690" s="13"/>
-      <c r="D690" s="39">
-        <v>3</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C690" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D690" s="39"/>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H690" s="39"/>
+      <c r="G690" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H690" s="39">
+        <v>5</v>
+      </c>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="20" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C691" s="13"/>
       <c r="D691" s="39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
@@ -18441,68 +18436,68 @@
       <c r="H691" s="39"/>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
-      <c r="K691" s="20" t="s">
-        <v>572</v>
+      <c r="K691" s="48">
+        <v>45065</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
-        <v>137</v>
+        <v>591</v>
       </c>
       <c r="C692" s="13"/>
-      <c r="D692" s="39"/>
+      <c r="D692" s="39">
+        <v>0.15400000000000003</v>
+      </c>
       <c r="E692" s="9"/>
       <c r="F692" s="20"/>
       <c r="G692" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H692" s="39">
-        <v>1</v>
-      </c>
+      <c r="H692" s="39"/>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
-      <c r="K692" s="48">
-        <v>45124</v>
-      </c>
+      <c r="K692" s="48"/>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40"/>
+      <c r="A693" s="40">
+        <v>45078</v>
+      </c>
       <c r="B693" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="C693" s="13"/>
-      <c r="D693" s="39">
-        <v>0.09</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C693" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D693" s="39"/>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H693" s="39"/>
+      <c r="G693" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H693" s="39">
+        <v>2</v>
+      </c>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
-      <c r="K693" s="48"/>
+      <c r="K693" s="20" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A694" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C694" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C694" s="13"/>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H694" s="39">
         <v>2</v>
@@ -18510,17 +18505,17 @@
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
       <c r="K694" s="20" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
-        <v>589</v>
+        <v>170</v>
       </c>
       <c r="C695" s="13"/>
       <c r="D695" s="39">
-        <v>7.7000000000000013E-2</v>
+        <v>2</v>
       </c>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
@@ -18531,86 +18526,86 @@
       <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
-      <c r="K695" s="20"/>
+      <c r="K695" s="20" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A696" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C696" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D696" s="39"/>
+        <v>590</v>
+      </c>
+      <c r="C696" s="13"/>
+      <c r="D696" s="39">
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="E696" s="9"/>
       <c r="F696" s="20"/>
-      <c r="G696" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H696" s="39">
-        <v>1</v>
-      </c>
+      <c r="G696" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H696" s="39"/>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
-      <c r="K696" s="48">
-        <v>45170</v>
-      </c>
+      <c r="K696" s="20"/>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" s="40"/>
+      <c r="A697" s="40">
+        <v>45108</v>
+      </c>
       <c r="B697" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C697" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C697" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G697" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H697" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
-      <c r="K697" s="48">
-        <v>45169</v>
+      <c r="K697" s="20" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="C698" s="13"/>
-      <c r="D698" s="39"/>
+      <c r="D698" s="39">
+        <v>3</v>
+      </c>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
       <c r="G698" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H698" s="39">
-        <v>2</v>
-      </c>
+      <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="48" t="s">
-        <v>581</v>
+      <c r="K698" s="20" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="C699" s="13"/>
       <c r="D699" s="39">
-        <v>8.500000000000002E-2</v>
+        <v>8</v>
       </c>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
@@ -18621,24 +18616,22 @@
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
-      <c r="K699" s="48"/>
+      <c r="K699" s="20" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C700" s="13">
-        <v>1.25</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C700" s="13"/>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H700" s="39">
         <v>1</v>
@@ -18646,17 +18639,17 @@
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
       <c r="K700" s="48">
-        <v>45208</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C701" s="13"/>
       <c r="D701" s="39">
-        <v>0.10200000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
@@ -18671,10 +18664,10 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B702" s="20" t="s">
-        <v>416</v>
+        <v>112</v>
       </c>
       <c r="C702" s="13">
         <v>1.25</v>
@@ -18687,22 +18680,22 @@
         <v>1.25</v>
       </c>
       <c r="H702" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
       <c r="K702" s="20" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="C703" s="13"/>
       <c r="D703" s="39">
-        <v>1</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
@@ -18713,59 +18706,61 @@
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
-      <c r="K703" s="48">
-        <v>45233</v>
-      </c>
+      <c r="K703" s="20"/>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" s="40"/>
+      <c r="A704" s="40">
+        <v>45170</v>
+      </c>
       <c r="B704" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C704" s="13"/>
-      <c r="D704" s="39">
-        <v>0.20600000000000002</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C704" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D704" s="39"/>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H704" s="39"/>
+      <c r="G704" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H704" s="39">
+        <v>1</v>
+      </c>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
-      <c r="K704" s="48"/>
+      <c r="K704" s="48">
+        <v>45170</v>
+      </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A705" s="40"/>
       <c r="B705" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="C705" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D705" s="39">
-        <v>0.60199999999999998</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H705" s="39"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39">
+        <v>1</v>
+      </c>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
-      <c r="K705" s="20"/>
+      <c r="K705" s="48">
+        <v>45169</v>
+      </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="49" t="s">
-        <v>583</v>
-      </c>
-      <c r="B706" s="20"/>
+      <c r="A706" s="40"/>
+      <c r="B706" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C706" s="13"/>
       <c r="D706" s="39"/>
       <c r="E706" s="9"/>
@@ -18774,62 +18769,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H706" s="39"/>
+      <c r="H706" s="39">
+        <v>2</v>
+      </c>
       <c r="I706" s="9"/>
       <c r="J706" s="11"/>
-      <c r="K706" s="20"/>
+      <c r="K706" s="48" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" s="40">
-        <v>45322</v>
-      </c>
+      <c r="A707" s="40"/>
       <c r="B707" s="20" t="s">
-        <v>137</v>
+        <v>587</v>
       </c>
       <c r="C707" s="13"/>
-      <c r="D707" s="39"/>
+      <c r="D707" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
       <c r="G707" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H707" s="39">
-        <v>1</v>
-      </c>
+      <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
-      <c r="K707" s="48">
-        <v>45293</v>
-      </c>
+      <c r="K707" s="48"/>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A708" s="40"/>
+      <c r="A708" s="40">
+        <v>45200</v>
+      </c>
       <c r="B708" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C708" s="13"/>
+        <v>136</v>
+      </c>
+      <c r="C708" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H708" s="39"/>
+      <c r="G708" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H708" s="39">
+        <v>1</v>
+      </c>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
       <c r="K708" s="48">
-        <v>45296</v>
+        <v>45208</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A709" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B709" s="20"/>
+      <c r="A709" s="40"/>
+      <c r="B709" s="20" t="s">
+        <v>586</v>
+      </c>
       <c r="C709" s="13"/>
-      <c r="D709" s="39"/>
+      <c r="D709" s="39">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
       <c r="G709" s="13" t="str">
@@ -18839,33 +18842,43 @@
       <c r="H709" s="39"/>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
-      <c r="K709" s="20"/>
+      <c r="K709" s="48"/>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B710" s="20"/>
-      <c r="C710" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B710" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C710" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D710" s="39"/>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
-      <c r="G710" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H710" s="39"/>
+      <c r="G710" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H710" s="39">
+        <v>3</v>
+      </c>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
-      <c r="K710" s="20"/>
+      <c r="K710" s="20" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A711" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B711" s="20"/>
+      <c r="A711" s="40"/>
+      <c r="B711" s="20" t="s">
+        <v>568</v>
+      </c>
       <c r="C711" s="13"/>
-      <c r="D711" s="39"/>
+      <c r="D711" s="39">
+        <v>1</v>
+      </c>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
       <c r="G711" s="13" t="str">
@@ -18875,15 +18888,19 @@
       <c r="H711" s="39"/>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
-      <c r="K711" s="20"/>
+      <c r="K711" s="48">
+        <v>45233</v>
+      </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B712" s="20"/>
+      <c r="A712" s="40"/>
+      <c r="B712" s="20" t="s">
+        <v>286</v>
+      </c>
       <c r="C712" s="13"/>
-      <c r="D712" s="39"/>
+      <c r="D712" s="39">
+        <v>0.20600000000000002</v>
+      </c>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
       <c r="G712" s="13" t="str">
@@ -18893,20 +18910,26 @@
       <c r="H712" s="39"/>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
-      <c r="K712" s="20"/>
+      <c r="K712" s="48"/>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B713" s="20"/>
-      <c r="C713" s="13"/>
-      <c r="D713" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B713" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C713" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D713" s="39">
+        <v>0.60199999999999998</v>
+      </c>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
-      <c r="G713" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G713" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
@@ -18914,8 +18937,8 @@
       <c r="K713" s="20"/>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A714" s="40">
-        <v>45474</v>
+      <c r="A714" s="49" t="s">
+        <v>582</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18933,9 +18956,11 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B715" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B715" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="C715" s="13"/>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
@@ -18944,16 +18969,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H715" s="39"/>
+      <c r="H715" s="39">
+        <v>1</v>
+      </c>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="20"/>
+      <c r="K715" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B716" s="20"/>
+      <c r="A716" s="40"/>
+      <c r="B716" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="C716" s="13"/>
       <c r="D716" s="39"/>
       <c r="E716" s="9"/>
@@ -18965,11 +18994,13 @@
       <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="20"/>
+      <c r="K716" s="48">
+        <v>45296</v>
+      </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>45566</v>
+        <v>45323</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18987,7 +19018,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>45597</v>
+        <v>45352</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19005,7 +19036,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45627</v>
+        <v>45383</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19023,7 +19054,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45658</v>
+        <v>45413</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19041,7 +19072,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45689</v>
+        <v>45444</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19059,7 +19090,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45717</v>
+        <v>45474</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19077,7 +19108,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45748</v>
+        <v>45505</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19095,7 +19126,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45778</v>
+        <v>45536</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19113,7 +19144,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45809</v>
+        <v>45566</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19131,7 +19162,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45839</v>
+        <v>45597</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19148,7 +19179,9 @@
       <c r="K726" s="20"/>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A727" s="40"/>
+      <c r="A727" s="40">
+        <v>45627</v>
+      </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
       <c r="D727" s="39"/>
@@ -19164,7 +19197,9 @@
       <c r="K727" s="20"/>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A728" s="40"/>
+      <c r="A728" s="40">
+        <v>45658</v>
+      </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
       <c r="D728" s="39"/>
@@ -19180,7 +19215,9 @@
       <c r="K728" s="20"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40"/>
+      <c r="A729" s="40">
+        <v>45689</v>
+      </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
       <c r="D729" s="39"/>
@@ -19196,7 +19233,9 @@
       <c r="K729" s="20"/>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="40"/>
+      <c r="A730" s="40">
+        <v>45717</v>
+      </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
       <c r="D730" s="39"/>
@@ -19212,7 +19251,9 @@
       <c r="K730" s="20"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="40"/>
+      <c r="A731" s="40">
+        <v>45748</v>
+      </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
       <c r="D731" s="39"/>
@@ -19228,20 +19269,154 @@
       <c r="K731" s="20"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A732" s="41"/>
-      <c r="B732" s="15"/>
-      <c r="C732" s="42"/>
-      <c r="D732" s="43"/>
+      <c r="A732" s="40">
+        <v>45778</v>
+      </c>
+      <c r="B732" s="20"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="39"/>
       <c r="E732" s="9"/>
-      <c r="F732" s="15"/>
+      <c r="F732" s="20"/>
       <c r="G732" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H732" s="43"/>
+      <c r="H732" s="39"/>
       <c r="I732" s="9"/>
-      <c r="J732" s="12"/>
-      <c r="K732" s="15"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="20"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B733" s="20"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="39"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="39"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="20"/>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B734" s="20"/>
+      <c r="C734" s="13"/>
+      <c r="D734" s="39"/>
+      <c r="E734" s="9"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H734" s="39"/>
+      <c r="I734" s="9"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="20"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" s="40"/>
+      <c r="B735" s="20"/>
+      <c r="C735" s="13"/>
+      <c r="D735" s="39"/>
+      <c r="E735" s="9"/>
+      <c r="F735" s="20"/>
+      <c r="G735" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H735" s="39"/>
+      <c r="I735" s="9"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="20"/>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="40"/>
+      <c r="B736" s="20"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="39"/>
+      <c r="I736" s="9"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="40"/>
+      <c r="B737" s="20"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="39"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="40"/>
+      <c r="B738" s="20"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="39"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="39"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20"/>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="40"/>
+      <c r="B739" s="20"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="39"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="20"/>
+      <c r="G739" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H739" s="39"/>
+      <c r="I739" s="9"/>
+      <c r="J739" s="11"/>
+      <c r="K739" s="20"/>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" s="41"/>
+      <c r="B740" s="15"/>
+      <c r="C740" s="42"/>
+      <c r="D740" s="43"/>
+      <c r="E740" s="9"/>
+      <c r="F740" s="15"/>
+      <c r="G740" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H740" s="43"/>
+      <c r="I740" s="9"/>
+      <c r="J740" s="12"/>
+      <c r="K740" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19352,13 +19527,15 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="11">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.18100000000000002</v>
       </c>
       <c r="J3" s="47">
         <v>16</v>

--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD03B5-44D6-49A7-9210-4180985B0E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="598">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1829,11 +1830,20 @@
   <si>
     <t>UT(1-2-48)</t>
   </si>
+  <si>
+    <t>SL(7-0-0)</t>
+  </si>
+  <si>
+    <t>1/15-23/2024</t>
+  </si>
+  <si>
+    <t>1/11-12/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2517,7 +2527,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2534,26 +2544,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K740" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K740"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K741" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K741" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2860,34 +2870,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K740"/>
+  <dimension ref="A2:K741"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A671" activePane="bottomLeft"/>
+      <pane ySplit="3516" topLeftCell="A704" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F684" sqref="F684"/>
+      <selection pane="bottomLeft" activeCell="B719" sqref="B719"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2920,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2932,7 +2942,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2954,7 +2964,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2962,7 +2972,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2975,7 +2985,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2992,7 +3002,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3036,7 +3046,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-1.7419999999998481</v>
+        <v>-0.49199999999984811</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3046,12 +3056,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.129999999999995</v>
+        <v>6.3799999999999955</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>530</v>
       </c>
@@ -3066,7 +3076,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36601</v>
       </c>
@@ -3090,7 +3100,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>544</v>
@@ -3108,7 +3118,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36617</v>
       </c>
@@ -3132,7 +3142,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>381</v>
@@ -3150,7 +3160,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3174,7 +3184,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3198,7 +3208,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3222,7 +3232,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3246,7 +3256,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>136</v>
@@ -3268,7 +3278,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>136</v>
@@ -3290,7 +3300,7 @@
         <v>36759</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36770</v>
       </c>
@@ -3314,7 +3324,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36800</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>136</v>
@@ -3362,7 +3372,7 @@
         <v>36805</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>296</v>
@@ -3384,7 +3394,7 @@
         <v>36808</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>415</v>
@@ -3406,7 +3416,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>136</v>
@@ -3428,7 +3438,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36831</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>538</v>
@@ -3472,7 +3482,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36861</v>
       </c>
@@ -3498,7 +3508,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>112</v>
@@ -3520,7 +3530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>541</v>
@@ -3540,7 +3550,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3568,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36892</v>
       </c>
@@ -3584,7 +3594,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>141</v>
@@ -3604,7 +3614,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>137</v>
@@ -3624,7 +3634,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36923</v>
       </c>
@@ -3650,7 +3660,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>225</v>
@@ -3670,7 +3680,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36951</v>
       </c>
@@ -3696,7 +3706,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>253</v>
@@ -3716,7 +3726,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36982</v>
       </c>
@@ -3740,7 +3750,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>141</v>
@@ -3760,7 +3770,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>141</v>
@@ -3780,7 +3790,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>37012</v>
       </c>
@@ -3804,7 +3814,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>142</v>
@@ -3826,7 +3836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
@@ -3848,7 +3858,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37043</v>
       </c>
@@ -3872,7 +3882,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>147</v>
@@ -3894,7 +3904,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>37073</v>
       </c>
@@ -3920,7 +3930,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>136</v>
@@ -3942,7 +3952,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>149</v>
@@ -3964,7 +3974,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>37112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>136</v>
@@ -4012,7 +4022,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>151</v>
@@ -4032,7 +4042,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37135</v>
       </c>
@@ -4058,7 +4068,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>153</v>
@@ -4078,7 +4088,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37165</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>156</v>
@@ -4128,7 +4138,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>159</v>
@@ -4150,7 +4160,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>158</v>
@@ -4170,7 +4180,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37196</v>
       </c>
@@ -4196,7 +4206,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>159</v>
@@ -4218,7 +4228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>230</v>
@@ -4238,7 +4248,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>161</v>
@@ -4258,7 +4268,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37226</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>164</v>
@@ -4304,7 +4314,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
         <v>135</v>
       </c>
@@ -4324,7 +4334,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37257</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>165</v>
@@ -4370,7 +4380,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>136</v>
@@ -4418,7 +4428,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>170</v>
@@ -4440,7 +4450,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37316</v>
       </c>
@@ -4464,7 +4474,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>168</v>
@@ -4486,7 +4496,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>169</v>
@@ -4506,7 +4516,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37347</v>
       </c>
@@ -4532,7 +4542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>170</v>
@@ -4554,7 +4564,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>212</v>
@@ -4574,7 +4584,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37377</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>159</v>
@@ -4624,7 +4634,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>156</v>
@@ -4646,7 +4656,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>159</v>
@@ -4668,7 +4678,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>171</v>
@@ -4688,7 +4698,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>159</v>
@@ -4736,7 +4746,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>172</v>
@@ -4754,7 +4764,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37438</v>
       </c>
@@ -4780,7 +4790,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>185</v>
@@ -4804,7 +4814,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>240</v>
@@ -4826,7 +4836,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>303</v>
@@ -4846,7 +4856,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37469</v>
       </c>
@@ -4872,7 +4882,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37500</v>
       </c>
@@ -4898,7 +4908,7 @@
         <v>37508</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>185</v>
@@ -4922,7 +4932,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37530</v>
       </c>
@@ -4948,7 +4958,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>168</v>
@@ -4972,7 +4982,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37561</v>
       </c>
@@ -4998,7 +5008,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>159</v>
@@ -5022,7 +5032,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>159</v>
@@ -5044,7 +5054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>185</v>
@@ -5064,7 +5074,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>189</v>
@@ -5084,7 +5094,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -5110,7 +5120,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="49" t="s">
         <v>134</v>
       </c>
@@ -5128,7 +5138,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37622</v>
       </c>
@@ -5150,7 +5160,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>136</v>
@@ -5172,7 +5182,7 @@
         <v>37631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>159</v>
@@ -5196,7 +5206,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>141</v>
@@ -5216,7 +5226,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>192</v>
@@ -5238,7 +5248,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37653</v>
       </c>
@@ -5264,7 +5274,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37681</v>
       </c>
@@ -5292,7 +5302,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>196</v>
@@ -5312,7 +5322,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37712</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>230</v>
@@ -5362,7 +5372,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5380,7 +5390,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>37742</v>
       </c>
@@ -5404,7 +5414,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37773</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>37747</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>185</v>
@@ -5454,7 +5464,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37803</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>37871</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>240</v>
@@ -5502,7 +5512,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>201</v>
@@ -5522,7 +5532,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37834</v>
       </c>
@@ -5550,7 +5560,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>159</v>
@@ -5570,7 +5580,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>159</v>
@@ -5592,7 +5602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37865</v>
       </c>
@@ -5618,7 +5628,7 @@
         <v>37964</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>136</v>
@@ -5640,7 +5650,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>205</v>
@@ -5662,7 +5672,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37895</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>185</v>
@@ -5712,7 +5722,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>159</v>
@@ -5734,7 +5744,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>209</v>
@@ -5756,7 +5766,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37926</v>
       </c>
@@ -5780,7 +5790,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>37956</v>
       </c>
@@ -5804,7 +5814,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>214</v>
@@ -5824,7 +5834,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="49" t="s">
         <v>133</v>
       </c>
@@ -5842,7 +5852,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37987</v>
       </c>
@@ -5868,7 +5878,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>215</v>
@@ -5888,7 +5898,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>38018</v>
       </c>
@@ -5914,7 +5924,7 @@
         <v>37291</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>141</v>
@@ -5934,7 +5944,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>217</v>
@@ -5954,7 +5964,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38047</v>
       </c>
@@ -5980,7 +5990,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>159</v>
@@ -6002,7 +6012,7 @@
         <v>38062</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>159</v>
@@ -6024,7 +6034,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>219</v>
@@ -6044,7 +6054,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>38078</v>
       </c>
@@ -6070,7 +6080,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>159</v>
@@ -6094,7 +6104,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>159</v>
@@ -6116,7 +6126,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>218</v>
@@ -6136,7 +6146,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>38108</v>
       </c>
@@ -6162,7 +6172,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>136</v>
@@ -6186,7 +6196,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>159</v>
@@ -6210,7 +6220,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>224</v>
@@ -6230,7 +6240,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -6250,7 +6260,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -6276,7 +6286,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>159</v>
@@ -6300,7 +6310,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>225</v>
@@ -6320,7 +6330,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -6346,7 +6356,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>185</v>
@@ -6370,7 +6380,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>159</v>
@@ -6392,7 +6402,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>140</v>
@@ -6412,7 +6422,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38231</v>
       </c>
@@ -6438,7 +6448,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>230</v>
@@ -6460,7 +6470,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>232</v>
@@ -6480,7 +6490,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38261</v>
       </c>
@@ -6506,7 +6516,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>159</v>
@@ -6530,7 +6540,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>234</v>
@@ -6550,7 +6560,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38292</v>
       </c>
@@ -6576,7 +6586,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>159</v>
@@ -6600,7 +6610,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>159</v>
@@ -6622,7 +6632,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>236</v>
@@ -6642,7 +6652,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38322</v>
       </c>
@@ -6668,7 +6678,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>238</v>
@@ -6688,7 +6698,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="49" t="s">
         <v>132</v>
       </c>
@@ -6706,7 +6716,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38353</v>
       </c>
@@ -6728,7 +6738,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>136</v>
@@ -6750,7 +6760,7 @@
         <v>38365</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>230</v>
@@ -6774,7 +6784,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>141</v>
@@ -6794,7 +6804,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>141</v>
@@ -6814,7 +6824,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38384</v>
       </c>
@@ -6834,7 +6844,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38412</v>
       </c>
@@ -6860,7 +6870,7 @@
         <v>38428</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>136</v>
@@ -6882,7 +6892,7 @@
         <v>38438</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38443</v>
       </c>
@@ -6908,7 +6918,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38473</v>
       </c>
@@ -6934,7 +6944,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>136</v>
@@ -6956,7 +6966,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>230</v>
@@ -6978,7 +6988,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>38504</v>
       </c>
@@ -7004,7 +7014,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>159</v>
@@ -7028,7 +7038,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>38534</v>
       </c>
@@ -7056,7 +7066,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38565</v>
       </c>
@@ -7076,7 +7086,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38596</v>
       </c>
@@ -7102,7 +7112,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>136</v>
@@ -7124,7 +7134,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38626</v>
       </c>
@@ -7150,7 +7160,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>38657</v>
       </c>
@@ -7170,7 +7180,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -7196,7 +7206,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>136</v>
@@ -7218,7 +7228,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>248</v>
@@ -7238,7 +7248,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="49" t="s">
         <v>131</v>
       </c>
@@ -7260,7 +7270,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -7284,7 +7294,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>112</v>
@@ -7306,7 +7316,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>185</v>
@@ -7328,7 +7338,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>159</v>
@@ -7350,7 +7360,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>38749</v>
       </c>
@@ -7374,7 +7384,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>136</v>
@@ -7396,7 +7406,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>253</v>
@@ -7416,7 +7426,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>38777</v>
       </c>
@@ -7442,7 +7452,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>141</v>
@@ -7462,7 +7472,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>136</v>
@@ -7484,7 +7494,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>230</v>
@@ -7506,7 +7516,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>141</v>
@@ -7526,7 +7536,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38808</v>
       </c>
@@ -7554,7 +7564,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>136</v>
@@ -7576,7 +7586,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>136</v>
@@ -7598,7 +7608,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>263</v>
@@ -7618,7 +7628,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38838</v>
       </c>
@@ -7644,7 +7654,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>264</v>
@@ -7666,7 +7676,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>141</v>
@@ -7686,7 +7696,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>38869</v>
       </c>
@@ -7710,7 +7720,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>38899</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>267</v>
@@ -7756,7 +7766,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38930</v>
       </c>
@@ -7782,7 +7792,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>270</v>
@@ -7802,7 +7812,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>38961</v>
       </c>
@@ -7828,7 +7838,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>554</v>
@@ -7848,7 +7858,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>38991</v>
       </c>
@@ -7872,7 +7882,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39022</v>
       </c>
@@ -7898,7 +7908,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>136</v>
@@ -7920,7 +7930,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>272</v>
@@ -7940,7 +7950,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>39052</v>
       </c>
@@ -7966,7 +7976,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>276</v>
@@ -7986,7 +7996,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="48"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="49" t="s">
         <v>130</v>
       </c>
@@ -8008,7 +8018,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39083</v>
       </c>
@@ -8032,7 +8042,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>136</v>
@@ -8054,7 +8064,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>542</v>
@@ -8076,7 +8086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>112</v>
@@ -8098,7 +8108,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39114</v>
       </c>
@@ -8122,7 +8132,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>136</v>
@@ -8144,7 +8154,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>136</v>
@@ -8164,7 +8174,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>282</v>
@@ -8184,7 +8194,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>39142</v>
       </c>
@@ -8210,7 +8220,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>141</v>
@@ -8228,7 +8238,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>141</v>
@@ -8248,7 +8258,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>543</v>
@@ -8268,7 +8278,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39173</v>
       </c>
@@ -8296,7 +8306,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>286</v>
@@ -8316,7 +8326,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>136</v>
@@ -8334,7 +8344,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39203</v>
       </c>
@@ -8360,7 +8370,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>287</v>
@@ -8380,7 +8390,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>230</v>
@@ -8402,7 +8412,7 @@
         <v>39237</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>39234</v>
       </c>
@@ -8428,7 +8438,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>136</v>
@@ -8450,7 +8460,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>289</v>
@@ -8470,7 +8480,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>39264</v>
       </c>
@@ -8496,7 +8506,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>210</v>
@@ -8520,7 +8530,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39295</v>
       </c>
@@ -8546,7 +8556,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>503</v>
@@ -8566,7 +8576,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="48"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39326</v>
       </c>
@@ -8592,7 +8602,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>156</v>
@@ -8612,7 +8622,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>293</v>
@@ -8632,7 +8642,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>294</v>
@@ -8652,7 +8662,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>39356</v>
       </c>
@@ -8678,7 +8688,7 @@
         <v>39092</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>295</v>
@@ -8700,7 +8710,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>136</v>
@@ -8722,7 +8732,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>296</v>
@@ -8742,7 +8752,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>297</v>
@@ -8762,7 +8772,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>267</v>
@@ -8782,7 +8792,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>294</v>
@@ -8802,7 +8812,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39387</v>
       </c>
@@ -8828,7 +8838,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>159</v>
@@ -8850,7 +8860,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>185</v>
@@ -8872,7 +8882,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>302</v>
@@ -8892,7 +8902,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>39417</v>
       </c>
@@ -8918,7 +8928,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>556</v>
@@ -8938,7 +8948,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>136</v>
@@ -8958,7 +8968,7 @@
         <v>39808</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>230</v>
@@ -8978,7 +8988,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="49" t="s">
         <v>129</v>
       </c>
@@ -9000,7 +9010,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39448</v>
       </c>
@@ -9024,7 +9034,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>303</v>
@@ -9046,7 +9056,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>136</v>
@@ -9066,7 +9076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>306</v>
@@ -9086,7 +9096,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="48"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>307</v>
@@ -9106,7 +9116,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39479</v>
       </c>
@@ -9130,7 +9140,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>159</v>
@@ -9152,7 +9162,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>308</v>
@@ -9172,7 +9182,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="48"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>309</v>
@@ -9192,7 +9202,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>39508</v>
       </c>
@@ -9218,7 +9228,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>311</v>
@@ -9238,7 +9248,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>312</v>
@@ -9258,7 +9268,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39539</v>
       </c>
@@ -9282,7 +9292,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>314</v>
@@ -9306,7 +9316,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>316</v>
@@ -9326,7 +9336,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>317</v>
@@ -9346,7 +9356,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39569</v>
       </c>
@@ -9370,7 +9380,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>318</v>
@@ -9390,7 +9400,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>319</v>
@@ -9410,7 +9420,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -9436,7 +9446,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>159</v>
@@ -9460,7 +9470,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>320</v>
@@ -9480,7 +9490,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="48"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>319</v>
@@ -9500,7 +9510,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="48"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>39630</v>
       </c>
@@ -9526,7 +9536,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>185</v>
@@ -9550,7 +9560,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>171</v>
@@ -9570,7 +9580,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="48"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>39661</v>
       </c>
@@ -9598,7 +9608,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>319</v>
@@ -9618,7 +9628,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>323</v>
@@ -9640,7 +9650,7 @@
         <v>39516</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>39692</v>
       </c>
@@ -9662,7 +9672,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>324</v>
@@ -9686,7 +9696,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>159</v>
@@ -9708,7 +9718,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>326</v>
@@ -9728,7 +9738,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="48"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>317</v>
@@ -9748,7 +9758,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="48"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39722</v>
       </c>
@@ -9776,7 +9786,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>159</v>
@@ -9798,7 +9808,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>164</v>
@@ -9818,7 +9828,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>319</v>
@@ -9838,7 +9848,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39753</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>159</v>
@@ -9888,7 +9898,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>317</v>
@@ -9908,7 +9918,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="48"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>328</v>
@@ -9928,7 +9938,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -9952,7 +9962,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>330</v>
@@ -9972,7 +9982,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="49" t="s">
         <v>128</v>
       </c>
@@ -9994,7 +10004,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -10020,7 +10030,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>141</v>
@@ -10040,7 +10050,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>159</v>
@@ -10062,7 +10072,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>141</v>
@@ -10082,7 +10092,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>335</v>
@@ -10102,7 +10112,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>39845</v>
       </c>
@@ -10126,7 +10136,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>337</v>
@@ -10146,7 +10156,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>39873</v>
       </c>
@@ -10172,7 +10182,7 @@
         <v>39847</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>136</v>
@@ -10194,7 +10204,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>339</v>
@@ -10214,7 +10224,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="48"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>39904</v>
       </c>
@@ -10240,7 +10250,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>159</v>
@@ -10264,7 +10274,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>342</v>
@@ -10284,7 +10294,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>39934</v>
       </c>
@@ -10310,7 +10320,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>343</v>
@@ -10330,7 +10340,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="48"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>136</v>
@@ -10352,7 +10362,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>39965</v>
       </c>
@@ -10380,7 +10390,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>210</v>
@@ -10404,7 +10414,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>346</v>
@@ -10424,7 +10434,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="48"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>39995</v>
       </c>
@@ -10448,7 +10458,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>40026</v>
       </c>
@@ -10472,7 +10482,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>40057</v>
       </c>
@@ -10498,7 +10508,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>136</v>
@@ -10520,7 +10530,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>351</v>
@@ -10540,7 +10550,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40087</v>
       </c>
@@ -10566,7 +10576,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>352</v>
@@ -10586,7 +10596,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40118</v>
       </c>
@@ -10610,7 +10620,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>40148</v>
       </c>
@@ -10634,7 +10644,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="49" t="s">
         <v>127</v>
       </c>
@@ -10656,7 +10666,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40179</v>
       </c>
@@ -10680,7 +10690,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -10700,7 +10710,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>189</v>
@@ -10720,7 +10730,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>40210</v>
       </c>
@@ -10744,7 +10754,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>136</v>
@@ -10766,7 +10776,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>330</v>
@@ -10786,7 +10796,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40238</v>
       </c>
@@ -10810,7 +10820,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40269</v>
       </c>
@@ -10836,7 +10846,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>363</v>
@@ -10856,7 +10866,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40299</v>
       </c>
@@ -10882,7 +10892,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>364</v>
@@ -10902,7 +10912,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="48"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>40330</v>
       </c>
@@ -10928,7 +10938,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>365</v>
@@ -10948,7 +10958,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>40360</v>
       </c>
@@ -10974,7 +10984,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>367</v>
@@ -10996,7 +11006,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>369</v>
@@ -11016,7 +11026,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>40391</v>
       </c>
@@ -11040,7 +11050,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40422</v>
       </c>
@@ -11064,7 +11074,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>40452</v>
       </c>
@@ -11090,7 +11100,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>112</v>
@@ -11112,7 +11122,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>376</v>
@@ -11132,7 +11142,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40483</v>
       </c>
@@ -11158,7 +11168,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>375</v>
@@ -11178,7 +11188,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>40513</v>
       </c>
@@ -11202,7 +11212,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="49" t="s">
         <v>126</v>
       </c>
@@ -11224,7 +11234,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>40544</v>
       </c>
@@ -11248,7 +11258,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>112</v>
@@ -11270,7 +11280,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>379</v>
@@ -11292,7 +11302,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>40575</v>
       </c>
@@ -11316,7 +11326,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>194</v>
@@ -11340,7 +11350,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>159</v>
@@ -11362,7 +11372,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>385</v>
@@ -11382,7 +11392,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>40603</v>
       </c>
@@ -11408,7 +11418,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>386</v>
@@ -11432,7 +11442,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>40634</v>
       </c>
@@ -11452,7 +11462,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>40664</v>
       </c>
@@ -11478,7 +11488,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>40695</v>
       </c>
@@ -11504,7 +11514,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>40725</v>
       </c>
@@ -11524,7 +11534,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>40756</v>
       </c>
@@ -11550,7 +11560,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>40787</v>
       </c>
@@ -11574,7 +11584,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>393</v>
@@ -11594,7 +11604,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>394</v>
@@ -11614,7 +11624,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>40817</v>
       </c>
@@ -11638,7 +11648,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>40848</v>
       </c>
@@ -11664,7 +11674,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>136</v>
@@ -11686,7 +11696,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>136</v>
@@ -11708,7 +11718,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>40878</v>
       </c>
@@ -11732,7 +11742,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>390</v>
@@ -11752,7 +11762,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>390</v>
@@ -11772,7 +11782,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>136</v>
@@ -11794,7 +11804,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>398</v>
@@ -11814,7 +11824,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="48"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="49" t="s">
         <v>125</v>
       </c>
@@ -11836,7 +11846,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>40909</v>
       </c>
@@ -11860,7 +11870,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>399</v>
@@ -11880,7 +11890,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>141</v>
@@ -11900,7 +11910,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>136</v>
@@ -11922,7 +11932,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>400</v>
@@ -11942,7 +11952,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -11966,7 +11976,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>136</v>
@@ -11988,7 +11998,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>390</v>
@@ -12008,7 +12018,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>405</v>
@@ -12028,7 +12038,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>40969</v>
       </c>
@@ -12054,7 +12064,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>390</v>
@@ -12074,7 +12084,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>136</v>
@@ -12096,7 +12106,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>408</v>
@@ -12116,7 +12126,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="48"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>41000</v>
       </c>
@@ -12140,7 +12150,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>41030</v>
       </c>
@@ -12166,7 +12176,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>411</v>
@@ -12186,7 +12196,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>390</v>
@@ -12206,7 +12216,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>414</v>
@@ -12226,7 +12236,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>41061</v>
       </c>
@@ -12252,7 +12262,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>416</v>
@@ -12272,7 +12282,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>41091</v>
       </c>
@@ -12298,7 +12308,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>419</v>
@@ -12318,7 +12328,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="48"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>41122</v>
       </c>
@@ -12344,7 +12354,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>112</v>
@@ -12366,7 +12376,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>419</v>
@@ -12386,7 +12396,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="48"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>41153</v>
       </c>
@@ -12412,7 +12422,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>136</v>
@@ -12432,7 +12442,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>422</v>
@@ -12452,7 +12462,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>41183</v>
       </c>
@@ -12478,7 +12488,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>421</v>
@@ -12498,7 +12508,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>41214</v>
       </c>
@@ -12524,7 +12534,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>425</v>
@@ -12544,7 +12554,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>41244</v>
       </c>
@@ -12570,7 +12580,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>428</v>
@@ -12590,7 +12600,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="49" t="s">
         <v>124</v>
       </c>
@@ -12612,7 +12622,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41275</v>
       </c>
@@ -12636,7 +12646,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>141</v>
@@ -12656,7 +12666,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>429</v>
@@ -12676,7 +12686,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>41306</v>
       </c>
@@ -12700,7 +12710,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>41334</v>
       </c>
@@ -12724,7 +12734,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>41365</v>
       </c>
@@ -12750,7 +12760,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>432</v>
@@ -12772,7 +12782,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>41395</v>
       </c>
@@ -12794,7 +12804,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41426</v>
       </c>
@@ -12818,7 +12828,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>436</v>
@@ -12838,7 +12848,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41456</v>
       </c>
@@ -12862,7 +12872,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>170</v>
@@ -12884,7 +12894,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>170</v>
@@ -12906,7 +12916,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>112</v>
@@ -12928,7 +12938,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>112</v>
@@ -12950,7 +12960,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>41487</v>
       </c>
@@ -12976,7 +12986,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>441</v>
@@ -12996,7 +13006,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>41518</v>
       </c>
@@ -13020,7 +13030,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>443</v>
@@ -13040,7 +13050,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>41548</v>
       </c>
@@ -13064,7 +13074,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>41579</v>
       </c>
@@ -13084,7 +13094,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>41609</v>
       </c>
@@ -13110,7 +13120,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="49" t="s">
         <v>123</v>
       </c>
@@ -13132,7 +13142,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41640</v>
       </c>
@@ -13156,7 +13166,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>41671</v>
       </c>
@@ -13180,7 +13190,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>141</v>
@@ -13200,7 +13210,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>445</v>
@@ -13220,7 +13230,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>41699</v>
       </c>
@@ -13246,7 +13256,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>170</v>
@@ -13268,7 +13278,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>447</v>
@@ -13290,7 +13300,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>41730</v>
       </c>
@@ -13314,7 +13324,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>112</v>
@@ -13336,7 +13346,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>450</v>
@@ -13356,7 +13366,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>415</v>
@@ -13378,7 +13388,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>41760</v>
       </c>
@@ -13404,7 +13414,7 @@
         <v>41795</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>112</v>
@@ -13426,7 +13436,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>189</v>
@@ -13446,7 +13456,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -13472,7 +13482,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>136</v>
@@ -13494,7 +13504,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>136</v>
@@ -13516,7 +13526,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>456</v>
@@ -13536,7 +13546,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>41821</v>
       </c>
@@ -13562,7 +13572,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>458</v>
@@ -13584,7 +13594,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>460</v>
@@ -13604,7 +13614,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>41852</v>
       </c>
@@ -13630,7 +13640,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>462</v>
@@ -13650,7 +13660,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>41883</v>
       </c>
@@ -13676,7 +13686,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>464</v>
@@ -13696,7 +13706,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>41913</v>
       </c>
@@ -13720,7 +13730,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>41944</v>
       </c>
@@ -13746,7 +13756,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>136</v>
@@ -13768,7 +13778,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>41974</v>
       </c>
@@ -13794,7 +13804,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>465</v>
@@ -13814,7 +13824,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="48"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="49" t="s">
         <v>122</v>
       </c>
@@ -13836,7 +13846,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>42005</v>
       </c>
@@ -13860,7 +13870,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>141</v>
@@ -13880,7 +13890,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>136</v>
@@ -13900,7 +13910,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>466</v>
@@ -13920,7 +13930,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>42036</v>
       </c>
@@ -13946,7 +13956,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>136</v>
@@ -13968,7 +13978,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>468</v>
@@ -13988,7 +13998,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="48"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -14014,7 +14024,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>230</v>
@@ -14036,7 +14046,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>136</v>
@@ -14058,7 +14068,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>471</v>
@@ -14078,7 +14088,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>42095</v>
       </c>
@@ -14104,7 +14114,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>141</v>
@@ -14124,7 +14134,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>159</v>
@@ -14146,7 +14156,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>159</v>
@@ -14168,7 +14178,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>476</v>
@@ -14188,7 +14198,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42125</v>
       </c>
@@ -14214,7 +14224,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>478</v>
@@ -14234,7 +14244,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42156</v>
       </c>
@@ -14260,7 +14270,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>480</v>
@@ -14280,7 +14290,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>42186</v>
       </c>
@@ -14304,7 +14314,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>136</v>
@@ -14326,7 +14336,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>42217</v>
       </c>
@@ -14352,7 +14362,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>482</v>
@@ -14372,7 +14382,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>136</v>
@@ -14394,7 +14404,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>364</v>
@@ -14414,7 +14424,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>42248</v>
       </c>
@@ -14440,7 +14450,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>485</v>
@@ -14460,7 +14470,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>42278</v>
       </c>
@@ -14486,7 +14496,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>488</v>
@@ -14506,7 +14516,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>42309</v>
       </c>
@@ -14532,7 +14542,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>490</v>
@@ -14552,7 +14562,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42339</v>
       </c>
@@ -14578,7 +14588,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>492</v>
@@ -14598,7 +14608,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="49" t="s">
         <v>121</v>
       </c>
@@ -14620,7 +14630,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>42370</v>
       </c>
@@ -14644,7 +14654,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>136</v>
@@ -14666,7 +14676,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>494</v>
@@ -14686,7 +14696,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="48"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>42401</v>
       </c>
@@ -14710,7 +14720,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>136</v>
@@ -14732,7 +14742,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>496</v>
@@ -14752,7 +14762,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>42430</v>
       </c>
@@ -14778,7 +14788,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>141</v>
@@ -14798,7 +14808,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>498</v>
@@ -14818,7 +14828,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="48"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>42461</v>
       </c>
@@ -14844,7 +14854,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>500</v>
@@ -14864,7 +14874,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>42491</v>
       </c>
@@ -14890,7 +14900,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>140</v>
@@ -14910,7 +14920,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>42522</v>
       </c>
@@ -14936,7 +14946,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>302</v>
@@ -14956,7 +14966,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42552</v>
       </c>
@@ -14980,7 +14990,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>42583</v>
       </c>
@@ -15006,7 +15016,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>505</v>
@@ -15026,7 +15036,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>42614</v>
       </c>
@@ -15052,7 +15062,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>136</v>
@@ -15074,7 +15084,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>507</v>
@@ -15094,7 +15104,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="50"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>42644</v>
       </c>
@@ -15120,7 +15130,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>509</v>
@@ -15140,7 +15150,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>42675</v>
       </c>
@@ -15166,7 +15176,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>510</v>
@@ -15186,7 +15196,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>42705</v>
       </c>
@@ -15210,7 +15220,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="49" t="s">
         <v>120</v>
       </c>
@@ -15232,7 +15242,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>42736</v>
       </c>
@@ -15256,7 +15266,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>511</v>
@@ -15276,7 +15286,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -15302,7 +15312,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>513</v>
@@ -15322,7 +15332,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="48"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -15346,7 +15356,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>136</v>
@@ -15368,7 +15378,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>42826</v>
       </c>
@@ -15392,7 +15402,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>515</v>
@@ -15412,7 +15422,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="48"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>42856</v>
       </c>
@@ -15438,7 +15448,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>136</v>
@@ -15460,7 +15470,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>517</v>
@@ -15480,7 +15490,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="48"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>42887</v>
       </c>
@@ -15506,7 +15516,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>112</v>
@@ -15528,7 +15538,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>429</v>
@@ -15548,7 +15558,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>42917</v>
       </c>
@@ -15574,7 +15584,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>136</v>
@@ -15596,7 +15606,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>476</v>
@@ -15616,7 +15626,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -15642,7 +15652,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>136</v>
@@ -15664,7 +15674,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>524</v>
@@ -15684,7 +15694,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>42979</v>
       </c>
@@ -15710,7 +15720,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>526</v>
@@ -15730,7 +15740,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -15756,7 +15766,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>112</v>
@@ -15778,7 +15788,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>185</v>
@@ -15802,7 +15812,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>529</v>
@@ -15822,7 +15832,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -15842,7 +15852,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>43070</v>
       </c>
@@ -15866,7 +15876,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="23" t="s">
         <v>45</v>
       </c>
@@ -15884,7 +15894,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>43101</v>
       </c>
@@ -15908,7 +15918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>43132</v>
       </c>
@@ -15930,7 +15940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -15952,7 +15962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>46</v>
@@ -15974,7 +15984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="41">
         <v>43160</v>
       </c>
@@ -15994,7 +16004,7 @@
       <c r="J583" s="12"/>
       <c r="K583" s="15"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>43191</v>
       </c>
@@ -16018,7 +16028,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>52</v>
@@ -16042,7 +16052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>43221</v>
       </c>
@@ -16066,7 +16076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -16090,7 +16100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>43252</v>
       </c>
@@ -16116,7 +16126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>55</v>
@@ -16140,7 +16150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>59</v>
@@ -16162,7 +16172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>43282</v>
       </c>
@@ -16182,7 +16192,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>43313</v>
       </c>
@@ -16206,7 +16216,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>43344</v>
       </c>
@@ -16232,7 +16242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>43374</v>
       </c>
@@ -16258,7 +16268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>43405</v>
       </c>
@@ -16284,7 +16294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>43435</v>
       </c>
@@ -16310,7 +16320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="49" t="s">
         <v>67</v>
       </c>
@@ -16328,7 +16338,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>43466</v>
       </c>
@@ -16352,7 +16362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>68</v>
@@ -16374,7 +16384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>43497</v>
       </c>
@@ -16398,7 +16408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>43525</v>
       </c>
@@ -16420,7 +16430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>52</v>
@@ -16444,7 +16454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>43556</v>
       </c>
@@ -16468,7 +16478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>75</v>
@@ -16494,7 +16504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43586</v>
       </c>
@@ -16514,7 +16524,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>43617</v>
       </c>
@@ -16538,7 +16548,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>52</v>
@@ -16560,7 +16570,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>78</v>
@@ -16584,7 +16594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43647</v>
       </c>
@@ -16608,7 +16618,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -16632,7 +16642,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>43678</v>
       </c>
@@ -16656,7 +16666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>80</v>
@@ -16680,7 +16690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>43709</v>
       </c>
@@ -16706,7 +16716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>43739</v>
       </c>
@@ -16734,7 +16744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>43770</v>
       </c>
@@ -16760,7 +16770,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>43800</v>
       </c>
@@ -16784,7 +16794,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="49" t="s">
         <v>86</v>
       </c>
@@ -16802,7 +16812,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>43831</v>
       </c>
@@ -16826,7 +16836,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>87</v>
@@ -16848,7 +16858,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>88</v>
@@ -16870,7 +16880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>43862</v>
       </c>
@@ -16890,7 +16900,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>43891</v>
       </c>
@@ -16910,7 +16920,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>43922</v>
       </c>
@@ -16930,7 +16940,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>43952</v>
       </c>
@@ -16950,7 +16960,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>43983</v>
       </c>
@@ -16970,7 +16980,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>44013</v>
       </c>
@@ -16994,7 +17004,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>91</v>
@@ -17018,7 +17028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>44044</v>
       </c>
@@ -17038,7 +17048,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>44075</v>
       </c>
@@ -17058,7 +17068,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>44105</v>
       </c>
@@ -17078,7 +17088,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>44136</v>
       </c>
@@ -17098,7 +17108,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>44166</v>
       </c>
@@ -17122,7 +17132,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="49" t="s">
         <v>93</v>
       </c>
@@ -17140,7 +17150,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>44197</v>
       </c>
@@ -17160,7 +17170,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>44228</v>
       </c>
@@ -17186,7 +17196,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>44256</v>
       </c>
@@ -17206,7 +17216,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>44287</v>
       </c>
@@ -17226,7 +17236,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>44317</v>
       </c>
@@ -17246,7 +17256,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>44348</v>
       </c>
@@ -17266,7 +17276,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>44378</v>
       </c>
@@ -17290,7 +17300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>55</v>
@@ -17312,7 +17322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>48</v>
@@ -17336,7 +17346,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>44409</v>
       </c>
@@ -17362,7 +17372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>44440</v>
       </c>
@@ -17382,7 +17392,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>44470</v>
       </c>
@@ -17408,7 +17418,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>44501</v>
       </c>
@@ -17434,7 +17444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>44531</v>
       </c>
@@ -17460,7 +17470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="49" t="s">
         <v>572</v>
       </c>
@@ -17478,7 +17488,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>44562</v>
       </c>
@@ -17502,7 +17512,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>44593</v>
       </c>
@@ -17522,7 +17532,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44621</v>
       </c>
@@ -17546,7 +17556,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
         <v>538</v>
@@ -17566,7 +17576,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>44652</v>
       </c>
@@ -17590,7 +17600,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>44682</v>
       </c>
@@ -17616,7 +17626,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>578</v>
@@ -17636,7 +17646,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44713</v>
       </c>
@@ -17662,7 +17672,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>576</v>
@@ -17682,7 +17692,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>44743</v>
       </c>
@@ -17702,7 +17712,7 @@
       <c r="J658" s="39"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>240</v>
@@ -17724,7 +17734,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>575</v>
@@ -17744,7 +17754,7 @@
       <c r="J660" s="39"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>44774</v>
       </c>
@@ -17770,7 +17780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>573</v>
@@ -17790,7 +17800,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>44805</v>
       </c>
@@ -17816,7 +17826,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20" t="s">
         <v>54</v>
@@ -17838,7 +17848,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
         <v>568</v>
@@ -17860,7 +17870,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>476</v>
@@ -17880,7 +17890,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="48"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>44835</v>
       </c>
@@ -17906,7 +17916,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>136</v>
@@ -17928,7 +17938,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>570</v>
@@ -17948,7 +17958,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="48"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>44866</v>
       </c>
@@ -17974,7 +17984,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
         <v>569</v>
@@ -17994,7 +18004,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="48"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>44896</v>
       </c>
@@ -18020,7 +18030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>567</v>
@@ -18040,7 +18050,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="49" t="s">
         <v>109</v>
       </c>
@@ -18058,7 +18068,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>44927</v>
       </c>
@@ -18082,7 +18092,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>112</v>
@@ -18104,7 +18114,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>533</v>
@@ -18124,7 +18134,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>112</v>
@@ -18146,7 +18156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>44958</v>
       </c>
@@ -18170,7 +18180,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20" t="s">
         <v>55</v>
@@ -18192,7 +18202,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
         <v>568</v>
@@ -18214,7 +18224,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
         <v>588</v>
@@ -18234,7 +18244,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="48"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
         <v>44986</v>
       </c>
@@ -18260,7 +18270,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>54</v>
@@ -18282,7 +18292,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20" t="s">
         <v>594</v>
@@ -18302,7 +18312,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="48"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>45017</v>
       </c>
@@ -18328,7 +18338,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20" t="s">
         <v>55</v>
@@ -18350,7 +18360,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>568</v>
@@ -18372,7 +18382,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>538</v>
@@ -18392,7 +18402,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="48"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>45047</v>
       </c>
@@ -18418,7 +18428,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>568</v>
@@ -18440,7 +18450,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>591</v>
@@ -18460,7 +18470,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="48"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>45078</v>
       </c>
@@ -18486,7 +18496,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>112</v>
@@ -18508,7 +18518,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>170</v>
@@ -18530,7 +18540,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>590</v>
@@ -18550,7 +18560,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <v>45108</v>
       </c>
@@ -18576,7 +18586,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>240</v>
@@ -18598,7 +18608,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20" t="s">
         <v>566</v>
@@ -18620,7 +18630,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
         <v>136</v>
@@ -18642,7 +18652,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
         <v>589</v>
@@ -18662,7 +18672,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="48"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <v>45139</v>
       </c>
@@ -18688,7 +18698,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20" t="s">
         <v>588</v>
@@ -18708,7 +18718,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <v>45170</v>
       </c>
@@ -18734,7 +18744,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20" t="s">
         <v>136</v>
@@ -18756,7 +18766,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20" t="s">
         <v>112</v>
@@ -18778,7 +18788,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20" t="s">
         <v>587</v>
@@ -18798,7 +18808,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="48"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <v>45200</v>
       </c>
@@ -18824,7 +18834,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
         <v>586</v>
@@ -18844,7 +18854,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="48"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <v>45231</v>
       </c>
@@ -18870,7 +18880,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20" t="s">
         <v>568</v>
@@ -18892,7 +18902,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
         <v>286</v>
@@ -18912,7 +18922,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="48"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>45261</v>
       </c>
@@ -18936,7 +18946,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="49" t="s">
         <v>582</v>
       </c>
@@ -18954,20 +18964,22 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <v>45322</v>
       </c>
       <c r="B715" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C715" s="13"/>
+      <c r="C715" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
-      <c r="G715" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G715" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H715" s="39">
         <v>1</v>
@@ -18978,7 +18990,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20" t="s">
         <v>141</v>
@@ -18998,11 +19010,13 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
         <v>45323</v>
       </c>
-      <c r="B717" s="20"/>
+      <c r="B717" s="20" t="s">
+        <v>595</v>
+      </c>
       <c r="C717" s="13"/>
       <c r="D717" s="39"/>
       <c r="E717" s="9"/>
@@ -19011,16 +19025,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H717" s="39"/>
+      <c r="H717" s="39">
+        <v>7</v>
+      </c>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
-      <c r="K717" s="20"/>
-    </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B718" s="20"/>
+      <c r="K717" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A718" s="40"/>
+      <c r="B718" s="20" t="s">
+        <v>381</v>
+      </c>
       <c r="C718" s="13"/>
       <c r="D718" s="39"/>
       <c r="E718" s="9"/>
@@ -19032,11 +19050,13 @@
       <c r="H718" s="39"/>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="20"/>
-    </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K718" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19052,9 +19072,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19070,9 +19090,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19088,9 +19108,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19106,9 +19126,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19124,9 +19144,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19142,9 +19162,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19160,9 +19180,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19178,9 +19198,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19196,9 +19216,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19214,9 +19234,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19232,9 +19252,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19250,9 +19270,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19268,9 +19288,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19286,9 +19306,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19304,9 +19324,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19322,8 +19342,10 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" s="40"/>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A735" s="40">
+        <v>45839</v>
+      </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
       <c r="D735" s="39"/>
@@ -19338,7 +19360,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19354,7 +19376,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19370,7 +19392,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19386,7 +19408,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19402,21 +19424,37 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" s="41"/>
-      <c r="B740" s="15"/>
-      <c r="C740" s="42"/>
-      <c r="D740" s="43"/>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A740" s="40"/>
+      <c r="B740" s="20"/>
+      <c r="C740" s="13"/>
+      <c r="D740" s="39"/>
       <c r="E740" s="9"/>
-      <c r="F740" s="15"/>
+      <c r="F740" s="20"/>
       <c r="G740" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H740" s="43"/>
+      <c r="H740" s="39"/>
       <c r="I740" s="9"/>
-      <c r="J740" s="12"/>
-      <c r="K740" s="15"/>
+      <c r="J740" s="11"/>
+      <c r="K740" s="20"/>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A741" s="41"/>
+      <c r="B741" s="15"/>
+      <c r="C741" s="42"/>
+      <c r="D741" s="43"/>
+      <c r="E741" s="9"/>
+      <c r="F741" s="15"/>
+      <c r="G741" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H741" s="43"/>
+      <c r="I741" s="9"/>
+      <c r="J741" s="12"/>
+      <c r="K741" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19434,10 +19472,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19460,28 +19498,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -19494,7 +19532,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19523,7 +19561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -19549,17 +19587,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19580,7 +19618,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19607,7 +19645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19633,7 +19671,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19659,7 +19697,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19685,7 +19723,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19711,7 +19749,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19737,7 +19775,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19763,7 +19801,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19789,7 +19827,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19809,7 +19847,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19829,7 +19867,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19849,7 +19887,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19870,7 +19908,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19891,7 +19929,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19912,7 +19950,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19933,7 +19971,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19954,7 +19992,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19975,7 +20013,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19996,7 +20034,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20017,7 +20055,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20038,7 +20076,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20059,7 +20097,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20080,7 +20118,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20101,7 +20139,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20122,7 +20160,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20143,7 +20181,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20164,7 +20202,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20185,7 +20223,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20206,7 +20244,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20227,7 +20265,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20248,7 +20286,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20269,7 +20307,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20278,7 +20316,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20287,7 +20325,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20296,7 +20334,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20305,7 +20343,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20314,7 +20352,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20323,7 +20361,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20332,7 +20370,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20341,7 +20379,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20350,7 +20388,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20359,7 +20397,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20368,7 +20406,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20377,7 +20415,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20386,7 +20424,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20395,7 +20433,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20404,7 +20442,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20413,7 +20451,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20422,7 +20460,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20431,7 +20469,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20440,7 +20478,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20449,7 +20487,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20458,7 +20496,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20467,7 +20505,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20476,7 +20514,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20485,7 +20523,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20494,7 +20532,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20503,7 +20541,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20512,7 +20550,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20521,7 +20559,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20530,7 +20568,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD03B5-44D6-49A7-9210-4180985B0E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1843,7 +1842,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2527,7 +2526,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2544,26 +2543,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K741" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K741" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K742" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K742"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2870,34 +2869,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K741"/>
+  <dimension ref="A2:K742"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A704" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4245" topLeftCell="A707" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B719" sqref="B719"/>
+      <selection pane="bottomLeft" activeCell="C719" sqref="C719"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2963,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2972,7 +2971,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2985,7 +2984,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3002,7 +3001,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3061,7 +3060,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>530</v>
       </c>
@@ -3076,7 +3075,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36601</v>
       </c>
@@ -3100,7 +3099,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>544</v>
@@ -3118,7 +3117,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36617</v>
       </c>
@@ -3142,7 +3141,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>381</v>
@@ -3160,7 +3159,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3184,7 +3183,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3208,7 +3207,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3232,7 +3231,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3256,7 +3255,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>136</v>
@@ -3278,7 +3277,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>136</v>
@@ -3300,7 +3299,7 @@
         <v>36759</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36770</v>
       </c>
@@ -3324,7 +3323,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36800</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>136</v>
@@ -3372,7 +3371,7 @@
         <v>36805</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>296</v>
@@ -3394,7 +3393,7 @@
         <v>36808</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>415</v>
@@ -3416,7 +3415,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>136</v>
@@ -3438,7 +3437,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36831</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>538</v>
@@ -3482,7 +3481,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36861</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>112</v>
@@ -3530,7 +3529,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>541</v>
@@ -3550,7 +3549,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>119</v>
       </c>
@@ -3568,7 +3567,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36892</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>141</v>
@@ -3614,7 +3613,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>137</v>
@@ -3634,7 +3633,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36923</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>225</v>
@@ -3680,7 +3679,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36951</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>253</v>
@@ -3726,7 +3725,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36982</v>
       </c>
@@ -3750,7 +3749,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>141</v>
@@ -3770,7 +3769,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>141</v>
@@ -3790,7 +3789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37012</v>
       </c>
@@ -3814,7 +3813,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>142</v>
@@ -3836,7 +3835,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
@@ -3858,7 +3857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37043</v>
       </c>
@@ -3882,7 +3881,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>147</v>
@@ -3904,7 +3903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37073</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>136</v>
@@ -3952,7 +3951,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>149</v>
@@ -3974,7 +3973,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>37112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>136</v>
@@ -4022,7 +4021,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>151</v>
@@ -4042,7 +4041,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37135</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>153</v>
@@ -4088,7 +4087,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37165</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>156</v>
@@ -4138,7 +4137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>159</v>
@@ -4160,7 +4159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>158</v>
@@ -4180,7 +4179,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37196</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>159</v>
@@ -4228,7 +4227,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>230</v>
@@ -4248,7 +4247,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>161</v>
@@ -4268,7 +4267,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37226</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>164</v>
@@ -4314,7 +4313,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>135</v>
       </c>
@@ -4334,7 +4333,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37257</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>165</v>
@@ -4380,7 +4379,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>136</v>
@@ -4428,7 +4427,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>170</v>
@@ -4450,7 +4449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37316</v>
       </c>
@@ -4474,7 +4473,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>168</v>
@@ -4496,7 +4495,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>169</v>
@@ -4516,7 +4515,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37347</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>170</v>
@@ -4564,7 +4563,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>212</v>
@@ -4584,7 +4583,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37377</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>159</v>
@@ -4634,7 +4633,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>156</v>
@@ -4656,7 +4655,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>159</v>
@@ -4678,7 +4677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>171</v>
@@ -4698,7 +4697,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>159</v>
@@ -4746,7 +4745,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>172</v>
@@ -4764,7 +4763,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37438</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>185</v>
@@ -4814,7 +4813,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>240</v>
@@ -4836,7 +4835,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>303</v>
@@ -4856,7 +4855,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37469</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37500</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>37508</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>185</v>
@@ -4932,7 +4931,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37530</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>168</v>
@@ -4982,7 +4981,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37561</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>159</v>
@@ -5032,7 +5031,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>159</v>
@@ -5054,7 +5053,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>185</v>
@@ -5074,7 +5073,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>189</v>
@@ -5094,7 +5093,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
         <v>134</v>
       </c>
@@ -5138,7 +5137,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37622</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>136</v>
@@ -5182,7 +5181,7 @@
         <v>37631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>159</v>
@@ -5206,7 +5205,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>141</v>
@@ -5226,7 +5225,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>192</v>
@@ -5248,7 +5247,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37653</v>
       </c>
@@ -5274,7 +5273,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37681</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>196</v>
@@ -5322,7 +5321,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37712</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>230</v>
@@ -5372,7 +5371,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5390,7 +5389,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37742</v>
       </c>
@@ -5414,7 +5413,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37773</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>37747</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>185</v>
@@ -5464,7 +5463,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37803</v>
       </c>
@@ -5490,7 +5489,7 @@
         <v>37871</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>240</v>
@@ -5512,7 +5511,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>201</v>
@@ -5532,7 +5531,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37834</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>159</v>
@@ -5580,7 +5579,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>159</v>
@@ -5602,7 +5601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37865</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>37964</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>136</v>
@@ -5650,7 +5649,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>205</v>
@@ -5672,7 +5671,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37895</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>185</v>
@@ -5722,7 +5721,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>159</v>
@@ -5744,7 +5743,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>209</v>
@@ -5766,7 +5765,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37926</v>
       </c>
@@ -5790,7 +5789,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37956</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>214</v>
@@ -5834,7 +5833,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
         <v>133</v>
       </c>
@@ -5852,7 +5851,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37987</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>215</v>
@@ -5898,7 +5897,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38018</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>37291</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>141</v>
@@ -5944,7 +5943,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>217</v>
@@ -5964,7 +5963,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38047</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>159</v>
@@ -6012,7 +6011,7 @@
         <v>38062</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>159</v>
@@ -6034,7 +6033,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>219</v>
@@ -6054,7 +6053,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38078</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>159</v>
@@ -6104,7 +6103,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>159</v>
@@ -6126,7 +6125,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>218</v>
@@ -6146,7 +6145,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38108</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>136</v>
@@ -6196,7 +6195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>159</v>
@@ -6220,7 +6219,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>224</v>
@@ -6240,7 +6239,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -6260,7 +6259,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>159</v>
@@ -6310,7 +6309,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>225</v>
@@ -6330,7 +6329,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>185</v>
@@ -6380,7 +6379,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>159</v>
@@ -6402,7 +6401,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>140</v>
@@ -6422,7 +6421,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38231</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>230</v>
@@ -6470,7 +6469,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>232</v>
@@ -6490,7 +6489,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38261</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>159</v>
@@ -6540,7 +6539,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>234</v>
@@ -6560,7 +6559,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38292</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>159</v>
@@ -6610,7 +6609,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>159</v>
@@ -6632,7 +6631,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>236</v>
@@ -6652,7 +6651,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38322</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>238</v>
@@ -6698,7 +6697,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="49" t="s">
         <v>132</v>
       </c>
@@ -6716,7 +6715,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38353</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>136</v>
@@ -6760,7 +6759,7 @@
         <v>38365</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>230</v>
@@ -6784,7 +6783,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>141</v>
@@ -6804,7 +6803,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>141</v>
@@ -6824,7 +6823,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38384</v>
       </c>
@@ -6844,7 +6843,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38412</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>38428</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>136</v>
@@ -6892,7 +6891,7 @@
         <v>38438</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38443</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38473</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>136</v>
@@ -6966,7 +6965,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>230</v>
@@ -6988,7 +6987,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38504</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>159</v>
@@ -7038,7 +7037,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38534</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38565</v>
       </c>
@@ -7086,7 +7085,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38596</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>136</v>
@@ -7134,7 +7133,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38626</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38657</v>
       </c>
@@ -7180,7 +7179,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>136</v>
@@ -7228,7 +7227,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>248</v>
@@ -7248,7 +7247,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="49" t="s">
         <v>131</v>
       </c>
@@ -7270,7 +7269,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>112</v>
@@ -7316,7 +7315,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>185</v>
@@ -7338,7 +7337,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>159</v>
@@ -7360,7 +7359,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38749</v>
       </c>
@@ -7384,7 +7383,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>136</v>
@@ -7406,7 +7405,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>253</v>
@@ -7426,7 +7425,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38777</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>141</v>
@@ -7472,7 +7471,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>136</v>
@@ -7494,7 +7493,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>230</v>
@@ -7516,7 +7515,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>141</v>
@@ -7536,7 +7535,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38808</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>136</v>
@@ -7586,7 +7585,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>136</v>
@@ -7608,7 +7607,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>263</v>
@@ -7628,7 +7627,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38838</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>264</v>
@@ -7676,7 +7675,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>141</v>
@@ -7696,7 +7695,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38869</v>
       </c>
@@ -7720,7 +7719,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38899</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>267</v>
@@ -7766,7 +7765,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38930</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>270</v>
@@ -7812,7 +7811,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38961</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>554</v>
@@ -7858,7 +7857,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38991</v>
       </c>
@@ -7882,7 +7881,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39022</v>
       </c>
@@ -7908,7 +7907,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>136</v>
@@ -7930,7 +7929,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>272</v>
@@ -7950,7 +7949,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39052</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>276</v>
@@ -7996,7 +7995,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="48"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>130</v>
       </c>
@@ -8018,7 +8017,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39083</v>
       </c>
@@ -8042,7 +8041,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>136</v>
@@ -8064,7 +8063,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>542</v>
@@ -8086,7 +8085,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>112</v>
@@ -8108,7 +8107,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39114</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>136</v>
@@ -8154,7 +8153,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>136</v>
@@ -8174,7 +8173,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>282</v>
@@ -8194,7 +8193,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39142</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>141</v>
@@ -8238,7 +8237,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>141</v>
@@ -8258,7 +8257,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>543</v>
@@ -8278,7 +8277,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39173</v>
       </c>
@@ -8306,7 +8305,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>286</v>
@@ -8326,7 +8325,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>136</v>
@@ -8344,7 +8343,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39203</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>287</v>
@@ -8390,7 +8389,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>230</v>
@@ -8412,7 +8411,7 @@
         <v>39237</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39234</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>136</v>
@@ -8460,7 +8459,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>289</v>
@@ -8480,7 +8479,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39264</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>210</v>
@@ -8530,7 +8529,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39295</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>503</v>
@@ -8576,7 +8575,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="48"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39326</v>
       </c>
@@ -8602,7 +8601,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>156</v>
@@ -8622,7 +8621,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>293</v>
@@ -8642,7 +8641,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>294</v>
@@ -8662,7 +8661,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39356</v>
       </c>
@@ -8688,7 +8687,7 @@
         <v>39092</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>295</v>
@@ -8710,7 +8709,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>136</v>
@@ -8732,7 +8731,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>296</v>
@@ -8752,7 +8751,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>297</v>
@@ -8772,7 +8771,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>267</v>
@@ -8792,7 +8791,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>294</v>
@@ -8812,7 +8811,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39387</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>159</v>
@@ -8860,7 +8859,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>185</v>
@@ -8882,7 +8881,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>302</v>
@@ -8902,7 +8901,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39417</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>556</v>
@@ -8948,7 +8947,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>136</v>
@@ -8968,7 +8967,7 @@
         <v>39808</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>230</v>
@@ -8988,7 +8987,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="49" t="s">
         <v>129</v>
       </c>
@@ -9010,7 +9009,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39448</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>303</v>
@@ -9056,7 +9055,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>136</v>
@@ -9076,7 +9075,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>306</v>
@@ -9096,7 +9095,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="48"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>307</v>
@@ -9116,7 +9115,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39479</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>159</v>
@@ -9162,7 +9161,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>308</v>
@@ -9182,7 +9181,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="48"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>309</v>
@@ -9202,7 +9201,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39508</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>311</v>
@@ -9248,7 +9247,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>312</v>
@@ -9268,7 +9267,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39539</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>314</v>
@@ -9316,7 +9315,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>316</v>
@@ -9336,7 +9335,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>317</v>
@@ -9356,7 +9355,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39569</v>
       </c>
@@ -9380,7 +9379,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>318</v>
@@ -9400,7 +9399,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>319</v>
@@ -9420,7 +9419,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>159</v>
@@ -9470,7 +9469,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>320</v>
@@ -9490,7 +9489,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="48"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>319</v>
@@ -9510,7 +9509,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="48"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>39630</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>185</v>
@@ -9560,7 +9559,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>171</v>
@@ -9580,7 +9579,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="48"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39661</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>319</v>
@@ -9628,7 +9627,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>323</v>
@@ -9650,7 +9649,7 @@
         <v>39516</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39692</v>
       </c>
@@ -9672,7 +9671,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>324</v>
@@ -9696,7 +9695,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>159</v>
@@ -9718,7 +9717,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>326</v>
@@ -9738,7 +9737,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="48"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>317</v>
@@ -9758,7 +9757,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="48"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39722</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>159</v>
@@ -9808,7 +9807,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>164</v>
@@ -9828,7 +9827,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>319</v>
@@ -9848,7 +9847,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39753</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>159</v>
@@ -9898,7 +9897,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>317</v>
@@ -9918,7 +9917,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="48"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>328</v>
@@ -9938,7 +9937,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -9962,7 +9961,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>330</v>
@@ -9982,7 +9981,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
         <v>128</v>
       </c>
@@ -10004,7 +10003,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>141</v>
@@ -10050,7 +10049,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>159</v>
@@ -10072,7 +10071,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>141</v>
@@ -10092,7 +10091,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>335</v>
@@ -10112,7 +10111,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39845</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>337</v>
@@ -10156,7 +10155,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>39873</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>39847</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>136</v>
@@ -10204,7 +10203,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>339</v>
@@ -10224,7 +10223,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="48"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>39904</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>159</v>
@@ -10274,7 +10273,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>342</v>
@@ -10294,7 +10293,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>39934</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>343</v>
@@ -10340,7 +10339,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="48"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>136</v>
@@ -10362,7 +10361,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39965</v>
       </c>
@@ -10390,7 +10389,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>210</v>
@@ -10414,7 +10413,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>346</v>
@@ -10434,7 +10433,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="48"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39995</v>
       </c>
@@ -10458,7 +10457,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40026</v>
       </c>
@@ -10482,7 +10481,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>40057</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>136</v>
@@ -10530,7 +10529,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>351</v>
@@ -10550,7 +10549,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40087</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>352</v>
@@ -10596,7 +10595,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40118</v>
       </c>
@@ -10620,7 +10619,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40148</v>
       </c>
@@ -10644,7 +10643,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="49" t="s">
         <v>127</v>
       </c>
@@ -10666,7 +10665,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40179</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -10710,7 +10709,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>189</v>
@@ -10730,7 +10729,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40210</v>
       </c>
@@ -10754,7 +10753,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>136</v>
@@ -10776,7 +10775,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>330</v>
@@ -10796,7 +10795,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40238</v>
       </c>
@@ -10820,7 +10819,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40269</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>363</v>
@@ -10866,7 +10865,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40299</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>364</v>
@@ -10912,7 +10911,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="48"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40330</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>365</v>
@@ -10958,7 +10957,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40360</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>367</v>
@@ -11006,7 +11005,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>369</v>
@@ -11026,7 +11025,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40391</v>
       </c>
@@ -11050,7 +11049,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40422</v>
       </c>
@@ -11074,7 +11073,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>40452</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>112</v>
@@ -11122,7 +11121,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>376</v>
@@ -11142,7 +11141,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40483</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>375</v>
@@ -11188,7 +11187,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40513</v>
       </c>
@@ -11212,7 +11211,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="49" t="s">
         <v>126</v>
       </c>
@@ -11234,7 +11233,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40544</v>
       </c>
@@ -11258,7 +11257,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>112</v>
@@ -11280,7 +11279,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>379</v>
@@ -11302,7 +11301,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40575</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>194</v>
@@ -11350,7 +11349,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>159</v>
@@ -11372,7 +11371,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>385</v>
@@ -11392,7 +11391,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40603</v>
       </c>
@@ -11418,7 +11417,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>386</v>
@@ -11442,7 +11441,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>40634</v>
       </c>
@@ -11462,7 +11461,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>40664</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40695</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>40725</v>
       </c>
@@ -11534,7 +11533,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40756</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40787</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>393</v>
@@ -11604,7 +11603,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>394</v>
@@ -11624,7 +11623,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40817</v>
       </c>
@@ -11648,7 +11647,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40848</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>136</v>
@@ -11696,7 +11695,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>136</v>
@@ -11718,7 +11717,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40878</v>
       </c>
@@ -11742,7 +11741,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>390</v>
@@ -11762,7 +11761,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>390</v>
@@ -11782,7 +11781,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>136</v>
@@ -11804,7 +11803,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>398</v>
@@ -11824,7 +11823,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="48"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="49" t="s">
         <v>125</v>
       </c>
@@ -11846,7 +11845,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40909</v>
       </c>
@@ -11870,7 +11869,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>399</v>
@@ -11890,7 +11889,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>141</v>
@@ -11910,7 +11909,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>136</v>
@@ -11932,7 +11931,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>400</v>
@@ -11952,7 +11951,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>136</v>
@@ -11998,7 +11997,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>390</v>
@@ -12018,7 +12017,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>405</v>
@@ -12038,7 +12037,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40969</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>390</v>
@@ -12084,7 +12083,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>136</v>
@@ -12106,7 +12105,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>408</v>
@@ -12126,7 +12125,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="48"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41000</v>
       </c>
@@ -12150,7 +12149,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41030</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>411</v>
@@ -12196,7 +12195,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>390</v>
@@ -12216,7 +12215,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>414</v>
@@ -12236,7 +12235,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41061</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>416</v>
@@ -12282,7 +12281,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41091</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>419</v>
@@ -12328,7 +12327,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="48"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41122</v>
       </c>
@@ -12354,7 +12353,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>112</v>
@@ -12376,7 +12375,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>419</v>
@@ -12396,7 +12395,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="48"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41153</v>
       </c>
@@ -12422,7 +12421,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>136</v>
@@ -12442,7 +12441,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>422</v>
@@ -12462,7 +12461,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41183</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>421</v>
@@ -12508,7 +12507,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41214</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>425</v>
@@ -12554,7 +12553,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41244</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>428</v>
@@ -12600,7 +12599,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="49" t="s">
         <v>124</v>
       </c>
@@ -12622,7 +12621,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41275</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>141</v>
@@ -12666,7 +12665,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>429</v>
@@ -12686,7 +12685,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41306</v>
       </c>
@@ -12710,7 +12709,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41334</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41365</v>
       </c>
@@ -12760,7 +12759,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>432</v>
@@ -12782,7 +12781,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41395</v>
       </c>
@@ -12804,7 +12803,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41426</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>436</v>
@@ -12848,7 +12847,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41456</v>
       </c>
@@ -12872,7 +12871,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>170</v>
@@ -12894,7 +12893,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>170</v>
@@ -12916,7 +12915,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>112</v>
@@ -12938,7 +12937,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>112</v>
@@ -12960,7 +12959,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41487</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>441</v>
@@ -13006,7 +13005,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>41518</v>
       </c>
@@ -13030,7 +13029,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>443</v>
@@ -13050,7 +13049,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41548</v>
       </c>
@@ -13074,7 +13073,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>41579</v>
       </c>
@@ -13094,7 +13093,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41609</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="49" t="s">
         <v>123</v>
       </c>
@@ -13142,7 +13141,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41640</v>
       </c>
@@ -13166,7 +13165,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41671</v>
       </c>
@@ -13190,7 +13189,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>141</v>
@@ -13210,7 +13209,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>445</v>
@@ -13230,7 +13229,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41699</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>170</v>
@@ -13278,7 +13277,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>447</v>
@@ -13300,7 +13299,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41730</v>
       </c>
@@ -13324,7 +13323,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>112</v>
@@ -13346,7 +13345,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>450</v>
@@ -13366,7 +13365,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>415</v>
@@ -13388,7 +13387,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>41760</v>
       </c>
@@ -13414,7 +13413,7 @@
         <v>41795</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>112</v>
@@ -13436,7 +13435,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>189</v>
@@ -13456,7 +13455,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -13482,7 +13481,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>136</v>
@@ -13504,7 +13503,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>136</v>
@@ -13526,7 +13525,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>456</v>
@@ -13546,7 +13545,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>41821</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>458</v>
@@ -13594,7 +13593,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>460</v>
@@ -13614,7 +13613,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41852</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>462</v>
@@ -13660,7 +13659,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>41883</v>
       </c>
@@ -13686,7 +13685,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>464</v>
@@ -13706,7 +13705,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>41913</v>
       </c>
@@ -13730,7 +13729,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>41944</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>136</v>
@@ -13778,7 +13777,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>41974</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>465</v>
@@ -13824,7 +13823,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="48"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="49" t="s">
         <v>122</v>
       </c>
@@ -13846,7 +13845,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>42005</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>141</v>
@@ -13890,7 +13889,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>136</v>
@@ -13910,7 +13909,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>466</v>
@@ -13930,7 +13929,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42036</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>136</v>
@@ -13978,7 +13977,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>468</v>
@@ -13998,7 +13997,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="48"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -14024,7 +14023,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>230</v>
@@ -14046,7 +14045,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>136</v>
@@ -14068,7 +14067,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>471</v>
@@ -14088,7 +14087,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42095</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>141</v>
@@ -14134,7 +14133,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>159</v>
@@ -14156,7 +14155,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>159</v>
@@ -14178,7 +14177,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>476</v>
@@ -14198,7 +14197,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42125</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>478</v>
@@ -14244,7 +14243,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42156</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>480</v>
@@ -14290,7 +14289,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>42186</v>
       </c>
@@ -14314,7 +14313,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>136</v>
@@ -14336,7 +14335,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>42217</v>
       </c>
@@ -14362,7 +14361,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>482</v>
@@ -14382,7 +14381,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>136</v>
@@ -14404,7 +14403,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>364</v>
@@ -14424,7 +14423,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42248</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>485</v>
@@ -14470,7 +14469,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42278</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>488</v>
@@ -14516,7 +14515,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42309</v>
       </c>
@@ -14542,7 +14541,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>490</v>
@@ -14562,7 +14561,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42339</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>492</v>
@@ -14608,7 +14607,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="49" t="s">
         <v>121</v>
       </c>
@@ -14630,7 +14629,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>42370</v>
       </c>
@@ -14654,7 +14653,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>136</v>
@@ -14676,7 +14675,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>494</v>
@@ -14696,7 +14695,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="48"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>42401</v>
       </c>
@@ -14720,7 +14719,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>136</v>
@@ -14742,7 +14741,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>496</v>
@@ -14762,7 +14761,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>42430</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>141</v>
@@ -14808,7 +14807,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>498</v>
@@ -14828,7 +14827,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="48"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42461</v>
       </c>
@@ -14854,7 +14853,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>500</v>
@@ -14874,7 +14873,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42491</v>
       </c>
@@ -14900,7 +14899,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>140</v>
@@ -14920,7 +14919,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42522</v>
       </c>
@@ -14946,7 +14945,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>302</v>
@@ -14966,7 +14965,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42552</v>
       </c>
@@ -14990,7 +14989,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>42583</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>505</v>
@@ -15036,7 +15035,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>42614</v>
       </c>
@@ -15062,7 +15061,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>136</v>
@@ -15084,7 +15083,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>507</v>
@@ -15104,7 +15103,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="50"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>42644</v>
       </c>
@@ -15130,7 +15129,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>509</v>
@@ -15150,7 +15149,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42675</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>510</v>
@@ -15196,7 +15195,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>42705</v>
       </c>
@@ -15220,7 +15219,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="49" t="s">
         <v>120</v>
       </c>
@@ -15242,7 +15241,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>42736</v>
       </c>
@@ -15266,7 +15265,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>511</v>
@@ -15286,7 +15285,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -15312,7 +15311,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>513</v>
@@ -15332,7 +15331,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="48"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -15356,7 +15355,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>136</v>
@@ -15378,7 +15377,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>42826</v>
       </c>
@@ -15402,7 +15401,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>515</v>
@@ -15422,7 +15421,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="48"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>42856</v>
       </c>
@@ -15448,7 +15447,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>136</v>
@@ -15470,7 +15469,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>517</v>
@@ -15490,7 +15489,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="48"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42887</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>112</v>
@@ -15538,7 +15537,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>429</v>
@@ -15558,7 +15557,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>42917</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>136</v>
@@ -15606,7 +15605,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>476</v>
@@ -15626,7 +15625,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -15652,7 +15651,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>136</v>
@@ -15674,7 +15673,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>524</v>
@@ -15694,7 +15693,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>42979</v>
       </c>
@@ -15720,7 +15719,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>526</v>
@@ -15740,7 +15739,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -15766,7 +15765,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>112</v>
@@ -15788,7 +15787,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>185</v>
@@ -15812,7 +15811,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>529</v>
@@ -15832,7 +15831,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -15852,7 +15851,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43070</v>
       </c>
@@ -15876,7 +15875,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23" t="s">
         <v>45</v>
       </c>
@@ -15894,7 +15893,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43101</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43132</v>
       </c>
@@ -15940,7 +15939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -15962,7 +15961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>46</v>
@@ -15984,7 +15983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
         <v>43160</v>
       </c>
@@ -16004,7 +16003,7 @@
       <c r="J583" s="12"/>
       <c r="K583" s="15"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>43191</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>52</v>
@@ -16052,7 +16051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43221</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -16100,7 +16099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>43252</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>55</v>
@@ -16150,7 +16149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>59</v>
@@ -16172,7 +16171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>43282</v>
       </c>
@@ -16192,7 +16191,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>43313</v>
       </c>
@@ -16216,7 +16215,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43344</v>
       </c>
@@ -16242,7 +16241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43374</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>43405</v>
       </c>
@@ -16294,7 +16293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43435</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="49" t="s">
         <v>67</v>
       </c>
@@ -16338,7 +16337,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>43466</v>
       </c>
@@ -16362,7 +16361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>68</v>
@@ -16384,7 +16383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43497</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43525</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>52</v>
@@ -16454,7 +16453,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>43556</v>
       </c>
@@ -16478,7 +16477,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>75</v>
@@ -16504,7 +16503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43586</v>
       </c>
@@ -16524,7 +16523,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43617</v>
       </c>
@@ -16548,7 +16547,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>52</v>
@@ -16570,7 +16569,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>78</v>
@@ -16594,7 +16593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43647</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -16642,7 +16641,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43678</v>
       </c>
@@ -16666,7 +16665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>80</v>
@@ -16690,7 +16689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>43709</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43739</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>43770</v>
       </c>
@@ -16770,7 +16769,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43800</v>
       </c>
@@ -16794,7 +16793,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="49" t="s">
         <v>86</v>
       </c>
@@ -16812,7 +16811,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43831</v>
       </c>
@@ -16836,7 +16835,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>87</v>
@@ -16858,7 +16857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>88</v>
@@ -16880,7 +16879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43862</v>
       </c>
@@ -16900,7 +16899,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43891</v>
       </c>
@@ -16920,7 +16919,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>43922</v>
       </c>
@@ -16940,7 +16939,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>43952</v>
       </c>
@@ -16960,7 +16959,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43983</v>
       </c>
@@ -16980,7 +16979,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44013</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>91</v>
@@ -17028,7 +17027,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44044</v>
       </c>
@@ -17048,7 +17047,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44075</v>
       </c>
@@ -17068,7 +17067,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44105</v>
       </c>
@@ -17088,7 +17087,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44136</v>
       </c>
@@ -17108,7 +17107,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>44166</v>
       </c>
@@ -17132,7 +17131,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="49" t="s">
         <v>93</v>
       </c>
@@ -17150,7 +17149,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44197</v>
       </c>
@@ -17170,7 +17169,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44228</v>
       </c>
@@ -17196,7 +17195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>44256</v>
       </c>
@@ -17216,7 +17215,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>44287</v>
       </c>
@@ -17236,7 +17235,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44317</v>
       </c>
@@ -17256,7 +17255,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>44348</v>
       </c>
@@ -17276,7 +17275,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>44378</v>
       </c>
@@ -17300,7 +17299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>55</v>
@@ -17322,7 +17321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>48</v>
@@ -17346,7 +17345,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>44409</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44440</v>
       </c>
@@ -17392,7 +17391,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44470</v>
       </c>
@@ -17418,7 +17417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44501</v>
       </c>
@@ -17444,7 +17443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44531</v>
       </c>
@@ -17470,7 +17469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="49" t="s">
         <v>572</v>
       </c>
@@ -17488,7 +17487,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>44562</v>
       </c>
@@ -17512,7 +17511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44593</v>
       </c>
@@ -17532,7 +17531,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44621</v>
       </c>
@@ -17556,7 +17555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
         <v>538</v>
@@ -17576,7 +17575,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44652</v>
       </c>
@@ -17600,7 +17599,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44682</v>
       </c>
@@ -17626,7 +17625,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>578</v>
@@ -17646,7 +17645,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44713</v>
       </c>
@@ -17672,7 +17671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>576</v>
@@ -17692,7 +17691,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44743</v>
       </c>
@@ -17712,7 +17711,7 @@
       <c r="J658" s="39"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>240</v>
@@ -17734,7 +17733,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>575</v>
@@ -17754,7 +17753,7 @@
       <c r="J660" s="39"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>44774</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>573</v>
@@ -17800,7 +17799,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>44805</v>
       </c>
@@ -17826,7 +17825,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20" t="s">
         <v>54</v>
@@ -17848,7 +17847,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
         <v>568</v>
@@ -17870,7 +17869,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>476</v>
@@ -17890,7 +17889,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="48"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>44835</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>136</v>
@@ -17938,7 +17937,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>570</v>
@@ -17958,7 +17957,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="48"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>44866</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
         <v>569</v>
@@ -18004,7 +18003,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="48"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44896</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>567</v>
@@ -18050,7 +18049,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="49" t="s">
         <v>109</v>
       </c>
@@ -18068,7 +18067,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44927</v>
       </c>
@@ -18092,7 +18091,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>112</v>
@@ -18114,7 +18113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>533</v>
@@ -18134,7 +18133,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>112</v>
@@ -18156,7 +18155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>44958</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20" t="s">
         <v>55</v>
@@ -18202,7 +18201,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
         <v>568</v>
@@ -18224,7 +18223,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
         <v>588</v>
@@ -18244,7 +18243,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="48"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>44986</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>54</v>
@@ -18292,7 +18291,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20" t="s">
         <v>594</v>
@@ -18312,7 +18311,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="48"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>45017</v>
       </c>
@@ -18338,7 +18337,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20" t="s">
         <v>55</v>
@@ -18360,7 +18359,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>568</v>
@@ -18382,7 +18381,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>538</v>
@@ -18402,7 +18401,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="48"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>45047</v>
       </c>
@@ -18428,7 +18427,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
         <v>568</v>
@@ -18450,7 +18449,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>591</v>
@@ -18470,7 +18469,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="48"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>45078</v>
       </c>
@@ -18496,7 +18495,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>112</v>
@@ -18518,7 +18517,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>170</v>
@@ -18540,7 +18539,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>590</v>
@@ -18560,7 +18559,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>45108</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>240</v>
@@ -18608,7 +18607,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20" t="s">
         <v>566</v>
@@ -18630,7 +18629,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
         <v>136</v>
@@ -18652,7 +18651,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
         <v>589</v>
@@ -18672,7 +18671,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="48"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>45139</v>
       </c>
@@ -18698,7 +18697,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20" t="s">
         <v>588</v>
@@ -18718,7 +18717,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>45170</v>
       </c>
@@ -18744,7 +18743,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20" t="s">
         <v>136</v>
@@ -18766,7 +18765,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20" t="s">
         <v>112</v>
@@ -18788,7 +18787,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20" t="s">
         <v>587</v>
@@ -18808,7 +18807,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="48"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>45200</v>
       </c>
@@ -18834,7 +18833,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
         <v>586</v>
@@ -18854,7 +18853,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="48"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>45231</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20" t="s">
         <v>568</v>
@@ -18902,7 +18901,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
         <v>286</v>
@@ -18922,7 +18921,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="48"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>45261</v>
       </c>
@@ -18946,7 +18945,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="49" t="s">
         <v>582</v>
       </c>
@@ -18964,7 +18963,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>45322</v>
       </c>
@@ -18990,7 +18989,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20" t="s">
         <v>141</v>
@@ -19010,7 +19009,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>45323</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20" t="s">
         <v>381</v>
@@ -19054,10 +19053,8 @@
         <v>597</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A719" s="40">
-        <v>45352</v>
-      </c>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
@@ -19072,9 +19069,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19090,9 +19087,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19108,9 +19105,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19126,9 +19123,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19144,9 +19141,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19162,9 +19159,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19180,9 +19177,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19198,9 +19195,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19216,9 +19213,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19234,9 +19231,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19252,9 +19249,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19270,9 +19267,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19288,9 +19285,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19306,9 +19303,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19324,9 +19321,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19342,9 +19339,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19360,8 +19357,10 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A736" s="40"/>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="40">
+        <v>45839</v>
+      </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
       <c r="D736" s="39"/>
@@ -19376,7 +19375,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19392,7 +19391,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19408,7 +19407,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19424,7 +19423,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19440,21 +19439,37 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A741" s="41"/>
-      <c r="B741" s="15"/>
-      <c r="C741" s="42"/>
-      <c r="D741" s="43"/>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" s="40"/>
+      <c r="B741" s="20"/>
+      <c r="C741" s="13"/>
+      <c r="D741" s="39"/>
       <c r="E741" s="9"/>
-      <c r="F741" s="15"/>
+      <c r="F741" s="20"/>
       <c r="G741" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H741" s="43"/>
+      <c r="H741" s="39"/>
       <c r="I741" s="9"/>
-      <c r="J741" s="12"/>
-      <c r="K741" s="15"/>
+      <c r="J741" s="11"/>
+      <c r="K741" s="20"/>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" s="41"/>
+      <c r="B742" s="15"/>
+      <c r="C742" s="42"/>
+      <c r="D742" s="43"/>
+      <c r="E742" s="9"/>
+      <c r="F742" s="15"/>
+      <c r="G742" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H742" s="43"/>
+      <c r="I742" s="9"/>
+      <c r="J742" s="12"/>
+      <c r="K742" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19472,10 +19487,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19498,28 +19513,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -19532,7 +19547,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19561,7 +19576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -19587,17 +19602,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19618,7 +19633,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19645,7 +19660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19671,7 +19686,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19697,7 +19712,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19723,7 +19738,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19749,7 +19764,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19775,7 +19790,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19801,7 +19816,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19827,7 +19842,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19847,7 +19862,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19867,7 +19882,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19887,7 +19902,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19908,7 +19923,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19929,7 +19944,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19950,7 +19965,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19971,7 +19986,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19992,7 +20007,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20013,7 +20028,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20034,7 +20049,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20055,7 +20070,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20076,7 +20091,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20097,7 +20112,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20118,7 +20133,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20139,7 +20154,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20160,7 +20175,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20181,7 +20196,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20202,7 +20217,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20223,7 +20238,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20244,7 +20259,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20265,7 +20280,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20286,7 +20301,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20307,7 +20322,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20316,7 +20331,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20325,7 +20340,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20334,7 +20349,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20343,7 +20358,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20352,7 +20367,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20361,7 +20376,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20370,7 +20385,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20379,7 +20394,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20388,7 +20403,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20397,7 +20412,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20406,7 +20421,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20415,7 +20430,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20424,7 +20439,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20433,7 +20448,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20442,7 +20457,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20451,7 +20466,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20460,7 +20475,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20469,7 +20484,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20478,7 +20493,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20487,7 +20502,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20496,7 +20511,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20505,7 +20520,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20514,7 +20529,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20523,7 +20538,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20532,7 +20547,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20541,7 +20556,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20550,7 +20565,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20559,7 +20574,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20568,7 +20583,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="600">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1749,9 +1749,6 @@
     <t>UT(0-2-28)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-1-10)</t>
   </si>
   <si>
@@ -1837,6 +1834,15 @@
   </si>
   <si>
     <t>1/11-12/2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>01/30,31/2024, 02/01,02/2024</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1855,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1890,6 +1896,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2079,7 +2092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2265,6 +2278,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2543,8 +2559,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K742" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K742"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K736" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K736"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2873,12 +2889,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K742"/>
+  <dimension ref="A2:K736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4245" topLeftCell="A707" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C719" sqref="C719"/>
+      <pane ySplit="4245" topLeftCell="A701" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I717" sqref="H717:I717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,7 +3061,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-0.49199999999984811</v>
+        <v>0.50800000000015189</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16528,7 +16544,7 @@
         <v>43617</v>
       </c>
       <c r="B606" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="39">
@@ -17280,7 +17296,7 @@
         <v>44378</v>
       </c>
       <c r="B640" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39">
@@ -17350,7 +17366,7 @@
         <v>44409</v>
       </c>
       <c r="B643" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C643" s="13">
         <v>1.25</v>
@@ -17396,7 +17412,7 @@
         <v>44470</v>
       </c>
       <c r="B645" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C645" s="13">
         <v>1.25</v>
@@ -17422,7 +17438,7 @@
         <v>44501</v>
       </c>
       <c r="B646" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C646" s="13">
         <v>1.25</v>
@@ -17448,7 +17464,7 @@
         <v>44531</v>
       </c>
       <c r="B647" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C647" s="13">
         <v>1.25</v>
@@ -17471,7 +17487,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17580,7 +17596,7 @@
         <v>44652</v>
       </c>
       <c r="B653" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C653" s="13">
         <v>1.25</v>
@@ -17604,13 +17620,13 @@
         <v>44682</v>
       </c>
       <c r="B654" s="20" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C654" s="13">
         <v>1.25</v>
       </c>
       <c r="D654" s="39">
-        <v>1</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
@@ -17621,90 +17637,94 @@
       <c r="H654" s="39"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="48">
-        <v>44691</v>
-      </c>
+      <c r="K654" s="48"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40"/>
+      <c r="A655" s="40">
+        <v>44713</v>
+      </c>
       <c r="B655" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="C655" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C655" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D655" s="39">
-        <v>0.40600000000000003</v>
+        <v>3</v>
       </c>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G655" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="20"/>
+      <c r="K655" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C656" s="13">
-        <v>1.25</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="C656" s="13"/>
       <c r="D656" s="39">
-        <v>3</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="K656" s="20"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="40"/>
+      <c r="A657" s="40">
+        <v>44743</v>
+      </c>
       <c r="B657" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="C657" s="13"/>
+        <v>240</v>
+      </c>
+      <c r="C657" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D657" s="39">
-        <v>0.60799999999999998</v>
+        <v>3</v>
       </c>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G657" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H657" s="39"/>
       <c r="I657" s="9"/>
-      <c r="J657" s="11"/>
-      <c r="K657" s="20"/>
+      <c r="J657" s="39"/>
+      <c r="K657" s="20" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B658" s="20"/>
-      <c r="C658" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D658" s="39"/>
+      <c r="A658" s="40"/>
+      <c r="B658" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="C658" s="13"/>
+      <c r="D658" s="39">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
@@ -17712,35 +17732,39 @@
       <c r="K658" s="20"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="40"/>
+      <c r="A659" s="40">
+        <v>44774</v>
+      </c>
       <c r="B659" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C659" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="C659" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D659" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G659" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
-      <c r="J659" s="39"/>
+      <c r="J659" s="11"/>
       <c r="K659" s="20" t="s">
-        <v>574</v>
+        <v>108</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C660" s="13"/>
       <c r="D660" s="39">
-        <v>0.32500000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
@@ -17750,12 +17774,12 @@
       </c>
       <c r="H660" s="39"/>
       <c r="I660" s="9"/>
-      <c r="J660" s="39"/>
+      <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B661" s="20" t="s">
         <v>107</v>
@@ -17776,17 +17800,17 @@
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
       <c r="K661" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
-        <v>573</v>
+        <v>54</v>
       </c>
       <c r="C662" s="13"/>
       <c r="D662" s="39">
-        <v>0.51900000000000002</v>
+        <v>1</v>
       </c>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
@@ -17797,86 +17821,86 @@
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20"/>
+      <c r="K662" s="48">
+        <v>44832</v>
+      </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C663" s="13">
-        <v>1.25</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C663" s="13"/>
       <c r="D663" s="39">
-        <v>2</v>
+        <v>0.215</v>
       </c>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="K663" s="48"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40"/>
+      <c r="A664" s="40">
+        <v>44835</v>
+      </c>
       <c r="B664" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C664" s="13"/>
-      <c r="D664" s="39">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H664" s="39"/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H664" s="39">
+        <v>1</v>
+      </c>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
       <c r="K664" s="48">
-        <v>44832</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20" t="s">
-        <v>568</v>
+        <v>136</v>
       </c>
       <c r="C665" s="13"/>
-      <c r="D665" s="39">
-        <v>1</v>
-      </c>
+      <c r="D665" s="39"/>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
       <c r="G665" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H665" s="39"/>
+      <c r="H665" s="39">
+        <v>1</v>
+      </c>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
       <c r="K665" s="48">
-        <v>44818</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
-        <v>476</v>
+        <v>569</v>
       </c>
       <c r="C666" s="13"/>
       <c r="D666" s="39">
-        <v>0.215</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
@@ -17891,7 +17915,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B667" s="20" t="s">
         <v>52</v>
@@ -17912,86 +17936,82 @@
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
       <c r="K667" s="48">
-        <v>44845</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
-        <v>136</v>
+        <v>568</v>
       </c>
       <c r="C668" s="13"/>
-      <c r="D668" s="39"/>
+      <c r="D668" s="39">
+        <v>0.14600000000000002</v>
+      </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
       <c r="G668" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H668" s="39">
-        <v>1</v>
-      </c>
+      <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="48">
-        <v>44855</v>
-      </c>
+      <c r="K668" s="48"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="40"/>
+      <c r="A669" s="40">
+        <v>44896</v>
+      </c>
       <c r="B669" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="C669" s="13"/>
-      <c r="D669" s="39">
-        <v>9.6000000000000002E-2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C669" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D669" s="39"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H669" s="39"/>
+      <c r="G669" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H669" s="39">
+        <v>3</v>
+      </c>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="48"/>
+      <c r="K669" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C670" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D670" s="39"/>
+        <v>567</v>
+      </c>
+      <c r="C670" s="13"/>
+      <c r="D670" s="39">
+        <v>0.308</v>
+      </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H670" s="39">
-        <v>1</v>
-      </c>
+      <c r="G670" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
-      <c r="K670" s="48">
-        <v>44873</v>
-      </c>
+      <c r="K670" s="20"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="40"/>
-      <c r="B671" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="A671" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B671" s="20"/>
       <c r="C671" s="13"/>
-      <c r="D671" s="39">
-        <v>0.14600000000000002</v>
-      </c>
+      <c r="D671" s="39"/>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
       <c r="G671" s="13" t="str">
@@ -18001,14 +18021,14 @@
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="48"/>
+      <c r="K671" s="20"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B672" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C672" s="13">
         <v>1.25</v>
@@ -18020,42 +18040,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H672" s="39">
-        <v>3</v>
-      </c>
+      <c r="H672" s="39"/>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
       <c r="K672" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
-        <v>567</v>
+        <v>112</v>
       </c>
       <c r="C673" s="13"/>
-      <c r="D673" s="39">
-        <v>0.308</v>
-      </c>
+      <c r="D673" s="39"/>
       <c r="E673" s="9"/>
       <c r="F673" s="20"/>
       <c r="G673" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H673" s="39"/>
+      <c r="H673" s="39">
+        <v>2</v>
+      </c>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="20"/>
+      <c r="K673" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B674" s="20"/>
+      <c r="A674" s="40"/>
+      <c r="B674" s="20" t="s">
+        <v>533</v>
+      </c>
       <c r="C674" s="13"/>
-      <c r="D674" s="39"/>
+      <c r="D674" s="39">
+        <v>0.18100000000000002</v>
+      </c>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
       <c r="G674" s="13" t="str">
@@ -18068,99 +18090,99 @@
       <c r="K674" s="20"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A675" s="40"/>
       <c r="B675" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C675" s="13">
-        <v>1.25</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C675" s="13"/>
       <c r="D675" s="39"/>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H675" s="39"/>
+      <c r="G675" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H675" s="39">
+        <v>2</v>
+      </c>
       <c r="I675" s="9"/>
       <c r="J675" s="11"/>
       <c r="K675" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="40"/>
+      <c r="A676" s="40">
+        <v>44958</v>
+      </c>
       <c r="B676" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C676" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C676" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H676" s="39">
-        <v>2</v>
-      </c>
+      <c r="G676" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
       <c r="K676" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
-        <v>533</v>
+        <v>55</v>
       </c>
       <c r="C677" s="13"/>
-      <c r="D677" s="39">
-        <v>0.18100000000000002</v>
-      </c>
+      <c r="D677" s="39"/>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
       <c r="G677" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H677" s="39"/>
+      <c r="H677" s="39">
+        <v>3</v>
+      </c>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
-      <c r="K677" s="20"/>
+      <c r="K677" s="20" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
-        <v>112</v>
+        <v>587</v>
       </c>
       <c r="C678" s="13"/>
-      <c r="D678" s="39"/>
+      <c r="D678" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
       <c r="G678" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H678" s="39">
-        <v>2</v>
-      </c>
+      <c r="H678" s="39"/>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
-      <c r="K678" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="K678" s="48"/>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B679" s="20" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C679" s="13">
         <v>1.25</v>
@@ -18172,43 +18194,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H679" s="39"/>
+      <c r="H679" s="39">
+        <v>2</v>
+      </c>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
       <c r="K679" s="20" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C680" s="13"/>
-      <c r="D680" s="39"/>
+      <c r="D680" s="39">
+        <v>1</v>
+      </c>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
       <c r="G680" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H680" s="39">
-        <v>3</v>
-      </c>
+      <c r="H680" s="39"/>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
-      <c r="K680" s="20" t="s">
-        <v>116</v>
+      <c r="K680" s="48" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="C681" s="13"/>
       <c r="D681" s="39">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
@@ -18219,60 +18243,60 @@
       <c r="H681" s="39"/>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
-      <c r="K681" s="48">
-        <v>44984</v>
-      </c>
+      <c r="K681" s="48"/>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" s="40"/>
+      <c r="A682" s="40">
+        <v>45017</v>
+      </c>
       <c r="B682" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="C682" s="13"/>
-      <c r="D682" s="39">
-        <v>7.7000000000000013E-2</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C682" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D682" s="39"/>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H682" s="39"/>
+      <c r="G682" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H682" s="39">
+        <v>2</v>
+      </c>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="48"/>
+      <c r="K682" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C683" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D683" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="C683" s="13"/>
+      <c r="D683" s="39">
+        <v>3</v>
+      </c>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H683" s="39">
-        <v>2</v>
-      </c>
+      <c r="G683" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H683" s="39"/>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
       <c r="K683" s="20" t="s">
-        <v>117</v>
+        <v>591</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
-        <v>54</v>
+        <v>597</v>
       </c>
       <c r="C684" s="13"/>
       <c r="D684" s="39">
@@ -18287,18 +18311,18 @@
       <c r="H684" s="39"/>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
-      <c r="K684" s="48" t="s">
-        <v>593</v>
+      <c r="K684" s="48">
+        <v>45027</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
       <c r="C685" s="13"/>
       <c r="D685" s="39">
-        <v>1.35</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
@@ -18313,10 +18337,10 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B686" s="20" t="s">
-        <v>112</v>
+        <v>367</v>
       </c>
       <c r="C686" s="13">
         <v>1.25</v>
@@ -18329,22 +18353,22 @@
         <v>1.25</v>
       </c>
       <c r="H686" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
       <c r="K686" s="20" t="s">
-        <v>118</v>
+        <v>560</v>
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20" t="s">
-        <v>55</v>
+        <v>590</v>
       </c>
       <c r="C687" s="13"/>
       <c r="D687" s="39">
-        <v>3</v>
+        <v>0.15400000000000003</v>
       </c>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
@@ -18355,86 +18379,86 @@
       <c r="H687" s="39"/>
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
-      <c r="K687" s="20" t="s">
-        <v>592</v>
-      </c>
+      <c r="K687" s="48"/>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A688" s="40"/>
+      <c r="A688" s="40">
+        <v>45078</v>
+      </c>
       <c r="B688" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="C688" s="13"/>
-      <c r="D688" s="39">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C688" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D688" s="39"/>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
-      <c r="G688" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H688" s="39"/>
+      <c r="G688" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H688" s="39">
+        <v>2</v>
+      </c>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
-      <c r="K688" s="48">
-        <v>45027</v>
+      <c r="K688" s="20" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
-        <v>538</v>
+        <v>112</v>
       </c>
       <c r="C689" s="13"/>
-      <c r="D689" s="39">
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="D689" s="39"/>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
       <c r="G689" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H689" s="39"/>
+      <c r="H689" s="39">
+        <v>2</v>
+      </c>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
-      <c r="K689" s="48"/>
+      <c r="K689" s="20" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A690" s="40"/>
       <c r="B690" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C690" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D690" s="39"/>
+        <v>170</v>
+      </c>
+      <c r="C690" s="13"/>
+      <c r="D690" s="39">
+        <v>2</v>
+      </c>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H690" s="39">
-        <v>5</v>
-      </c>
+      <c r="G690" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="39"/>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
       <c r="K690" s="20" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="C691" s="13"/>
       <c r="D691" s="39">
-        <v>1</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
@@ -18445,108 +18469,108 @@
       <c r="H691" s="39"/>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
-      <c r="K691" s="48">
-        <v>45065</v>
-      </c>
+      <c r="K691" s="20"/>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A692" s="40"/>
+      <c r="A692" s="40">
+        <v>45108</v>
+      </c>
       <c r="B692" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="C692" s="13"/>
-      <c r="D692" s="39">
-        <v>0.15400000000000003</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C692" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D692" s="39"/>
       <c r="E692" s="9"/>
       <c r="F692" s="20"/>
-      <c r="G692" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H692" s="39"/>
+      <c r="G692" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H692" s="39">
+        <v>2</v>
+      </c>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
-      <c r="K692" s="48"/>
+      <c r="K692" s="20" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C693" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D693" s="39"/>
+        <v>240</v>
+      </c>
+      <c r="C693" s="13"/>
+      <c r="D693" s="39">
+        <v>3</v>
+      </c>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H693" s="39">
-        <v>2</v>
-      </c>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="39"/>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
       <c r="K693" s="20" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
-        <v>112</v>
+        <v>566</v>
       </c>
       <c r="C694" s="13"/>
-      <c r="D694" s="39"/>
+      <c r="D694" s="39">
+        <v>8</v>
+      </c>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
       <c r="G694" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H694" s="39">
-        <v>2</v>
-      </c>
+      <c r="H694" s="39"/>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
       <c r="K694" s="20" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C695" s="13"/>
-      <c r="D695" s="39">
-        <v>2</v>
-      </c>
+      <c r="D695" s="39"/>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
       <c r="G695" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H695" s="39"/>
+      <c r="H695" s="39">
+        <v>1</v>
+      </c>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
-      <c r="K695" s="20" t="s">
-        <v>563</v>
+      <c r="K695" s="48">
+        <v>45124</v>
       </c>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C696" s="13"/>
       <c r="D696" s="39">
-        <v>7.5000000000000011E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E696" s="9"/>
       <c r="F696" s="20"/>
@@ -18557,11 +18581,11 @@
       <c r="H696" s="39"/>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
-      <c r="K696" s="20"/>
+      <c r="K696" s="48"/>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B697" s="20" t="s">
         <v>112</v>
@@ -18582,17 +18606,17 @@
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
       <c r="K697" s="20" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
-        <v>240</v>
+        <v>587</v>
       </c>
       <c r="C698" s="13"/>
       <c r="D698" s="39">
-        <v>3</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
@@ -18603,30 +18627,32 @@
       <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20" t="s">
-        <v>565</v>
-      </c>
+      <c r="K698" s="20"/>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A699" s="40"/>
+      <c r="A699" s="40">
+        <v>45170</v>
+      </c>
       <c r="B699" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="C699" s="13"/>
-      <c r="D699" s="39">
-        <v>8</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C699" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H699" s="39"/>
+      <c r="G699" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H699" s="39">
+        <v>1</v>
+      </c>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
-      <c r="K699" s="20" t="s">
-        <v>571</v>
+      <c r="K699" s="48">
+        <v>45170</v>
       </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
@@ -18648,245 +18674,239 @@
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
       <c r="K700" s="48">
-        <v>45124</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
-        <v>589</v>
+        <v>112</v>
       </c>
       <c r="C701" s="13"/>
-      <c r="D701" s="39">
-        <v>0.09</v>
-      </c>
+      <c r="D701" s="39"/>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
       <c r="G701" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H701" s="39"/>
+      <c r="H701" s="39">
+        <v>2</v>
+      </c>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
-      <c r="K701" s="48"/>
+      <c r="K701" s="48" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A702" s="40"/>
       <c r="B702" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C702" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D702" s="39"/>
+        <v>586</v>
+      </c>
+      <c r="C702" s="13"/>
+      <c r="D702" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H702" s="39">
-        <v>2</v>
-      </c>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H702" s="39"/>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
-      <c r="K702" s="20" t="s">
-        <v>577</v>
-      </c>
+      <c r="K702" s="48"/>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" s="40"/>
+      <c r="A703" s="40">
+        <v>45200</v>
+      </c>
       <c r="B703" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="C703" s="13"/>
-      <c r="D703" s="39">
-        <v>7.7000000000000013E-2</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C703" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H703" s="39"/>
+      <c r="G703" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H703" s="39">
+        <v>1</v>
+      </c>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
-      <c r="K703" s="20"/>
+      <c r="K703" s="48">
+        <v>45208</v>
+      </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A704" s="40"/>
       <c r="B704" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C704" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D704" s="39"/>
+        <v>585</v>
+      </c>
+      <c r="C704" s="13"/>
+      <c r="D704" s="39">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H704" s="39">
-        <v>1</v>
-      </c>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
-      <c r="K704" s="48">
-        <v>45170</v>
-      </c>
+      <c r="K704" s="48"/>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" s="40"/>
+      <c r="A705" s="40">
+        <v>45231</v>
+      </c>
       <c r="B705" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C705" s="13"/>
+        <v>415</v>
+      </c>
+      <c r="C705" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G705" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H705" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
-      <c r="K705" s="48">
-        <v>45169</v>
+      <c r="K705" s="20" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="C706" s="13"/>
-      <c r="D706" s="39"/>
+      <c r="D706" s="39">
+        <v>0.20600000000000002</v>
+      </c>
       <c r="E706" s="9"/>
       <c r="F706" s="20"/>
       <c r="G706" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H706" s="39">
-        <v>2</v>
-      </c>
+      <c r="H706" s="39"/>
       <c r="I706" s="9"/>
       <c r="J706" s="11"/>
-      <c r="K706" s="48" t="s">
-        <v>580</v>
-      </c>
+      <c r="K706" s="48"/>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" s="40"/>
+      <c r="A707" s="40">
+        <v>45261</v>
+      </c>
       <c r="B707" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="C707" s="13"/>
+        <v>584</v>
+      </c>
+      <c r="C707" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D707" s="39">
-        <v>8.500000000000002E-2</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G707" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
-      <c r="K707" s="48"/>
+      <c r="K707" s="20"/>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A708" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B708" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C708" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A708" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="B708" s="20"/>
+      <c r="C708" s="13"/>
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H708" s="39">
-        <v>1</v>
-      </c>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H708" s="39"/>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
-      <c r="K708" s="48">
-        <v>45208</v>
-      </c>
+      <c r="K708" s="20"/>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A709" s="40"/>
+      <c r="A709" s="40">
+        <v>45322</v>
+      </c>
       <c r="B709" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="C709" s="13"/>
-      <c r="D709" s="39">
-        <v>0.10200000000000001</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C709" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D709" s="39"/>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
-      <c r="G709" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H709" s="39"/>
+      <c r="G709" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H709" s="39">
+        <v>1</v>
+      </c>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
-      <c r="K709" s="48"/>
+      <c r="K709" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A710" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A710" s="40"/>
       <c r="B710" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="C710" s="13">
-        <v>1.25</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C710" s="13"/>
       <c r="D710" s="39"/>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
-      <c r="G710" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H710" s="39">
-        <v>3</v>
-      </c>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H710" s="39"/>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
-      <c r="K710" s="20" t="s">
-        <v>581</v>
+      <c r="K710" s="48">
+        <v>45296</v>
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="C711" s="13"/>
       <c r="D711" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
@@ -18897,57 +18917,57 @@
       <c r="H711" s="39"/>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
-      <c r="K711" s="48">
-        <v>45233</v>
+      <c r="K711" s="64" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="40"/>
+      <c r="A712" s="40">
+        <v>45323</v>
+      </c>
       <c r="B712" s="20" t="s">
-        <v>286</v>
+        <v>594</v>
       </c>
       <c r="C712" s="13"/>
-      <c r="D712" s="39">
-        <v>0.20600000000000002</v>
-      </c>
+      <c r="D712" s="39"/>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
       <c r="G712" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H712" s="39"/>
+      <c r="H712" s="39">
+        <v>7</v>
+      </c>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
-      <c r="K712" s="48"/>
+      <c r="K712" s="20" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A713" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A713" s="40"/>
       <c r="B713" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="C713" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D713" s="39">
-        <v>0.60199999999999998</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C713" s="13"/>
+      <c r="D713" s="39"/>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
-      <c r="G713" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
-      <c r="K713" s="20"/>
+      <c r="K713" s="20" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A714" s="49" t="s">
-        <v>582</v>
+      <c r="A714" s="40">
+        <v>45352</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18965,35 +18985,27 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B715" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C715" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45383</v>
+      </c>
+      <c r="B715" s="20"/>
+      <c r="C715" s="13"/>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
-      <c r="G715" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H715" s="39">
-        <v>1</v>
-      </c>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="48">
-        <v>45293</v>
-      </c>
+      <c r="K715" s="20"/>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40"/>
-      <c r="B716" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="A716" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B716" s="20"/>
       <c r="C716" s="13"/>
       <c r="D716" s="39"/>
       <c r="E716" s="9"/>
@@ -19005,17 +19017,13 @@
       <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="48">
-        <v>45296</v>
-      </c>
+      <c r="K716" s="20"/>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B717" s="20" t="s">
-        <v>595</v>
-      </c>
+        <v>45444</v>
+      </c>
+      <c r="B717" s="20"/>
       <c r="C717" s="13"/>
       <c r="D717" s="39"/>
       <c r="E717" s="9"/>
@@ -19024,20 +19032,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H717" s="39">
-        <v>7</v>
-      </c>
+      <c r="H717" s="39"/>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
-      <c r="K717" s="20" t="s">
-        <v>596</v>
-      </c>
+      <c r="K717" s="20"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40"/>
-      <c r="B718" s="20" t="s">
-        <v>381</v>
-      </c>
+      <c r="A718" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B718" s="20"/>
       <c r="C718" s="13"/>
       <c r="D718" s="39"/>
       <c r="E718" s="9"/>
@@ -19049,12 +19053,12 @@
       <c r="H718" s="39"/>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="20" t="s">
-        <v>597</v>
-      </c>
+      <c r="K718" s="20"/>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40"/>
+      <c r="A719" s="40">
+        <v>45505</v>
+      </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
@@ -19071,7 +19075,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19089,7 +19093,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45383</v>
+        <v>45566</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19107,7 +19111,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45413</v>
+        <v>45597</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19125,7 +19129,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45444</v>
+        <v>45627</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19143,7 +19147,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45474</v>
+        <v>45658</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19161,7 +19165,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45505</v>
+        <v>45689</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19179,7 +19183,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45536</v>
+        <v>45717</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19197,7 +19201,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45566</v>
+        <v>45748</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19215,7 +19219,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45597</v>
+        <v>45778</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19233,7 +19237,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45627</v>
+        <v>45809</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19251,7 +19255,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45658</v>
+        <v>45839</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19268,9 +19272,7 @@
       <c r="K730" s="20"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="40">
-        <v>45689</v>
-      </c>
+      <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
       <c r="D731" s="39"/>
@@ -19286,9 +19288,7 @@
       <c r="K731" s="20"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A732" s="40">
-        <v>45717</v>
-      </c>
+      <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
       <c r="D732" s="39"/>
@@ -19304,9 +19304,7 @@
       <c r="K732" s="20"/>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A733" s="40">
-        <v>45748</v>
-      </c>
+      <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
       <c r="D733" s="39"/>
@@ -19322,9 +19320,7 @@
       <c r="K733" s="20"/>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A734" s="40">
-        <v>45778</v>
-      </c>
+      <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
       <c r="D734" s="39"/>
@@ -19340,9 +19336,7 @@
       <c r="K734" s="20"/>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" s="40">
-        <v>45809</v>
-      </c>
+      <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
       <c r="D735" s="39"/>
@@ -19358,118 +19352,20 @@
       <c r="K735" s="20"/>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A736" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B736" s="20"/>
-      <c r="C736" s="13"/>
-      <c r="D736" s="39"/>
+      <c r="A736" s="41"/>
+      <c r="B736" s="15"/>
+      <c r="C736" s="42"/>
+      <c r="D736" s="43"/>
       <c r="E736" s="9"/>
-      <c r="F736" s="20"/>
+      <c r="F736" s="15"/>
       <c r="G736" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H736" s="39"/>
+      <c r="H736" s="43"/>
       <c r="I736" s="9"/>
-      <c r="J736" s="11"/>
-      <c r="K736" s="20"/>
-    </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A737" s="40"/>
-      <c r="B737" s="20"/>
-      <c r="C737" s="13"/>
-      <c r="D737" s="39"/>
-      <c r="E737" s="9"/>
-      <c r="F737" s="20"/>
-      <c r="G737" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H737" s="39"/>
-      <c r="I737" s="9"/>
-      <c r="J737" s="11"/>
-      <c r="K737" s="20"/>
-    </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A738" s="40"/>
-      <c r="B738" s="20"/>
-      <c r="C738" s="13"/>
-      <c r="D738" s="39"/>
-      <c r="E738" s="9"/>
-      <c r="F738" s="20"/>
-      <c r="G738" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H738" s="39"/>
-      <c r="I738" s="9"/>
-      <c r="J738" s="11"/>
-      <c r="K738" s="20"/>
-    </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A739" s="40"/>
-      <c r="B739" s="20"/>
-      <c r="C739" s="13"/>
-      <c r="D739" s="39"/>
-      <c r="E739" s="9"/>
-      <c r="F739" s="20"/>
-      <c r="G739" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H739" s="39"/>
-      <c r="I739" s="9"/>
-      <c r="J739" s="11"/>
-      <c r="K739" s="20"/>
-    </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" s="40"/>
-      <c r="B740" s="20"/>
-      <c r="C740" s="13"/>
-      <c r="D740" s="39"/>
-      <c r="E740" s="9"/>
-      <c r="F740" s="20"/>
-      <c r="G740" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H740" s="39"/>
-      <c r="I740" s="9"/>
-      <c r="J740" s="11"/>
-      <c r="K740" s="20"/>
-    </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A741" s="40"/>
-      <c r="B741" s="20"/>
-      <c r="C741" s="13"/>
-      <c r="D741" s="39"/>
-      <c r="E741" s="9"/>
-      <c r="F741" s="20"/>
-      <c r="G741" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H741" s="39"/>
-      <c r="I741" s="9"/>
-      <c r="J741" s="11"/>
-      <c r="K741" s="20"/>
-    </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A742" s="41"/>
-      <c r="B742" s="15"/>
-      <c r="C742" s="42"/>
-      <c r="D742" s="43"/>
-      <c r="E742" s="9"/>
-      <c r="F742" s="15"/>
-      <c r="G742" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H742" s="43"/>
-      <c r="I742" s="9"/>
-      <c r="J742" s="12"/>
-      <c r="K742" s="15"/>
+      <c r="J736" s="12"/>
+      <c r="K736" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
